--- a/data/业绩比较基准数据.xlsx
+++ b/data/业绩比较基准数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\dataspell-analysis\ds-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D9747B-CB26-455A-B499-57507A12B1A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3F023C-11B7-4435-BF72-FAE687AB78DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{C248513A-B504-4B83-910F-5E7DDAD17B3E}"/>
   </bookViews>
@@ -524,10 +524,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D65061-BCFD-46DC-A163-26550D595C1F}">
-  <dimension ref="A1:G420"/>
+  <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A410" workbookViewId="0">
+      <selection activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -540,7 +540,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str">
-        <f ca="1">[1]!HX_HisQuote("[399300.SZ]", "[open,high,low,close,volume,amount]", "1", "2021-06-21", 参数!$D$2, -1, "-1", 1, 2, 1, 1, 1, 1, 1, 1, 3, "1", "1900-1-1", "YSHB;Tradedays")</f>
+        <f ca="1">[1]!HX_HisQuote("[399300.SZ]", "[open,high,low,close,volume,amount]", "1", "2021-06-21",参数!$D$2, -1, "-1", 1, 2, 1, 1, 1, 1, 1, 1, 3, "1", "1900-1-1", "YSHB;Tradedays")</f>
         <v>同花顺iFinD</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -9899,25 +9899,25 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
-        <v>44958</v>
+        <v>44977</v>
       </c>
       <c r="B408" s="5">
-        <v>4170.1322</v>
+        <v>4039.9623000000001</v>
       </c>
       <c r="C408" s="5">
-        <v>4195.9332000000004</v>
+        <v>4134.8622999999998</v>
       </c>
       <c r="D408" s="5">
-        <v>4137.7659000000003</v>
+        <v>4035.4762000000001</v>
       </c>
       <c r="E408" s="5">
-        <v>4195.9332000000004</v>
+        <v>4133.4895999999999</v>
       </c>
       <c r="F408" s="5">
-        <v>141008954</v>
+        <v>161794481</v>
       </c>
       <c r="G408" s="5">
-        <v>265553944709.29999</v>
+        <v>280122962150.40002</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
@@ -10194,6 +10194,11 @@
       </c>
       <c r="G420" s="5">
         <v>225737746955</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A421" s="3">
+        <v>44977</v>
       </c>
     </row>
   </sheetData>
@@ -10205,10 +10210,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CEB2F0-8AF2-4FCB-952D-16E7F3CB5E48}">
-  <dimension ref="A1:G420"/>
+  <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A409" workbookViewId="0">
+      <selection activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19580,25 +19585,25 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
-        <v>44958</v>
+        <v>44977</v>
       </c>
       <c r="B408" s="5">
-        <v>6815.0568999999996</v>
+        <v>6871.8624</v>
       </c>
       <c r="C408" s="5">
-        <v>6916.7257</v>
+        <v>6959.7514000000001</v>
       </c>
       <c r="D408" s="5">
-        <v>6812.7857999999997</v>
+        <v>6825.8738000000003</v>
       </c>
       <c r="E408" s="5">
-        <v>6916.7204000000002</v>
+        <v>6959.3608999999997</v>
       </c>
       <c r="F408" s="5">
-        <v>169651661</v>
+        <v>165614379</v>
       </c>
       <c r="G408" s="5">
-        <v>208871365597</v>
+        <v>196438661978</v>
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
@@ -19875,6 +19880,11 @@
       </c>
       <c r="G420" s="5">
         <v>203845829245</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A421" s="3">
+        <v>44977</v>
       </c>
     </row>
   </sheetData>
@@ -19885,10 +19895,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82959531-E717-4F8B-BB5A-0A74A73B6DAC}">
-  <dimension ref="A1:G420"/>
+  <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -29258,19 +29268,19 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
-        <v>44958</v>
+        <v>44977</v>
       </c>
       <c r="B408" s="5">
-        <v>225.62799999999999</v>
+        <v>226.01349999999999</v>
       </c>
       <c r="C408" s="5">
-        <v>225.62799999999999</v>
+        <v>226.01349999999999</v>
       </c>
       <c r="D408" s="5">
-        <v>225.62799999999999</v>
+        <v>226.01349999999999</v>
       </c>
       <c r="E408" s="5">
-        <v>225.62799999999999</v>
+        <v>226.01349999999999</v>
       </c>
       <c r="F408" s="5">
         <v>0</v>
@@ -29553,6 +29563,11 @@
       </c>
       <c r="G420" s="5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A421" s="3">
+        <v>44977</v>
       </c>
     </row>
   </sheetData>
@@ -29564,10 +29579,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6508B615-C4C0-4A79-A165-6AE659695A0E}">
-  <dimension ref="A1:G420"/>
+  <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A406" workbookViewId="0">
+      <selection activeCell="A421" sqref="A421"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -38937,19 +38952,19 @@
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A408" s="3">
-        <v>44958</v>
+        <v>44977</v>
       </c>
       <c r="B408" s="5">
-        <v>212.5027</v>
+        <v>212.7346</v>
       </c>
       <c r="C408" s="5">
-        <v>212.5027</v>
+        <v>212.7346</v>
       </c>
       <c r="D408" s="5">
-        <v>212.5027</v>
+        <v>212.7346</v>
       </c>
       <c r="E408" s="5">
-        <v>212.5027</v>
+        <v>212.7346</v>
       </c>
       <c r="F408" s="5">
         <v>0</v>
@@ -39232,6 +39247,11 @@
       </c>
       <c r="G420" s="5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A421" s="3">
+        <v>44977</v>
       </c>
     </row>
   </sheetData>
@@ -39242,10 +39262,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39F584C-6D90-4048-B26D-97D5525D1AA1}">
-  <dimension ref="A1:G336"/>
+  <dimension ref="A1:G337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -46980,6 +47000,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A337" s="3">
+        <v>44977</v>
+      </c>
+      <c r="B337" s="5">
+        <v>1126.789</v>
+      </c>
+      <c r="C337" s="5">
+        <v>1126.789</v>
+      </c>
+      <c r="D337" s="5">
+        <v>1126.789</v>
+      </c>
+      <c r="E337" s="5">
+        <v>1126.789</v>
+      </c>
+      <c r="F337" s="5">
+        <v>0</v>
+      </c>
+      <c r="G337" s="5">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -46991,7 +47034,7 @@
   <dimension ref="A2:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -47006,12 +47049,12 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>44976.909354976851</v>
+        <v>44978.428476851848</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="7">
-        <f ca="1">DATE(YEAR(B2),MONTH(B2),DAY(B2)-1)</f>
-        <v>44975</v>
+        <f ca="1">DATE(YEAR(B2),MONTH(B2),DAY(B2))</f>
+        <v>44978</v>
       </c>
     </row>
   </sheetData>

--- a/data/业绩比较基准数据.xlsx
+++ b/data/业绩比较基准数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\dataspell-analysis\ds-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A3F023C-11B7-4435-BF72-FAE687AB78DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30387AF-1683-4164-9C81-9FC2C2072D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{C248513A-B504-4B83-910F-5E7DDAD17B3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C248513A-B504-4B83-910F-5E7DDAD17B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="沪深300指数" sheetId="1" r:id="rId1"/>
@@ -45,71 +45,54 @@
   </si>
   <si>
     <t>日期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>H11006.CSI</t>
+  </si>
+  <si>
+    <t>中证国债</t>
+  </si>
+  <si>
+    <t>开盘价</t>
+  </si>
+  <si>
+    <t>最高价</t>
+  </si>
+  <si>
+    <t>最低价</t>
+  </si>
+  <si>
+    <t>收盘价</t>
+  </si>
+  <si>
+    <t>成交量</t>
+  </si>
+  <si>
+    <t>成交额</t>
+  </si>
+  <si>
+    <t>000852.SH</t>
+  </si>
+  <si>
+    <t>中证1000</t>
+  </si>
+  <si>
+    <t>H11001.CSI</t>
+  </si>
+  <si>
+    <t>中证全债</t>
   </si>
   <si>
     <t>399300.SZ</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>沪深300</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开盘价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>932006.CSI</t>
   </si>
   <si>
-    <t>最高价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>最低价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收盘价</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交量</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>成交额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>000852.SH</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中证1000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>H11001.CSI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中证全债</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>H11006.CSI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中证国债</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>932006CNY01.CSI</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中证REITs(收盘)全收益</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>中证REITs(收盘)</t>
   </si>
 </sst>
 </file>
@@ -526,9 +509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D65061-BCFD-46DC-A163-26550D595C1F}">
   <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView topLeftCell="A410" workbookViewId="0">
-      <selection activeCell="A421" sqref="A421"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -540,46 +521,46 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str">
-        <f ca="1">[1]!HX_HisQuote("[399300.SZ]", "[open,high,low,close,volume,amount]", "1", "2021-06-21",参数!$D$2, -1, "-1", 1, 2, 1, 1, 1, 1, 1, 1, 3, "1", "1900-1-1", "YSHB;Tradedays")</f>
+        <f>[1]!HX_HisQuote("[399300.SZ]", "[open,high,low,close,volume,amount]", "2", "2021-06-21", -1, -1, "-1", 1, 2, 1, 1, 1, 1, 1, 1, 3, "1", "1900-1-1", "YSHB;Tradedays")</f>
         <v>同花顺iFinD</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -9922,284 +9903,128 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
-        <v>44959</v>
+        <v>44978</v>
       </c>
       <c r="B409" s="5">
-        <v>4207.4123</v>
+        <v>4130.0631999999996</v>
       </c>
       <c r="C409" s="5">
-        <v>4207.4123</v>
+        <v>4151.7993999999999</v>
       </c>
       <c r="D409" s="5">
-        <v>4170.5564999999997</v>
+        <v>4116.2716</v>
       </c>
       <c r="E409" s="5">
-        <v>4181.1493</v>
+        <v>4144.3536000000004</v>
       </c>
       <c r="F409" s="5">
-        <v>133823736</v>
+        <v>145776173</v>
       </c>
       <c r="G409" s="5">
-        <v>262497434837</v>
+        <v>249674201048.20001</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A410" s="3">
-        <v>44960</v>
-      </c>
-      <c r="B410" s="5">
-        <v>4162.0258000000003</v>
-      </c>
-      <c r="C410" s="5">
-        <v>4162.0258000000003</v>
-      </c>
-      <c r="D410" s="5">
-        <v>4103.1653999999999</v>
-      </c>
-      <c r="E410" s="5">
-        <v>4141.6319000000003</v>
-      </c>
-      <c r="F410" s="5">
-        <v>117041221</v>
-      </c>
-      <c r="G410" s="5">
-        <v>226914770043.89999</v>
-      </c>
+      <c r="A410" s="3"/>
+      <c r="B410" s="5"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A411" s="3">
-        <v>44963</v>
-      </c>
-      <c r="B411" s="5">
-        <v>4103.8307000000004</v>
-      </c>
-      <c r="C411" s="5">
-        <v>4105.9444999999996</v>
-      </c>
-      <c r="D411" s="5">
-        <v>4065.2224000000001</v>
-      </c>
-      <c r="E411" s="5">
-        <v>4086.8779</v>
-      </c>
-      <c r="F411" s="5">
-        <v>110192717</v>
-      </c>
-      <c r="G411" s="5">
-        <v>226345113968.70001</v>
-      </c>
+      <c r="A411" s="3"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A412" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B412" s="5">
-        <v>4098.3117000000002</v>
-      </c>
-      <c r="C412" s="5">
-        <v>4107.3437999999996</v>
-      </c>
-      <c r="D412" s="5">
-        <v>4077.9623000000001</v>
-      </c>
-      <c r="E412" s="5">
-        <v>4094.2334999999998</v>
-      </c>
-      <c r="F412" s="5">
-        <v>91360072</v>
-      </c>
-      <c r="G412" s="5">
-        <v>183537351577.10001</v>
-      </c>
+      <c r="A412" s="3"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A413" s="3">
-        <v>44965</v>
-      </c>
-      <c r="B413" s="5">
-        <v>4099.8572999999997</v>
-      </c>
-      <c r="C413" s="5">
-        <v>4111.4745000000003</v>
-      </c>
-      <c r="D413" s="5">
-        <v>4072.6473999999998</v>
-      </c>
-      <c r="E413" s="5">
-        <v>4076.1410999999998</v>
-      </c>
-      <c r="F413" s="5">
-        <v>84786099</v>
-      </c>
-      <c r="G413" s="5">
-        <v>170591751817.29999</v>
-      </c>
+      <c r="A413" s="3"/>
+      <c r="B413" s="5"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A414" s="3">
-        <v>44966</v>
-      </c>
-      <c r="B414" s="5">
-        <v>4067.5630999999998</v>
-      </c>
-      <c r="C414" s="5">
-        <v>4130.8564999999999</v>
-      </c>
-      <c r="D414" s="5">
-        <v>4064.7489</v>
-      </c>
-      <c r="E414" s="5">
-        <v>4130.8564999999999</v>
-      </c>
-      <c r="F414" s="5">
-        <v>102289961</v>
-      </c>
-      <c r="G414" s="5">
-        <v>211722604859.20001</v>
-      </c>
+      <c r="A414" s="3"/>
+      <c r="B414" s="5"/>
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A415" s="3">
-        <v>44967</v>
-      </c>
-      <c r="B415" s="5">
-        <v>4124.0986000000003</v>
-      </c>
-      <c r="C415" s="5">
-        <v>4125.2893000000004</v>
-      </c>
-      <c r="D415" s="5">
-        <v>4092.3472000000002</v>
-      </c>
-      <c r="E415" s="5">
-        <v>4106.3096999999998</v>
-      </c>
-      <c r="F415" s="5">
-        <v>96716733</v>
-      </c>
-      <c r="G415" s="5">
-        <v>195348320573.39999</v>
-      </c>
+      <c r="A415" s="3"/>
+      <c r="B415" s="5"/>
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A416" s="3">
-        <v>44970</v>
-      </c>
-      <c r="B416" s="5">
-        <v>4098.8795</v>
-      </c>
-      <c r="C416" s="5">
-        <v>4146.45</v>
-      </c>
-      <c r="D416" s="5">
-        <v>4092.2728999999999</v>
-      </c>
-      <c r="E416" s="5">
-        <v>4143.5739999999996</v>
-      </c>
-      <c r="F416" s="5">
-        <v>128892577</v>
-      </c>
-      <c r="G416" s="5">
-        <v>251990181553.89999</v>
-      </c>
+      <c r="A416" s="3"/>
+      <c r="B416" s="5"/>
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A417" s="3">
-        <v>44971</v>
-      </c>
-      <c r="B417" s="5">
-        <v>4151.2470000000003</v>
-      </c>
-      <c r="C417" s="5">
-        <v>4152.0487000000003</v>
-      </c>
-      <c r="D417" s="5">
-        <v>4125.2583000000004</v>
-      </c>
-      <c r="E417" s="5">
-        <v>4145.2902000000004</v>
-      </c>
-      <c r="F417" s="5">
-        <v>102499890</v>
-      </c>
-      <c r="G417" s="5">
-        <v>204915435749.89999</v>
-      </c>
+      <c r="A417" s="3"/>
+      <c r="B417" s="5"/>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A418" s="3">
-        <v>44972</v>
-      </c>
-      <c r="B418" s="5">
-        <v>4146.8546999999999</v>
-      </c>
-      <c r="C418" s="5">
-        <v>4153.7159000000001</v>
-      </c>
-      <c r="D418" s="5">
-        <v>4115.9670999999998</v>
-      </c>
-      <c r="E418" s="5">
-        <v>4123.6893</v>
-      </c>
-      <c r="F418" s="5">
-        <v>121664508</v>
-      </c>
-      <c r="G418" s="5">
-        <v>219855528966.39999</v>
-      </c>
+      <c r="A418" s="3"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A419" s="3">
-        <v>44973</v>
-      </c>
-      <c r="B419" s="5">
-        <v>4125.4087</v>
-      </c>
-      <c r="C419" s="5">
-        <v>4167.9003000000002</v>
-      </c>
-      <c r="D419" s="5">
-        <v>4068.8591000000001</v>
-      </c>
-      <c r="E419" s="5">
-        <v>4093.4875999999999</v>
-      </c>
-      <c r="F419" s="5">
-        <v>159310585</v>
-      </c>
-      <c r="G419" s="5">
-        <v>281315625588.59998</v>
-      </c>
+      <c r="A419" s="3"/>
+      <c r="B419" s="5"/>
+      <c r="C419" s="5"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A420" s="3">
-        <v>44974</v>
-      </c>
-      <c r="B420" s="5">
-        <v>4086.2237</v>
-      </c>
-      <c r="C420" s="5">
-        <v>4104.6397999999999</v>
-      </c>
-      <c r="D420" s="5">
-        <v>4032.9285</v>
-      </c>
-      <c r="E420" s="5">
-        <v>4034.5070000000001</v>
-      </c>
-      <c r="F420" s="5">
-        <v>116142589</v>
-      </c>
-      <c r="G420" s="5">
-        <v>225737746955</v>
-      </c>
+      <c r="A420" s="3"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="5"/>
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A421" s="3">
-        <v>44977</v>
-      </c>
+      <c r="A421" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10212,9 +10037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CEB2F0-8AF2-4FCB-952D-16E7F3CB5E48}">
   <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView topLeftCell="A409" workbookViewId="0">
-      <selection activeCell="A421" sqref="A421"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10226,7 +10049,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str">
-        <f ca="1">[1]!HX_HisQuote("[000852.SH]", "[open,high,low,close,volume,amount]", "1", "2021-06-21",参数!$D$2, -1, "-1", 1, 2, 1, 1, 1, 1, 1, 1, 3, "1", "1900-1-1", "YSHB;Tradedays")</f>
+        <f>[1]!HX_HisQuote("[000852.SH]", "[open,high,low,close,volume,amount]", "2", "2021-06-21", -1, -1, "-1", 1, 2, 1, 1, 1, 1, 1, 1, 3, "1", "1900-1-1", "YSHB;Tradedays")</f>
         <v>同花顺iFinD</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -19608,284 +19431,128 @@
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A409" s="3">
-        <v>44959</v>
+        <v>44978</v>
       </c>
       <c r="B409" s="5">
-        <v>6926.5792000000001</v>
+        <v>6969.3549000000003</v>
       </c>
       <c r="C409" s="5">
-        <v>6969.7876999999999</v>
+        <v>7008.5464000000002</v>
       </c>
       <c r="D409" s="5">
-        <v>6908.6972999999998</v>
+        <v>6939.5928999999996</v>
       </c>
       <c r="E409" s="5">
-        <v>6933.2257</v>
+        <v>6990.4750999999997</v>
       </c>
       <c r="F409" s="5">
-        <v>167133986</v>
+        <v>171690946</v>
       </c>
       <c r="G409" s="5">
-        <v>212328053407</v>
+        <v>203386321239.5</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A410" s="3">
-        <v>44960</v>
-      </c>
-      <c r="B410" s="5">
-        <v>6922.7903999999999</v>
-      </c>
-      <c r="C410" s="5">
-        <v>6934.3247000000001</v>
-      </c>
-      <c r="D410" s="5">
-        <v>6829.3986999999997</v>
-      </c>
-      <c r="E410" s="5">
-        <v>6925.076</v>
-      </c>
-      <c r="F410" s="5">
-        <v>157558880</v>
-      </c>
-      <c r="G410" s="5">
-        <v>194152771393</v>
-      </c>
+      <c r="A410" s="3"/>
+      <c r="B410" s="5"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A411" s="3">
-        <v>44963</v>
-      </c>
-      <c r="B411" s="5">
-        <v>6902.4919</v>
-      </c>
-      <c r="C411" s="5">
-        <v>6928.2811000000002</v>
-      </c>
-      <c r="D411" s="5">
-        <v>6853.9114</v>
-      </c>
-      <c r="E411" s="5">
-        <v>6891.4129999999996</v>
-      </c>
-      <c r="F411" s="5">
-        <v>146059027</v>
-      </c>
-      <c r="G411" s="5">
-        <v>182865349058</v>
-      </c>
+      <c r="A411" s="3"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A412" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B412" s="5">
-        <v>6900.2322000000004</v>
-      </c>
-      <c r="C412" s="5">
-        <v>6924.4191000000001</v>
-      </c>
-      <c r="D412" s="5">
-        <v>6864.2057000000004</v>
-      </c>
-      <c r="E412" s="5">
-        <v>6924.3212999999996</v>
-      </c>
-      <c r="F412" s="5">
-        <v>150108752</v>
-      </c>
-      <c r="G412" s="5">
-        <v>187069724944</v>
-      </c>
+      <c r="A412" s="3"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A413" s="3">
-        <v>44965</v>
-      </c>
-      <c r="B413" s="5">
-        <v>6927.3302999999996</v>
-      </c>
-      <c r="C413" s="5">
-        <v>6932.9904999999999</v>
-      </c>
-      <c r="D413" s="5">
-        <v>6873.5989</v>
-      </c>
-      <c r="E413" s="5">
-        <v>6877.7246999999998</v>
-      </c>
-      <c r="F413" s="5">
-        <v>138510731</v>
-      </c>
-      <c r="G413" s="5">
-        <v>173815150505</v>
-      </c>
+      <c r="A413" s="3"/>
+      <c r="B413" s="5"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A414" s="3">
-        <v>44966</v>
-      </c>
-      <c r="B414" s="5">
-        <v>6864.0266000000001</v>
-      </c>
-      <c r="C414" s="5">
-        <v>6999.1821</v>
-      </c>
-      <c r="D414" s="5">
-        <v>6850.5691999999999</v>
-      </c>
-      <c r="E414" s="5">
-        <v>6999.1821</v>
-      </c>
-      <c r="F414" s="5">
-        <v>149147697</v>
-      </c>
-      <c r="G414" s="5">
-        <v>194994550267</v>
-      </c>
+      <c r="A414" s="3"/>
+      <c r="B414" s="5"/>
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A415" s="3">
-        <v>44967</v>
-      </c>
-      <c r="B415" s="5">
-        <v>6991.2340999999997</v>
-      </c>
-      <c r="C415" s="5">
-        <v>7015.2485999999999</v>
-      </c>
-      <c r="D415" s="5">
-        <v>6926.4825000000001</v>
-      </c>
-      <c r="E415" s="5">
-        <v>6975.3945000000003</v>
-      </c>
-      <c r="F415" s="5">
-        <v>152432051</v>
-      </c>
-      <c r="G415" s="5">
-        <v>189923379511</v>
-      </c>
+      <c r="A415" s="3"/>
+      <c r="B415" s="5"/>
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A416" s="3">
-        <v>44970</v>
-      </c>
-      <c r="B416" s="5">
-        <v>6976.3303999999998</v>
-      </c>
-      <c r="C416" s="5">
-        <v>7052.5959999999995</v>
-      </c>
-      <c r="D416" s="5">
-        <v>6973.4080999999996</v>
-      </c>
-      <c r="E416" s="5">
-        <v>7052.1765999999998</v>
-      </c>
-      <c r="F416" s="5">
-        <v>160848480</v>
-      </c>
-      <c r="G416" s="5">
-        <v>207706779975</v>
-      </c>
+      <c r="A416" s="3"/>
+      <c r="B416" s="5"/>
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A417" s="3">
-        <v>44971</v>
-      </c>
-      <c r="B417" s="5">
-        <v>7064.5291999999999</v>
-      </c>
-      <c r="C417" s="5">
-        <v>7070.3347000000003</v>
-      </c>
-      <c r="D417" s="5">
-        <v>7028.7851000000001</v>
-      </c>
-      <c r="E417" s="5">
-        <v>7061.4489999999996</v>
-      </c>
-      <c r="F417" s="5">
-        <v>151786438</v>
-      </c>
-      <c r="G417" s="5">
-        <v>199029649600</v>
-      </c>
+      <c r="A417" s="3"/>
+      <c r="B417" s="5"/>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A418" s="3">
-        <v>44972</v>
-      </c>
-      <c r="B418" s="5">
-        <v>7062.3616000000002</v>
-      </c>
-      <c r="C418" s="5">
-        <v>7076.8681999999999</v>
-      </c>
-      <c r="D418" s="5">
-        <v>7038.9856</v>
-      </c>
-      <c r="E418" s="5">
-        <v>7063.6048000000001</v>
-      </c>
-      <c r="F418" s="5">
-        <v>159779328</v>
-      </c>
-      <c r="G418" s="5">
-        <v>207038398260</v>
-      </c>
+      <c r="A418" s="3"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A419" s="3">
-        <v>44973</v>
-      </c>
-      <c r="B419" s="5">
-        <v>7063.9264999999996</v>
-      </c>
-      <c r="C419" s="5">
-        <v>7098.9175999999998</v>
-      </c>
-      <c r="D419" s="5">
-        <v>6878.3482999999997</v>
-      </c>
-      <c r="E419" s="5">
-        <v>6925.2034000000003</v>
-      </c>
-      <c r="F419" s="5">
-        <v>217381617</v>
-      </c>
-      <c r="G419" s="5">
-        <v>263155308270</v>
-      </c>
+      <c r="A419" s="3"/>
+      <c r="B419" s="5"/>
+      <c r="C419" s="5"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A420" s="3">
-        <v>44974</v>
-      </c>
-      <c r="B420" s="5">
-        <v>6931.9931999999999</v>
-      </c>
-      <c r="C420" s="5">
-        <v>6954.8464000000004</v>
-      </c>
-      <c r="D420" s="5">
-        <v>6861.3047999999999</v>
-      </c>
-      <c r="E420" s="5">
-        <v>6868.5477000000001</v>
-      </c>
-      <c r="F420" s="5">
-        <v>172656902</v>
-      </c>
-      <c r="G420" s="5">
-        <v>203845829245</v>
-      </c>
+      <c r="A420" s="3"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="5"/>
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A421" s="3">
-        <v>44977</v>
-      </c>
+      <c r="A421" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19897,9 +19564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82959531-E717-4F8B-BB5A-0A74A73B6DAC}">
   <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="A421" sqref="A421"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19909,7 +19574,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str">
-        <f ca="1">[1]!HX_HisQuote("[H11001.CSI]", "[open,high,low,close,volume,amount]", "1", "2021-06-21",参数!$D$2, -1, "-1", 1, 2, 1, 1, 1, 1, 1, 1, 3, "1", "1900-1-1", "YSHB;Tradedays")</f>
+        <f>[1]!HX_HisQuote("[H11001.CSI]", "[open,high,low,close,volume,amount]", "2", "2021-06-21", -1, -1, "-1", 1, 2, 1, 1, 1, 1, 1, 1, 3, "1", "1900-1-1", "YSHB;Tradedays")</f>
         <v>同花顺iFinD</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -28949,13 +28614,13 @@
         <v>44957</v>
       </c>
       <c r="B394" s="5">
-        <v>225.55449999999999</v>
+        <v>225.6113</v>
       </c>
       <c r="C394" s="5">
-        <v>225.55449999999999</v>
+        <v>225.6113</v>
       </c>
       <c r="D394" s="5">
-        <v>225.55449999999999</v>
+        <v>225.6113</v>
       </c>
       <c r="E394" s="5">
         <v>225.6113</v>
@@ -29290,285 +28955,115 @@
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A409" s="3">
-        <v>44959</v>
-      </c>
-      <c r="B409" s="5">
-        <v>225.65539999999999</v>
-      </c>
-      <c r="C409" s="5">
-        <v>225.65539999999999</v>
-      </c>
-      <c r="D409" s="5">
-        <v>225.65539999999999</v>
-      </c>
-      <c r="E409" s="5">
-        <v>225.65539999999999</v>
-      </c>
-      <c r="F409" s="5">
-        <v>0</v>
-      </c>
-      <c r="G409" s="5">
-        <v>0</v>
-      </c>
+      <c r="A409" s="3"/>
+      <c r="B409" s="5"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A410" s="3">
-        <v>44960</v>
-      </c>
-      <c r="B410" s="5">
-        <v>225.703</v>
-      </c>
-      <c r="C410" s="5">
-        <v>225.703</v>
-      </c>
-      <c r="D410" s="5">
-        <v>225.703</v>
-      </c>
-      <c r="E410" s="5">
-        <v>225.703</v>
-      </c>
-      <c r="F410" s="5">
-        <v>0</v>
-      </c>
-      <c r="G410" s="5">
-        <v>0</v>
-      </c>
+      <c r="A410" s="3"/>
+      <c r="B410" s="5"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A411" s="3">
-        <v>44963</v>
-      </c>
-      <c r="B411" s="5">
-        <v>225.7516</v>
-      </c>
-      <c r="C411" s="5">
-        <v>225.7516</v>
-      </c>
-      <c r="D411" s="5">
-        <v>225.7516</v>
-      </c>
-      <c r="E411" s="5">
-        <v>225.7516</v>
-      </c>
-      <c r="F411" s="5">
-        <v>0</v>
-      </c>
-      <c r="G411" s="5">
-        <v>0</v>
-      </c>
+      <c r="A411" s="3"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A412" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B412" s="5">
-        <v>225.7655</v>
-      </c>
-      <c r="C412" s="5">
-        <v>225.7655</v>
-      </c>
-      <c r="D412" s="5">
-        <v>225.7655</v>
-      </c>
-      <c r="E412" s="5">
-        <v>225.7655</v>
-      </c>
-      <c r="F412" s="5">
-        <v>0</v>
-      </c>
-      <c r="G412" s="5">
-        <v>0</v>
-      </c>
+      <c r="A412" s="3"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A413" s="3">
-        <v>44965</v>
-      </c>
-      <c r="B413" s="5">
-        <v>225.80789999999999</v>
-      </c>
-      <c r="C413" s="5">
-        <v>225.80789999999999</v>
-      </c>
-      <c r="D413" s="5">
-        <v>225.80789999999999</v>
-      </c>
-      <c r="E413" s="5">
-        <v>225.80789999999999</v>
-      </c>
-      <c r="F413" s="5">
-        <v>0</v>
-      </c>
-      <c r="G413" s="5">
-        <v>0</v>
-      </c>
+      <c r="A413" s="3"/>
+      <c r="B413" s="5"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A414" s="3">
-        <v>44966</v>
-      </c>
-      <c r="B414" s="5">
-        <v>225.84270000000001</v>
-      </c>
-      <c r="C414" s="5">
-        <v>225.84270000000001</v>
-      </c>
-      <c r="D414" s="5">
-        <v>225.84270000000001</v>
-      </c>
-      <c r="E414" s="5">
-        <v>225.84270000000001</v>
-      </c>
-      <c r="F414" s="5">
-        <v>0</v>
-      </c>
-      <c r="G414" s="5">
-        <v>0</v>
-      </c>
+      <c r="A414" s="3"/>
+      <c r="B414" s="5"/>
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A415" s="3">
-        <v>44967</v>
-      </c>
-      <c r="B415" s="5">
-        <v>225.8973</v>
-      </c>
-      <c r="C415" s="5">
-        <v>225.8973</v>
-      </c>
-      <c r="D415" s="5">
-        <v>225.8973</v>
-      </c>
-      <c r="E415" s="5">
-        <v>225.8973</v>
-      </c>
-      <c r="F415" s="5">
-        <v>0</v>
-      </c>
-      <c r="G415" s="5">
-        <v>0</v>
-      </c>
+      <c r="A415" s="3"/>
+      <c r="B415" s="5"/>
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A416" s="3">
-        <v>44970</v>
-      </c>
-      <c r="B416" s="5">
-        <v>225.9744</v>
-      </c>
-      <c r="C416" s="5">
-        <v>225.9744</v>
-      </c>
-      <c r="D416" s="5">
-        <v>225.9744</v>
-      </c>
-      <c r="E416" s="5">
-        <v>225.9744</v>
-      </c>
-      <c r="F416" s="5">
-        <v>0</v>
-      </c>
-      <c r="G416" s="5">
-        <v>0</v>
-      </c>
+      <c r="A416" s="3"/>
+      <c r="B416" s="5"/>
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A417" s="3">
-        <v>44971</v>
-      </c>
-      <c r="B417" s="5">
-        <v>226.01589999999999</v>
-      </c>
-      <c r="C417" s="5">
-        <v>226.01589999999999</v>
-      </c>
-      <c r="D417" s="5">
-        <v>226.01589999999999</v>
-      </c>
-      <c r="E417" s="5">
-        <v>226.01589999999999</v>
-      </c>
-      <c r="F417" s="5">
-        <v>0</v>
-      </c>
-      <c r="G417" s="5">
-        <v>0</v>
-      </c>
+      <c r="A417" s="3"/>
+      <c r="B417" s="5"/>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A418" s="3">
-        <v>44972</v>
-      </c>
-      <c r="B418" s="5">
-        <v>226.0667</v>
-      </c>
-      <c r="C418" s="5">
-        <v>226.0667</v>
-      </c>
-      <c r="D418" s="5">
-        <v>226.0667</v>
-      </c>
-      <c r="E418" s="5">
-        <v>226.0667</v>
-      </c>
-      <c r="F418" s="5">
-        <v>0</v>
-      </c>
-      <c r="G418" s="5">
-        <v>0</v>
-      </c>
+      <c r="A418" s="3"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A419" s="3">
-        <v>44973</v>
-      </c>
-      <c r="B419" s="5">
-        <v>226.1156</v>
-      </c>
-      <c r="C419" s="5">
-        <v>226.1156</v>
-      </c>
-      <c r="D419" s="5">
-        <v>226.1156</v>
-      </c>
-      <c r="E419" s="5">
-        <v>226.1156</v>
-      </c>
-      <c r="F419" s="5">
-        <v>0</v>
-      </c>
-      <c r="G419" s="5">
-        <v>0</v>
-      </c>
+      <c r="A419" s="3"/>
+      <c r="B419" s="5"/>
+      <c r="C419" s="5"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A420" s="3">
-        <v>44974</v>
-      </c>
-      <c r="B420" s="5">
-        <v>226.1277</v>
-      </c>
-      <c r="C420" s="5">
-        <v>226.1277</v>
-      </c>
-      <c r="D420" s="5">
-        <v>226.1277</v>
-      </c>
-      <c r="E420" s="5">
-        <v>226.1277</v>
-      </c>
-      <c r="F420" s="5">
-        <v>0</v>
-      </c>
-      <c r="G420" s="5">
-        <v>0</v>
-      </c>
+      <c r="A420" s="3"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="5"/>
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A421" s="3">
-        <v>44977</v>
-      </c>
+      <c r="A421" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -29581,9 +29076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6508B615-C4C0-4A79-A165-6AE659695A0E}">
   <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView topLeftCell="A406" workbookViewId="0">
-      <selection activeCell="A421" sqref="A421"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29593,46 +29086,46 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str">
-        <f ca="1">[1]!HX_HisQuote("[H11006.CSI]", "[open,high,low,close,volume,amount]", "1", "2021-06-21",参数!$D$2, -1, "-1", 1, 2, 1, 1, 1, 1, 1, 1, 3, "1", "1900-1-1", "YSHB;Tradedays")</f>
+        <f>[1]!HX_HisQuote("[H11006.CSI]", "[open,high,low,close,volume,amount]", "2", "2021-06-21", -1, -1, "-1", 1, 2, 1, 1, 1, 1, 1, 1, 3, "1", "1900-1-1", "YSHB;Tradedays")</f>
         <v>同花顺iFinD</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -38633,13 +38126,13 @@
         <v>44957</v>
       </c>
       <c r="B394" s="5">
-        <v>212.48159999999999</v>
+        <v>212.5865</v>
       </c>
       <c r="C394" s="5">
-        <v>212.48159999999999</v>
+        <v>212.5865</v>
       </c>
       <c r="D394" s="5">
-        <v>212.48159999999999</v>
+        <v>212.5865</v>
       </c>
       <c r="E394" s="5">
         <v>212.5865</v>
@@ -38974,285 +38467,115 @@
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A409" s="3">
-        <v>44959</v>
-      </c>
-      <c r="B409" s="5">
-        <v>212.57499999999999</v>
-      </c>
-      <c r="C409" s="5">
-        <v>212.57499999999999</v>
-      </c>
-      <c r="D409" s="5">
-        <v>212.57499999999999</v>
-      </c>
-      <c r="E409" s="5">
-        <v>212.57499999999999</v>
-      </c>
-      <c r="F409" s="5">
-        <v>0</v>
-      </c>
-      <c r="G409" s="5">
-        <v>0</v>
-      </c>
+      <c r="A409" s="3"/>
+      <c r="B409" s="5"/>
+      <c r="C409" s="5"/>
+      <c r="D409" s="5"/>
+      <c r="E409" s="5"/>
+      <c r="F409" s="5"/>
+      <c r="G409" s="5"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A410" s="3">
-        <v>44960</v>
-      </c>
-      <c r="B410" s="5">
-        <v>212.64269999999999</v>
-      </c>
-      <c r="C410" s="5">
-        <v>212.64269999999999</v>
-      </c>
-      <c r="D410" s="5">
-        <v>212.64269999999999</v>
-      </c>
-      <c r="E410" s="5">
-        <v>212.64269999999999</v>
-      </c>
-      <c r="F410" s="5">
-        <v>0</v>
-      </c>
-      <c r="G410" s="5">
-        <v>0</v>
-      </c>
+      <c r="A410" s="3"/>
+      <c r="B410" s="5"/>
+      <c r="C410" s="5"/>
+      <c r="D410" s="5"/>
+      <c r="E410" s="5"/>
+      <c r="F410" s="5"/>
+      <c r="G410" s="5"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A411" s="3">
-        <v>44963</v>
-      </c>
-      <c r="B411" s="5">
-        <v>212.6285</v>
-      </c>
-      <c r="C411" s="5">
-        <v>212.6285</v>
-      </c>
-      <c r="D411" s="5">
-        <v>212.6285</v>
-      </c>
-      <c r="E411" s="5">
-        <v>212.6285</v>
-      </c>
-      <c r="F411" s="5">
-        <v>0</v>
-      </c>
-      <c r="G411" s="5">
-        <v>0</v>
-      </c>
+      <c r="A411" s="3"/>
+      <c r="B411" s="5"/>
+      <c r="C411" s="5"/>
+      <c r="D411" s="5"/>
+      <c r="E411" s="5"/>
+      <c r="F411" s="5"/>
+      <c r="G411" s="5"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A412" s="3">
-        <v>44964</v>
-      </c>
-      <c r="B412" s="5">
-        <v>212.68870000000001</v>
-      </c>
-      <c r="C412" s="5">
-        <v>212.68870000000001</v>
-      </c>
-      <c r="D412" s="5">
-        <v>212.68870000000001</v>
-      </c>
-      <c r="E412" s="5">
-        <v>212.68870000000001</v>
-      </c>
-      <c r="F412" s="5">
-        <v>0</v>
-      </c>
-      <c r="G412" s="5">
-        <v>0</v>
-      </c>
+      <c r="A412" s="3"/>
+      <c r="B412" s="5"/>
+      <c r="C412" s="5"/>
+      <c r="D412" s="5"/>
+      <c r="E412" s="5"/>
+      <c r="F412" s="5"/>
+      <c r="G412" s="5"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A413" s="3">
-        <v>44965</v>
-      </c>
-      <c r="B413" s="5">
-        <v>212.66050000000001</v>
-      </c>
-      <c r="C413" s="5">
-        <v>212.66050000000001</v>
-      </c>
-      <c r="D413" s="5">
-        <v>212.66050000000001</v>
-      </c>
-      <c r="E413" s="5">
-        <v>212.66050000000001</v>
-      </c>
-      <c r="F413" s="5">
-        <v>0</v>
-      </c>
-      <c r="G413" s="5">
-        <v>0</v>
-      </c>
+      <c r="A413" s="3"/>
+      <c r="B413" s="5"/>
+      <c r="C413" s="5"/>
+      <c r="D413" s="5"/>
+      <c r="E413" s="5"/>
+      <c r="F413" s="5"/>
+      <c r="G413" s="5"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A414" s="3">
-        <v>44966</v>
-      </c>
-      <c r="B414" s="5">
-        <v>212.71430000000001</v>
-      </c>
-      <c r="C414" s="5">
-        <v>212.71430000000001</v>
-      </c>
-      <c r="D414" s="5">
-        <v>212.71430000000001</v>
-      </c>
-      <c r="E414" s="5">
-        <v>212.71430000000001</v>
-      </c>
-      <c r="F414" s="5">
-        <v>0</v>
-      </c>
-      <c r="G414" s="5">
-        <v>0</v>
-      </c>
+      <c r="A414" s="3"/>
+      <c r="B414" s="5"/>
+      <c r="C414" s="5"/>
+      <c r="D414" s="5"/>
+      <c r="E414" s="5"/>
+      <c r="F414" s="5"/>
+      <c r="G414" s="5"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A415" s="3">
-        <v>44967</v>
-      </c>
-      <c r="B415" s="5">
-        <v>212.7122</v>
-      </c>
-      <c r="C415" s="5">
-        <v>212.7122</v>
-      </c>
-      <c r="D415" s="5">
-        <v>212.7122</v>
-      </c>
-      <c r="E415" s="5">
-        <v>212.7122</v>
-      </c>
-      <c r="F415" s="5">
-        <v>0</v>
-      </c>
-      <c r="G415" s="5">
-        <v>0</v>
-      </c>
+      <c r="A415" s="3"/>
+      <c r="B415" s="5"/>
+      <c r="C415" s="5"/>
+      <c r="D415" s="5"/>
+      <c r="E415" s="5"/>
+      <c r="F415" s="5"/>
+      <c r="G415" s="5"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A416" s="3">
-        <v>44970</v>
-      </c>
-      <c r="B416" s="5">
-        <v>212.7841</v>
-      </c>
-      <c r="C416" s="5">
-        <v>212.7841</v>
-      </c>
-      <c r="D416" s="5">
-        <v>212.7841</v>
-      </c>
-      <c r="E416" s="5">
-        <v>212.7841</v>
-      </c>
-      <c r="F416" s="5">
-        <v>0</v>
-      </c>
-      <c r="G416" s="5">
-        <v>0</v>
-      </c>
+      <c r="A416" s="3"/>
+      <c r="B416" s="5"/>
+      <c r="C416" s="5"/>
+      <c r="D416" s="5"/>
+      <c r="E416" s="5"/>
+      <c r="F416" s="5"/>
+      <c r="G416" s="5"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A417" s="3">
-        <v>44971</v>
-      </c>
-      <c r="B417" s="5">
-        <v>212.809</v>
-      </c>
-      <c r="C417" s="5">
-        <v>212.809</v>
-      </c>
-      <c r="D417" s="5">
-        <v>212.809</v>
-      </c>
-      <c r="E417" s="5">
-        <v>212.809</v>
-      </c>
-      <c r="F417" s="5">
-        <v>0</v>
-      </c>
-      <c r="G417" s="5">
-        <v>0</v>
-      </c>
+      <c r="A417" s="3"/>
+      <c r="B417" s="5"/>
+      <c r="C417" s="5"/>
+      <c r="D417" s="5"/>
+      <c r="E417" s="5"/>
+      <c r="F417" s="5"/>
+      <c r="G417" s="5"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A418" s="3">
-        <v>44972</v>
-      </c>
-      <c r="B418" s="5">
-        <v>212.8553</v>
-      </c>
-      <c r="C418" s="5">
-        <v>212.8553</v>
-      </c>
-      <c r="D418" s="5">
-        <v>212.8553</v>
-      </c>
-      <c r="E418" s="5">
-        <v>212.8553</v>
-      </c>
-      <c r="F418" s="5">
-        <v>0</v>
-      </c>
-      <c r="G418" s="5">
-        <v>0</v>
-      </c>
+      <c r="A418" s="3"/>
+      <c r="B418" s="5"/>
+      <c r="C418" s="5"/>
+      <c r="D418" s="5"/>
+      <c r="E418" s="5"/>
+      <c r="F418" s="5"/>
+      <c r="G418" s="5"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A419" s="3">
-        <v>44973</v>
-      </c>
-      <c r="B419" s="5">
-        <v>212.94319999999999</v>
-      </c>
-      <c r="C419" s="5">
-        <v>212.94319999999999</v>
-      </c>
-      <c r="D419" s="5">
-        <v>212.94319999999999</v>
-      </c>
-      <c r="E419" s="5">
-        <v>212.94319999999999</v>
-      </c>
-      <c r="F419" s="5">
-        <v>0</v>
-      </c>
-      <c r="G419" s="5">
-        <v>0</v>
-      </c>
+      <c r="A419" s="3"/>
+      <c r="B419" s="5"/>
+      <c r="C419" s="5"/>
+      <c r="D419" s="5"/>
+      <c r="E419" s="5"/>
+      <c r="F419" s="5"/>
+      <c r="G419" s="5"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A420" s="3">
-        <v>44974</v>
-      </c>
-      <c r="B420" s="5">
-        <v>212.90459999999999</v>
-      </c>
-      <c r="C420" s="5">
-        <v>212.90459999999999</v>
-      </c>
-      <c r="D420" s="5">
-        <v>212.90459999999999</v>
-      </c>
-      <c r="E420" s="5">
-        <v>212.90459999999999</v>
-      </c>
-      <c r="F420" s="5">
-        <v>0</v>
-      </c>
-      <c r="G420" s="5">
-        <v>0</v>
-      </c>
+      <c r="A420" s="3"/>
+      <c r="B420" s="5"/>
+      <c r="C420" s="5"/>
+      <c r="D420" s="5"/>
+      <c r="E420" s="5"/>
+      <c r="F420" s="5"/>
+      <c r="G420" s="5"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A421" s="3">
-        <v>44977</v>
-      </c>
+      <c r="A421" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -39264,9 +38587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39F584C-6D90-4048-B26D-97D5525D1AA1}">
   <dimension ref="A1:G337"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -39276,7 +38597,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="str">
-        <f ca="1">[1]!HX_HisQuote("[932006CNY01.CSI]", "[open,high,low,close,volume,amount]", "1", "2021-06-01", 参数!$D$2, -1, "-1", 1, 2, 1, 1, 1, 1, 1, 1, 3, "1", "1900-1-1", "YSHB;Tradedays")</f>
+        <f>[1]!HX_HisQuote("[932006.CSI]", "[open,high,low,close,volume,amount]", "2", "2021-06-21", -1, -1, "-1", 1, 2, 1, 1, 1, 1, 1, 1, 3, "1", "1900-1-1", "YSHB;Tradedays")</f>
         <v>同花顺iFinD</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -40013,16 +39334,16 @@
         <v>44517</v>
       </c>
       <c r="B33" s="5">
-        <v>1059.4208000000001</v>
+        <v>1055.6251</v>
       </c>
       <c r="C33" s="5">
-        <v>1059.4208000000001</v>
+        <v>1055.6251</v>
       </c>
       <c r="D33" s="5">
-        <v>1059.4208000000001</v>
+        <v>1055.6251</v>
       </c>
       <c r="E33" s="5">
-        <v>1059.4208000000001</v>
+        <v>1055.6251</v>
       </c>
       <c r="F33" s="5">
         <v>0</v>
@@ -40036,16 +39357,16 @@
         <v>44518</v>
       </c>
       <c r="B34" s="5">
-        <v>1058.6901</v>
+        <v>1054.8969</v>
       </c>
       <c r="C34" s="5">
-        <v>1058.6901</v>
+        <v>1054.8969</v>
       </c>
       <c r="D34" s="5">
-        <v>1058.6901</v>
+        <v>1054.8969</v>
       </c>
       <c r="E34" s="5">
-        <v>1058.6901</v>
+        <v>1054.8969</v>
       </c>
       <c r="F34" s="5">
         <v>0</v>
@@ -40059,16 +39380,16 @@
         <v>44519</v>
       </c>
       <c r="B35" s="5">
-        <v>1057.4126000000001</v>
+        <v>1053.624</v>
       </c>
       <c r="C35" s="5">
-        <v>1057.4126000000001</v>
+        <v>1053.624</v>
       </c>
       <c r="D35" s="5">
-        <v>1057.4126000000001</v>
+        <v>1053.624</v>
       </c>
       <c r="E35" s="5">
-        <v>1057.4126000000001</v>
+        <v>1053.624</v>
       </c>
       <c r="F35" s="5">
         <v>0</v>
@@ -40082,16 +39403,16 @@
         <v>44522</v>
       </c>
       <c r="B36" s="5">
-        <v>1049.8571999999999</v>
+        <v>1046.0958000000001</v>
       </c>
       <c r="C36" s="5">
-        <v>1049.8571999999999</v>
+        <v>1046.0958000000001</v>
       </c>
       <c r="D36" s="5">
-        <v>1049.8571999999999</v>
+        <v>1046.0958000000001</v>
       </c>
       <c r="E36" s="5">
-        <v>1049.8571999999999</v>
+        <v>1046.0958000000001</v>
       </c>
       <c r="F36" s="5">
         <v>0</v>
@@ -40105,16 +39426,16 @@
         <v>44523</v>
       </c>
       <c r="B37" s="5">
-        <v>1047.8949</v>
+        <v>1044.1404</v>
       </c>
       <c r="C37" s="5">
-        <v>1047.8949</v>
+        <v>1044.1404</v>
       </c>
       <c r="D37" s="5">
-        <v>1047.8949</v>
+        <v>1044.1404</v>
       </c>
       <c r="E37" s="5">
-        <v>1047.8949</v>
+        <v>1044.1404</v>
       </c>
       <c r="F37" s="5">
         <v>0</v>
@@ -40128,16 +39449,16 @@
         <v>44524</v>
       </c>
       <c r="B38" s="5">
-        <v>1051.7014999999999</v>
+        <v>1047.9333999999999</v>
       </c>
       <c r="C38" s="5">
-        <v>1051.7014999999999</v>
+        <v>1047.9333999999999</v>
       </c>
       <c r="D38" s="5">
-        <v>1051.7014999999999</v>
+        <v>1047.9333999999999</v>
       </c>
       <c r="E38" s="5">
-        <v>1051.7014999999999</v>
+        <v>1047.9333999999999</v>
       </c>
       <c r="F38" s="5">
         <v>0</v>
@@ -40151,16 +39472,16 @@
         <v>44525</v>
       </c>
       <c r="B39" s="5">
-        <v>1051.8968</v>
+        <v>1048.1280999999999</v>
       </c>
       <c r="C39" s="5">
-        <v>1051.8968</v>
+        <v>1048.1280999999999</v>
       </c>
       <c r="D39" s="5">
-        <v>1051.8968</v>
+        <v>1048.1280999999999</v>
       </c>
       <c r="E39" s="5">
-        <v>1051.8968</v>
+        <v>1048.1280999999999</v>
       </c>
       <c r="F39" s="5">
         <v>0</v>
@@ -40174,16 +39495,16 @@
         <v>44526</v>
       </c>
       <c r="B40" s="5">
-        <v>1053.3588</v>
+        <v>1049.5848000000001</v>
       </c>
       <c r="C40" s="5">
-        <v>1053.3588</v>
+        <v>1049.5848000000001</v>
       </c>
       <c r="D40" s="5">
-        <v>1053.3588</v>
+        <v>1049.5848000000001</v>
       </c>
       <c r="E40" s="5">
-        <v>1053.3588</v>
+        <v>1049.5848000000001</v>
       </c>
       <c r="F40" s="5">
         <v>0</v>
@@ -40197,16 +39518,16 @@
         <v>44529</v>
       </c>
       <c r="B41" s="5">
-        <v>1053.2052000000001</v>
+        <v>1049.4318000000001</v>
       </c>
       <c r="C41" s="5">
-        <v>1053.2052000000001</v>
+        <v>1049.4318000000001</v>
       </c>
       <c r="D41" s="5">
-        <v>1053.2052000000001</v>
+        <v>1049.4318000000001</v>
       </c>
       <c r="E41" s="5">
-        <v>1053.2052000000001</v>
+        <v>1049.4318000000001</v>
       </c>
       <c r="F41" s="5">
         <v>0</v>
@@ -40220,16 +39541,16 @@
         <v>44530</v>
       </c>
       <c r="B42" s="5">
-        <v>1056.4023</v>
+        <v>1052.6174000000001</v>
       </c>
       <c r="C42" s="5">
-        <v>1056.4023</v>
+        <v>1052.6174000000001</v>
       </c>
       <c r="D42" s="5">
-        <v>1056.4023</v>
+        <v>1052.6174000000001</v>
       </c>
       <c r="E42" s="5">
-        <v>1056.4023</v>
+        <v>1052.6174000000001</v>
       </c>
       <c r="F42" s="5">
         <v>0</v>
@@ -40243,16 +39564,16 @@
         <v>44531</v>
       </c>
       <c r="B43" s="5">
-        <v>1060.9103</v>
+        <v>1056.2967000000001</v>
       </c>
       <c r="C43" s="5">
-        <v>1060.9103</v>
+        <v>1056.2967000000001</v>
       </c>
       <c r="D43" s="5">
-        <v>1060.9103</v>
+        <v>1056.2967000000001</v>
       </c>
       <c r="E43" s="5">
-        <v>1060.9103</v>
+        <v>1056.2967000000001</v>
       </c>
       <c r="F43" s="5">
         <v>0</v>
@@ -40266,16 +39587,16 @@
         <v>44532</v>
       </c>
       <c r="B44" s="5">
-        <v>1071.4935</v>
+        <v>1066.8339000000001</v>
       </c>
       <c r="C44" s="5">
-        <v>1071.4935</v>
+        <v>1066.8339000000001</v>
       </c>
       <c r="D44" s="5">
-        <v>1071.4935</v>
+        <v>1066.8339000000001</v>
       </c>
       <c r="E44" s="5">
-        <v>1071.4935</v>
+        <v>1066.8339000000001</v>
       </c>
       <c r="F44" s="5">
         <v>0</v>
@@ -40289,16 +39610,16 @@
         <v>44533</v>
       </c>
       <c r="B45" s="5">
-        <v>1073.4929</v>
+        <v>1068.8245999999999</v>
       </c>
       <c r="C45" s="5">
-        <v>1073.4929</v>
+        <v>1068.8245999999999</v>
       </c>
       <c r="D45" s="5">
-        <v>1073.4929</v>
+        <v>1068.8245999999999</v>
       </c>
       <c r="E45" s="5">
-        <v>1073.4929</v>
+        <v>1068.8245999999999</v>
       </c>
       <c r="F45" s="5">
         <v>0</v>
@@ -40312,16 +39633,16 @@
         <v>44536</v>
       </c>
       <c r="B46" s="5">
-        <v>1075.7301</v>
+        <v>1071.0521000000001</v>
       </c>
       <c r="C46" s="5">
-        <v>1075.7301</v>
+        <v>1071.0521000000001</v>
       </c>
       <c r="D46" s="5">
-        <v>1075.7301</v>
+        <v>1071.0521000000001</v>
       </c>
       <c r="E46" s="5">
-        <v>1075.7301</v>
+        <v>1071.0521000000001</v>
       </c>
       <c r="F46" s="5">
         <v>0</v>
@@ -40335,16 +39656,16 @@
         <v>44537</v>
       </c>
       <c r="B47" s="5">
-        <v>1081.4027000000001</v>
+        <v>1076.7001</v>
       </c>
       <c r="C47" s="5">
-        <v>1081.4027000000001</v>
+        <v>1076.7001</v>
       </c>
       <c r="D47" s="5">
-        <v>1081.4027000000001</v>
+        <v>1076.7001</v>
       </c>
       <c r="E47" s="5">
-        <v>1081.4027000000001</v>
+        <v>1076.7001</v>
       </c>
       <c r="F47" s="5">
         <v>0</v>
@@ -40358,16 +39679,16 @@
         <v>44538</v>
       </c>
       <c r="B48" s="5">
-        <v>1086.5933</v>
+        <v>1081.8679999999999</v>
       </c>
       <c r="C48" s="5">
-        <v>1086.5933</v>
+        <v>1081.8679999999999</v>
       </c>
       <c r="D48" s="5">
-        <v>1086.5933</v>
+        <v>1081.8679999999999</v>
       </c>
       <c r="E48" s="5">
-        <v>1086.5933</v>
+        <v>1081.8679999999999</v>
       </c>
       <c r="F48" s="5">
         <v>0</v>
@@ -40381,16 +39702,16 @@
         <v>44539</v>
       </c>
       <c r="B49" s="5">
-        <v>1095.6678999999999</v>
+        <v>1090.9031</v>
       </c>
       <c r="C49" s="5">
-        <v>1095.6678999999999</v>
+        <v>1090.9031</v>
       </c>
       <c r="D49" s="5">
-        <v>1095.6678999999999</v>
+        <v>1090.9031</v>
       </c>
       <c r="E49" s="5">
-        <v>1095.6678999999999</v>
+        <v>1090.9031</v>
       </c>
       <c r="F49" s="5">
         <v>0</v>
@@ -40404,16 +39725,16 @@
         <v>44540</v>
       </c>
       <c r="B50" s="5">
-        <v>1104.0186000000001</v>
+        <v>1099.2175999999999</v>
       </c>
       <c r="C50" s="5">
-        <v>1104.0186000000001</v>
+        <v>1099.2175999999999</v>
       </c>
       <c r="D50" s="5">
-        <v>1104.0186000000001</v>
+        <v>1099.2175999999999</v>
       </c>
       <c r="E50" s="5">
-        <v>1104.0186000000001</v>
+        <v>1099.2175999999999</v>
       </c>
       <c r="F50" s="5">
         <v>0</v>
@@ -40427,16 +39748,16 @@
         <v>44543</v>
       </c>
       <c r="B51" s="5">
-        <v>1111.7089000000001</v>
+        <v>1106.8743999999999</v>
       </c>
       <c r="C51" s="5">
-        <v>1111.7089000000001</v>
+        <v>1106.8743999999999</v>
       </c>
       <c r="D51" s="5">
-        <v>1111.7089000000001</v>
+        <v>1106.8743999999999</v>
       </c>
       <c r="E51" s="5">
-        <v>1111.7089000000001</v>
+        <v>1106.8743999999999</v>
       </c>
       <c r="F51" s="5">
         <v>0</v>
@@ -40450,16 +39771,16 @@
         <v>44544</v>
       </c>
       <c r="B52" s="5">
-        <v>1124.2001</v>
+        <v>1119.3113000000001</v>
       </c>
       <c r="C52" s="5">
-        <v>1124.2001</v>
+        <v>1119.3113000000001</v>
       </c>
       <c r="D52" s="5">
-        <v>1124.2001</v>
+        <v>1119.3113000000001</v>
       </c>
       <c r="E52" s="5">
-        <v>1124.2001</v>
+        <v>1119.3113000000001</v>
       </c>
       <c r="F52" s="5">
         <v>0</v>
@@ -40473,16 +39794,16 @@
         <v>44545</v>
       </c>
       <c r="B53" s="5">
-        <v>1140.8975</v>
+        <v>1135.9360999999999</v>
       </c>
       <c r="C53" s="5">
-        <v>1140.8975</v>
+        <v>1135.9360999999999</v>
       </c>
       <c r="D53" s="5">
-        <v>1140.8975</v>
+        <v>1135.9360999999999</v>
       </c>
       <c r="E53" s="5">
-        <v>1140.8975</v>
+        <v>1135.9360999999999</v>
       </c>
       <c r="F53" s="5">
         <v>0</v>
@@ -40496,16 +39817,16 @@
         <v>44546</v>
       </c>
       <c r="B54" s="5">
-        <v>1117.2716</v>
+        <v>1112.4129</v>
       </c>
       <c r="C54" s="5">
-        <v>1117.2716</v>
+        <v>1112.4129</v>
       </c>
       <c r="D54" s="5">
-        <v>1117.2716</v>
+        <v>1112.4129</v>
       </c>
       <c r="E54" s="5">
-        <v>1117.2716</v>
+        <v>1112.4129</v>
       </c>
       <c r="F54" s="5">
         <v>0</v>
@@ -40519,16 +39840,16 @@
         <v>44547</v>
       </c>
       <c r="B55" s="5">
-        <v>1116.2227</v>
+        <v>1111.3686</v>
       </c>
       <c r="C55" s="5">
-        <v>1116.2227</v>
+        <v>1111.3686</v>
       </c>
       <c r="D55" s="5">
-        <v>1116.2227</v>
+        <v>1111.3686</v>
       </c>
       <c r="E55" s="5">
-        <v>1116.2227</v>
+        <v>1111.3686</v>
       </c>
       <c r="F55" s="5">
         <v>0</v>
@@ -40542,16 +39863,16 @@
         <v>44550</v>
       </c>
       <c r="B56" s="5">
-        <v>1109.1248000000001</v>
+        <v>1104.3016</v>
       </c>
       <c r="C56" s="5">
-        <v>1109.1248000000001</v>
+        <v>1104.3016</v>
       </c>
       <c r="D56" s="5">
-        <v>1109.1248000000001</v>
+        <v>1104.3016</v>
       </c>
       <c r="E56" s="5">
-        <v>1109.1248000000001</v>
+        <v>1104.3016</v>
       </c>
       <c r="F56" s="5">
         <v>0</v>
@@ -40565,16 +39886,16 @@
         <v>44551</v>
       </c>
       <c r="B57" s="5">
-        <v>1108.6733999999999</v>
+        <v>1103.8521000000001</v>
       </c>
       <c r="C57" s="5">
-        <v>1108.6733999999999</v>
+        <v>1103.8521000000001</v>
       </c>
       <c r="D57" s="5">
-        <v>1108.6733999999999</v>
+        <v>1103.8521000000001</v>
       </c>
       <c r="E57" s="5">
-        <v>1108.6733999999999</v>
+        <v>1103.8521000000001</v>
       </c>
       <c r="F57" s="5">
         <v>0</v>
@@ -40588,16 +39909,16 @@
         <v>44552</v>
       </c>
       <c r="B58" s="5">
-        <v>1114.4345000000001</v>
+        <v>1109.5881999999999</v>
       </c>
       <c r="C58" s="5">
-        <v>1114.4345000000001</v>
+        <v>1109.5881999999999</v>
       </c>
       <c r="D58" s="5">
-        <v>1114.4345000000001</v>
+        <v>1109.5881999999999</v>
       </c>
       <c r="E58" s="5">
-        <v>1114.4345000000001</v>
+        <v>1109.5881999999999</v>
       </c>
       <c r="F58" s="5">
         <v>0</v>
@@ -40611,16 +39932,16 @@
         <v>44553</v>
       </c>
       <c r="B59" s="5">
-        <v>1123.3456000000001</v>
+        <v>1118.4604999999999</v>
       </c>
       <c r="C59" s="5">
-        <v>1123.3456000000001</v>
+        <v>1118.4604999999999</v>
       </c>
       <c r="D59" s="5">
-        <v>1123.3456000000001</v>
+        <v>1118.4604999999999</v>
       </c>
       <c r="E59" s="5">
-        <v>1123.3456000000001</v>
+        <v>1118.4604999999999</v>
       </c>
       <c r="F59" s="5">
         <v>0</v>
@@ -40634,16 +39955,16 @@
         <v>44554</v>
       </c>
       <c r="B60" s="5">
-        <v>1124.8452</v>
+        <v>1110.3857</v>
       </c>
       <c r="C60" s="5">
-        <v>1124.8452</v>
+        <v>1110.3857</v>
       </c>
       <c r="D60" s="5">
-        <v>1124.8452</v>
+        <v>1110.3857</v>
       </c>
       <c r="E60" s="5">
-        <v>1124.8452</v>
+        <v>1110.3857</v>
       </c>
       <c r="F60" s="5">
         <v>0</v>
@@ -40657,16 +39978,16 @@
         <v>44557</v>
       </c>
       <c r="B61" s="5">
-        <v>1131.8561999999999</v>
+        <v>1117.3065999999999</v>
       </c>
       <c r="C61" s="5">
-        <v>1131.8561999999999</v>
+        <v>1117.3065999999999</v>
       </c>
       <c r="D61" s="5">
-        <v>1131.8561999999999</v>
+        <v>1117.3065999999999</v>
       </c>
       <c r="E61" s="5">
-        <v>1131.8561999999999</v>
+        <v>1117.3065999999999</v>
       </c>
       <c r="F61" s="5">
         <v>0</v>
@@ -40680,16 +40001,16 @@
         <v>44558</v>
       </c>
       <c r="B62" s="5">
-        <v>1129.5996</v>
+        <v>1115.079</v>
       </c>
       <c r="C62" s="5">
-        <v>1129.5996</v>
+        <v>1115.079</v>
       </c>
       <c r="D62" s="5">
-        <v>1129.5996</v>
+        <v>1115.079</v>
       </c>
       <c r="E62" s="5">
-        <v>1129.5996</v>
+        <v>1115.079</v>
       </c>
       <c r="F62" s="5">
         <v>0</v>
@@ -40703,16 +40024,16 @@
         <v>44559</v>
       </c>
       <c r="B63" s="5">
-        <v>1122.0775000000001</v>
+        <v>1107.6534999999999</v>
       </c>
       <c r="C63" s="5">
-        <v>1122.0775000000001</v>
+        <v>1107.6534999999999</v>
       </c>
       <c r="D63" s="5">
-        <v>1122.0775000000001</v>
+        <v>1107.6534999999999</v>
       </c>
       <c r="E63" s="5">
-        <v>1122.0775000000001</v>
+        <v>1107.6534999999999</v>
       </c>
       <c r="F63" s="5">
         <v>0</v>
@@ -40726,16 +40047,16 @@
         <v>44560</v>
       </c>
       <c r="B64" s="5">
-        <v>1112.9946</v>
+        <v>1098.6874</v>
       </c>
       <c r="C64" s="5">
-        <v>1112.9946</v>
+        <v>1098.6874</v>
       </c>
       <c r="D64" s="5">
-        <v>1112.9946</v>
+        <v>1098.6874</v>
       </c>
       <c r="E64" s="5">
-        <v>1112.9946</v>
+        <v>1098.6874</v>
       </c>
       <c r="F64" s="5">
         <v>0</v>
@@ -40749,16 +40070,16 @@
         <v>44561</v>
       </c>
       <c r="B65" s="5">
-        <v>1114.2437</v>
+        <v>1095.5469000000001</v>
       </c>
       <c r="C65" s="5">
-        <v>1114.2437</v>
+        <v>1095.5469000000001</v>
       </c>
       <c r="D65" s="5">
-        <v>1114.2437</v>
+        <v>1095.5469000000001</v>
       </c>
       <c r="E65" s="5">
-        <v>1114.2437</v>
+        <v>1095.5469000000001</v>
       </c>
       <c r="F65" s="5">
         <v>0</v>
@@ -40772,16 +40093,16 @@
         <v>44565</v>
       </c>
       <c r="B66" s="5">
-        <v>1121.2701999999999</v>
+        <v>1102.4555</v>
       </c>
       <c r="C66" s="5">
-        <v>1121.2701999999999</v>
+        <v>1102.4555</v>
       </c>
       <c r="D66" s="5">
-        <v>1121.2701999999999</v>
+        <v>1102.4555</v>
       </c>
       <c r="E66" s="5">
-        <v>1121.2701999999999</v>
+        <v>1102.4555</v>
       </c>
       <c r="F66" s="5">
         <v>0</v>
@@ -40795,16 +40116,16 @@
         <v>44566</v>
       </c>
       <c r="B67" s="5">
-        <v>1127.019</v>
+        <v>1108.1079</v>
       </c>
       <c r="C67" s="5">
-        <v>1127.019</v>
+        <v>1108.1079</v>
       </c>
       <c r="D67" s="5">
-        <v>1127.019</v>
+        <v>1108.1079</v>
       </c>
       <c r="E67" s="5">
-        <v>1127.019</v>
+        <v>1108.1079</v>
       </c>
       <c r="F67" s="5">
         <v>0</v>
@@ -40818,16 +40139,16 @@
         <v>44567</v>
       </c>
       <c r="B68" s="5">
-        <v>1126.6854000000001</v>
+        <v>1107.7798</v>
       </c>
       <c r="C68" s="5">
-        <v>1126.6854000000001</v>
+        <v>1107.7798</v>
       </c>
       <c r="D68" s="5">
-        <v>1126.6854000000001</v>
+        <v>1107.7798</v>
       </c>
       <c r="E68" s="5">
-        <v>1126.6854000000001</v>
+        <v>1107.7798</v>
       </c>
       <c r="F68" s="5">
         <v>0</v>
@@ -40841,16 +40162,16 @@
         <v>44568</v>
       </c>
       <c r="B69" s="5">
-        <v>1128.6515999999999</v>
+        <v>1109.713</v>
       </c>
       <c r="C69" s="5">
-        <v>1128.6515999999999</v>
+        <v>1109.713</v>
       </c>
       <c r="D69" s="5">
-        <v>1128.6515999999999</v>
+        <v>1109.713</v>
       </c>
       <c r="E69" s="5">
-        <v>1128.6515999999999</v>
+        <v>1109.713</v>
       </c>
       <c r="F69" s="5">
         <v>0</v>
@@ -40864,16 +40185,16 @@
         <v>44571</v>
       </c>
       <c r="B70" s="5">
-        <v>1130.9009000000001</v>
+        <v>1111.9246000000001</v>
       </c>
       <c r="C70" s="5">
-        <v>1130.9009000000001</v>
+        <v>1111.9246000000001</v>
       </c>
       <c r="D70" s="5">
-        <v>1130.9009000000001</v>
+        <v>1111.9246000000001</v>
       </c>
       <c r="E70" s="5">
-        <v>1130.9009000000001</v>
+        <v>1111.9246000000001</v>
       </c>
       <c r="F70" s="5">
         <v>0</v>
@@ -40887,16 +40208,16 @@
         <v>44572</v>
       </c>
       <c r="B71" s="5">
-        <v>1137.4458</v>
+        <v>1118.3597</v>
       </c>
       <c r="C71" s="5">
-        <v>1137.4458</v>
+        <v>1118.3597</v>
       </c>
       <c r="D71" s="5">
-        <v>1137.4458</v>
+        <v>1118.3597</v>
       </c>
       <c r="E71" s="5">
-        <v>1137.4458</v>
+        <v>1118.3597</v>
       </c>
       <c r="F71" s="5">
         <v>0</v>
@@ -40910,16 +40231,16 @@
         <v>44573</v>
       </c>
       <c r="B72" s="5">
-        <v>1143.7306000000001</v>
+        <v>1124.539</v>
       </c>
       <c r="C72" s="5">
-        <v>1143.7306000000001</v>
+        <v>1124.539</v>
       </c>
       <c r="D72" s="5">
-        <v>1143.7306000000001</v>
+        <v>1124.539</v>
       </c>
       <c r="E72" s="5">
-        <v>1143.7306000000001</v>
+        <v>1124.539</v>
       </c>
       <c r="F72" s="5">
         <v>0</v>
@@ -40933,16 +40254,16 @@
         <v>44574</v>
       </c>
       <c r="B73" s="5">
-        <v>1145.6151</v>
+        <v>1126.3919000000001</v>
       </c>
       <c r="C73" s="5">
-        <v>1145.6151</v>
+        <v>1126.3919000000001</v>
       </c>
       <c r="D73" s="5">
-        <v>1145.6151</v>
+        <v>1126.3919000000001</v>
       </c>
       <c r="E73" s="5">
-        <v>1145.6151</v>
+        <v>1126.3919000000001</v>
       </c>
       <c r="F73" s="5">
         <v>0</v>
@@ -40956,16 +40277,16 @@
         <v>44575</v>
       </c>
       <c r="B74" s="5">
-        <v>1146.4494</v>
+        <v>1127.2121999999999</v>
       </c>
       <c r="C74" s="5">
-        <v>1146.4494</v>
+        <v>1127.2121999999999</v>
       </c>
       <c r="D74" s="5">
-        <v>1146.4494</v>
+        <v>1127.2121999999999</v>
       </c>
       <c r="E74" s="5">
-        <v>1146.4494</v>
+        <v>1127.2121999999999</v>
       </c>
       <c r="F74" s="5">
         <v>0</v>
@@ -40979,16 +40300,16 @@
         <v>44578</v>
       </c>
       <c r="B75" s="5">
-        <v>1156.8523</v>
+        <v>1137.4404999999999</v>
       </c>
       <c r="C75" s="5">
-        <v>1156.8523</v>
+        <v>1137.4404999999999</v>
       </c>
       <c r="D75" s="5">
-        <v>1156.8523</v>
+        <v>1137.4404999999999</v>
       </c>
       <c r="E75" s="5">
-        <v>1156.8523</v>
+        <v>1137.4404999999999</v>
       </c>
       <c r="F75" s="5">
         <v>0</v>
@@ -41002,16 +40323,16 @@
         <v>44579</v>
       </c>
       <c r="B76" s="5">
-        <v>1147.2401</v>
+        <v>1127.9896000000001</v>
       </c>
       <c r="C76" s="5">
-        <v>1147.2401</v>
+        <v>1127.9896000000001</v>
       </c>
       <c r="D76" s="5">
-        <v>1147.2401</v>
+        <v>1127.9896000000001</v>
       </c>
       <c r="E76" s="5">
-        <v>1147.2401</v>
+        <v>1127.9896000000001</v>
       </c>
       <c r="F76" s="5">
         <v>0</v>
@@ -41025,16 +40346,16 @@
         <v>44580</v>
       </c>
       <c r="B77" s="5">
-        <v>1149.9643000000001</v>
+        <v>1130.6681000000001</v>
       </c>
       <c r="C77" s="5">
-        <v>1149.9643000000001</v>
+        <v>1130.6681000000001</v>
       </c>
       <c r="D77" s="5">
-        <v>1149.9643000000001</v>
+        <v>1130.6681000000001</v>
       </c>
       <c r="E77" s="5">
-        <v>1149.9643000000001</v>
+        <v>1130.6681000000001</v>
       </c>
       <c r="F77" s="5">
         <v>0</v>
@@ -41048,16 +40369,16 @@
         <v>44581</v>
       </c>
       <c r="B78" s="5">
-        <v>1160.1846</v>
+        <v>1140.7168999999999</v>
       </c>
       <c r="C78" s="5">
-        <v>1160.1846</v>
+        <v>1140.7168999999999</v>
       </c>
       <c r="D78" s="5">
-        <v>1160.1846</v>
+        <v>1140.7168999999999</v>
       </c>
       <c r="E78" s="5">
-        <v>1160.1846</v>
+        <v>1140.7168999999999</v>
       </c>
       <c r="F78" s="5">
         <v>0</v>
@@ -41071,16 +40392,16 @@
         <v>44582</v>
       </c>
       <c r="B79" s="5">
-        <v>1190.3225</v>
+        <v>1170.3490999999999</v>
       </c>
       <c r="C79" s="5">
-        <v>1190.3225</v>
+        <v>1170.3490999999999</v>
       </c>
       <c r="D79" s="5">
-        <v>1190.3225</v>
+        <v>1170.3490999999999</v>
       </c>
       <c r="E79" s="5">
-        <v>1190.3225</v>
+        <v>1170.3490999999999</v>
       </c>
       <c r="F79" s="5">
         <v>0</v>
@@ -41094,16 +40415,16 @@
         <v>44585</v>
       </c>
       <c r="B80" s="5">
-        <v>1213.1344999999999</v>
+        <v>1192.7782999999999</v>
       </c>
       <c r="C80" s="5">
-        <v>1213.1344999999999</v>
+        <v>1192.7782999999999</v>
       </c>
       <c r="D80" s="5">
-        <v>1213.1344999999999</v>
+        <v>1192.7782999999999</v>
       </c>
       <c r="E80" s="5">
-        <v>1213.1344999999999</v>
+        <v>1192.7782999999999</v>
       </c>
       <c r="F80" s="5">
         <v>0</v>
@@ -41117,16 +40438,16 @@
         <v>44586</v>
       </c>
       <c r="B81" s="5">
-        <v>1191.9007999999999</v>
+        <v>1168.6418000000001</v>
       </c>
       <c r="C81" s="5">
-        <v>1191.9007999999999</v>
+        <v>1168.6418000000001</v>
       </c>
       <c r="D81" s="5">
-        <v>1191.9007999999999</v>
+        <v>1168.6418000000001</v>
       </c>
       <c r="E81" s="5">
-        <v>1191.9007999999999</v>
+        <v>1168.6418000000001</v>
       </c>
       <c r="F81" s="5">
         <v>0</v>
@@ -41140,16 +40461,16 @@
         <v>44587</v>
       </c>
       <c r="B82" s="5">
-        <v>1192.6284000000001</v>
+        <v>1169.3552</v>
       </c>
       <c r="C82" s="5">
-        <v>1192.6284000000001</v>
+        <v>1169.3552</v>
       </c>
       <c r="D82" s="5">
-        <v>1192.6284000000001</v>
+        <v>1169.3552</v>
       </c>
       <c r="E82" s="5">
-        <v>1192.6284000000001</v>
+        <v>1169.3552</v>
       </c>
       <c r="F82" s="5">
         <v>0</v>
@@ -41163,16 +40484,16 @@
         <v>44588</v>
       </c>
       <c r="B83" s="5">
-        <v>1187.3078</v>
+        <v>1164.1384</v>
       </c>
       <c r="C83" s="5">
-        <v>1187.3078</v>
+        <v>1164.1384</v>
       </c>
       <c r="D83" s="5">
-        <v>1187.3078</v>
+        <v>1164.1384</v>
       </c>
       <c r="E83" s="5">
-        <v>1187.3078</v>
+        <v>1164.1384</v>
       </c>
       <c r="F83" s="5">
         <v>0</v>
@@ -41186,16 +40507,16 @@
         <v>44589</v>
       </c>
       <c r="B84" s="5">
-        <v>1206.8444</v>
+        <v>1183.2936999999999</v>
       </c>
       <c r="C84" s="5">
-        <v>1206.8444</v>
+        <v>1183.2936999999999</v>
       </c>
       <c r="D84" s="5">
-        <v>1206.8444</v>
+        <v>1183.2936999999999</v>
       </c>
       <c r="E84" s="5">
-        <v>1206.8444</v>
+        <v>1183.2936999999999</v>
       </c>
       <c r="F84" s="5">
         <v>0</v>
@@ -41209,16 +40530,16 @@
         <v>44599</v>
       </c>
       <c r="B85" s="5">
-        <v>1243.1358</v>
+        <v>1218.8769</v>
       </c>
       <c r="C85" s="5">
-        <v>1243.1358</v>
+        <v>1218.8769</v>
       </c>
       <c r="D85" s="5">
-        <v>1243.1358</v>
+        <v>1218.8769</v>
       </c>
       <c r="E85" s="5">
-        <v>1243.1358</v>
+        <v>1218.8769</v>
       </c>
       <c r="F85" s="5">
         <v>0</v>
@@ -41232,16 +40553,16 @@
         <v>44600</v>
       </c>
       <c r="B86" s="5">
-        <v>1287.6081999999999</v>
+        <v>1262.4813999999999</v>
       </c>
       <c r="C86" s="5">
-        <v>1287.6081999999999</v>
+        <v>1262.4813999999999</v>
       </c>
       <c r="D86" s="5">
-        <v>1287.6081999999999</v>
+        <v>1262.4813999999999</v>
       </c>
       <c r="E86" s="5">
-        <v>1287.6081999999999</v>
+        <v>1262.4813999999999</v>
       </c>
       <c r="F86" s="5">
         <v>0</v>
@@ -41255,16 +40576,16 @@
         <v>44601</v>
       </c>
       <c r="B87" s="5">
-        <v>1272.7565</v>
+        <v>1247.9195999999999</v>
       </c>
       <c r="C87" s="5">
-        <v>1272.7565</v>
+        <v>1247.9195999999999</v>
       </c>
       <c r="D87" s="5">
-        <v>1272.7565</v>
+        <v>1247.9195999999999</v>
       </c>
       <c r="E87" s="5">
-        <v>1272.7565</v>
+        <v>1247.9195999999999</v>
       </c>
       <c r="F87" s="5">
         <v>0</v>
@@ -41278,16 +40599,16 @@
         <v>44602</v>
       </c>
       <c r="B88" s="5">
-        <v>1270.9268</v>
+        <v>1246.1256000000001</v>
       </c>
       <c r="C88" s="5">
-        <v>1270.9268</v>
+        <v>1246.1256000000001</v>
       </c>
       <c r="D88" s="5">
-        <v>1270.9268</v>
+        <v>1246.1256000000001</v>
       </c>
       <c r="E88" s="5">
-        <v>1270.9268</v>
+        <v>1246.1256000000001</v>
       </c>
       <c r="F88" s="5">
         <v>0</v>
@@ -41301,16 +40622,16 @@
         <v>44603</v>
       </c>
       <c r="B89" s="5">
-        <v>1285.8394000000001</v>
+        <v>1260.7471</v>
       </c>
       <c r="C89" s="5">
-        <v>1285.8394000000001</v>
+        <v>1260.7471</v>
       </c>
       <c r="D89" s="5">
-        <v>1285.8394000000001</v>
+        <v>1260.7471</v>
       </c>
       <c r="E89" s="5">
-        <v>1285.8394000000001</v>
+        <v>1260.7471</v>
       </c>
       <c r="F89" s="5">
         <v>0</v>
@@ -41324,16 +40645,16 @@
         <v>44606</v>
       </c>
       <c r="B90" s="5">
-        <v>1305.2318</v>
+        <v>1279.7610999999999</v>
       </c>
       <c r="C90" s="5">
-        <v>1305.2318</v>
+        <v>1279.7610999999999</v>
       </c>
       <c r="D90" s="5">
-        <v>1305.2318</v>
+        <v>1279.7610999999999</v>
       </c>
       <c r="E90" s="5">
-        <v>1305.2318</v>
+        <v>1279.7610999999999</v>
       </c>
       <c r="F90" s="5">
         <v>0</v>
@@ -41347,16 +40668,16 @@
         <v>44607</v>
       </c>
       <c r="B91" s="5">
-        <v>1300.8788999999999</v>
+        <v>1275.4931999999999</v>
       </c>
       <c r="C91" s="5">
-        <v>1300.8788999999999</v>
+        <v>1275.4931999999999</v>
       </c>
       <c r="D91" s="5">
-        <v>1300.8788999999999</v>
+        <v>1275.4931999999999</v>
       </c>
       <c r="E91" s="5">
-        <v>1300.8788999999999</v>
+        <v>1275.4931999999999</v>
       </c>
       <c r="F91" s="5">
         <v>0</v>
@@ -41370,16 +40691,16 @@
         <v>44608</v>
       </c>
       <c r="B92" s="5">
-        <v>1279.4006999999999</v>
+        <v>1254.4340999999999</v>
       </c>
       <c r="C92" s="5">
-        <v>1279.4006999999999</v>
+        <v>1254.4340999999999</v>
       </c>
       <c r="D92" s="5">
-        <v>1279.4006999999999</v>
+        <v>1254.4340999999999</v>
       </c>
       <c r="E92" s="5">
-        <v>1279.4006999999999</v>
+        <v>1254.4340999999999</v>
       </c>
       <c r="F92" s="5">
         <v>0</v>
@@ -41393,16 +40714,16 @@
         <v>44609</v>
       </c>
       <c r="B93" s="5">
-        <v>1247.6447000000001</v>
+        <v>1223.2978000000001</v>
       </c>
       <c r="C93" s="5">
-        <v>1247.6447000000001</v>
+        <v>1223.2978000000001</v>
       </c>
       <c r="D93" s="5">
-        <v>1247.6447000000001</v>
+        <v>1223.2978000000001</v>
       </c>
       <c r="E93" s="5">
-        <v>1247.6447000000001</v>
+        <v>1223.2978000000001</v>
       </c>
       <c r="F93" s="5">
         <v>0</v>
@@ -41416,16 +40737,16 @@
         <v>44610</v>
       </c>
       <c r="B94" s="5">
-        <v>1271.7772</v>
+        <v>1246.9594</v>
       </c>
       <c r="C94" s="5">
-        <v>1271.7772</v>
+        <v>1246.9594</v>
       </c>
       <c r="D94" s="5">
-        <v>1271.7772</v>
+        <v>1246.9594</v>
       </c>
       <c r="E94" s="5">
-        <v>1271.7772</v>
+        <v>1246.9594</v>
       </c>
       <c r="F94" s="5">
         <v>0</v>
@@ -41439,16 +40760,16 @@
         <v>44613</v>
       </c>
       <c r="B95" s="5">
-        <v>1267.5402999999999</v>
+        <v>1242.8052</v>
       </c>
       <c r="C95" s="5">
-        <v>1267.5402999999999</v>
+        <v>1242.8052</v>
       </c>
       <c r="D95" s="5">
-        <v>1267.5402999999999</v>
+        <v>1242.8052</v>
       </c>
       <c r="E95" s="5">
-        <v>1267.5402999999999</v>
+        <v>1242.8052</v>
       </c>
       <c r="F95" s="5">
         <v>0</v>
@@ -41462,16 +40783,16 @@
         <v>44614</v>
       </c>
       <c r="B96" s="5">
-        <v>1226.1029000000001</v>
+        <v>1202.1764000000001</v>
       </c>
       <c r="C96" s="5">
-        <v>1226.1029000000001</v>
+        <v>1202.1764000000001</v>
       </c>
       <c r="D96" s="5">
-        <v>1226.1029000000001</v>
+        <v>1202.1764000000001</v>
       </c>
       <c r="E96" s="5">
-        <v>1226.1029000000001</v>
+        <v>1202.1764000000001</v>
       </c>
       <c r="F96" s="5">
         <v>0</v>
@@ -41485,16 +40806,16 @@
         <v>44615</v>
       </c>
       <c r="B97" s="5">
-        <v>1213.4477999999999</v>
+        <v>1189.7682</v>
       </c>
       <c r="C97" s="5">
-        <v>1213.4477999999999</v>
+        <v>1189.7682</v>
       </c>
       <c r="D97" s="5">
-        <v>1213.4477999999999</v>
+        <v>1189.7682</v>
       </c>
       <c r="E97" s="5">
-        <v>1213.4477999999999</v>
+        <v>1189.7682</v>
       </c>
       <c r="F97" s="5">
         <v>0</v>
@@ -41508,16 +40829,16 @@
         <v>44616</v>
       </c>
       <c r="B98" s="5">
-        <v>1184.6815999999999</v>
+        <v>1161.5634</v>
       </c>
       <c r="C98" s="5">
-        <v>1184.6815999999999</v>
+        <v>1161.5634</v>
       </c>
       <c r="D98" s="5">
-        <v>1184.6815999999999</v>
+        <v>1161.5634</v>
       </c>
       <c r="E98" s="5">
-        <v>1184.6815999999999</v>
+        <v>1161.5634</v>
       </c>
       <c r="F98" s="5">
         <v>0</v>
@@ -41531,16 +40852,16 @@
         <v>44617</v>
       </c>
       <c r="B99" s="5">
-        <v>1189.7706000000001</v>
+        <v>1166.5531000000001</v>
       </c>
       <c r="C99" s="5">
-        <v>1189.7706000000001</v>
+        <v>1166.5531000000001</v>
       </c>
       <c r="D99" s="5">
-        <v>1189.7706000000001</v>
+        <v>1166.5531000000001</v>
       </c>
       <c r="E99" s="5">
-        <v>1189.7706000000001</v>
+        <v>1166.5531000000001</v>
       </c>
       <c r="F99" s="5">
         <v>0</v>
@@ -41554,16 +40875,16 @@
         <v>44620</v>
       </c>
       <c r="B100" s="5">
-        <v>1176.3907999999999</v>
+        <v>1153.4344000000001</v>
       </c>
       <c r="C100" s="5">
-        <v>1176.3907999999999</v>
+        <v>1153.4344000000001</v>
       </c>
       <c r="D100" s="5">
-        <v>1176.3907999999999</v>
+        <v>1153.4344000000001</v>
       </c>
       <c r="E100" s="5">
-        <v>1176.3907999999999</v>
+        <v>1153.4344000000001</v>
       </c>
       <c r="F100" s="5">
         <v>0</v>
@@ -41577,16 +40898,16 @@
         <v>44621</v>
       </c>
       <c r="B101" s="5">
-        <v>1159.1614999999999</v>
+        <v>1136.5413000000001</v>
       </c>
       <c r="C101" s="5">
-        <v>1159.1614999999999</v>
+        <v>1136.5413000000001</v>
       </c>
       <c r="D101" s="5">
-        <v>1159.1614999999999</v>
+        <v>1136.5413000000001</v>
       </c>
       <c r="E101" s="5">
-        <v>1159.1614999999999</v>
+        <v>1136.5413000000001</v>
       </c>
       <c r="F101" s="5">
         <v>0</v>
@@ -41600,16 +40921,16 @@
         <v>44622</v>
       </c>
       <c r="B102" s="5">
-        <v>1185.0835999999999</v>
+        <v>1161.9576</v>
       </c>
       <c r="C102" s="5">
-        <v>1185.0835999999999</v>
+        <v>1161.9576</v>
       </c>
       <c r="D102" s="5">
-        <v>1185.0835999999999</v>
+        <v>1161.9576</v>
       </c>
       <c r="E102" s="5">
-        <v>1185.0835999999999</v>
+        <v>1161.9576</v>
       </c>
       <c r="F102" s="5">
         <v>0</v>
@@ -41623,16 +40944,16 @@
         <v>44623</v>
       </c>
       <c r="B103" s="5">
-        <v>1204.7750000000001</v>
+        <v>1181.2646999999999</v>
       </c>
       <c r="C103" s="5">
-        <v>1204.7750000000001</v>
+        <v>1181.2646999999999</v>
       </c>
       <c r="D103" s="5">
-        <v>1204.7750000000001</v>
+        <v>1181.2646999999999</v>
       </c>
       <c r="E103" s="5">
-        <v>1204.7750000000001</v>
+        <v>1181.2646999999999</v>
       </c>
       <c r="F103" s="5">
         <v>0</v>
@@ -41646,16 +40967,16 @@
         <v>44624</v>
       </c>
       <c r="B104" s="5">
-        <v>1198.2452000000001</v>
+        <v>1174.8623</v>
       </c>
       <c r="C104" s="5">
-        <v>1198.2452000000001</v>
+        <v>1174.8623</v>
       </c>
       <c r="D104" s="5">
-        <v>1198.2452000000001</v>
+        <v>1174.8623</v>
       </c>
       <c r="E104" s="5">
-        <v>1198.2452000000001</v>
+        <v>1174.8623</v>
       </c>
       <c r="F104" s="5">
         <v>0</v>
@@ -41669,16 +40990,16 @@
         <v>44627</v>
       </c>
       <c r="B105" s="5">
-        <v>1172.1157000000001</v>
+        <v>1149.2427</v>
       </c>
       <c r="C105" s="5">
-        <v>1172.1157000000001</v>
+        <v>1149.2427</v>
       </c>
       <c r="D105" s="5">
-        <v>1172.1157000000001</v>
+        <v>1149.2427</v>
       </c>
       <c r="E105" s="5">
-        <v>1172.1157000000001</v>
+        <v>1149.2427</v>
       </c>
       <c r="F105" s="5">
         <v>0</v>
@@ -41692,16 +41013,16 @@
         <v>44628</v>
       </c>
       <c r="B106" s="5">
-        <v>1151.6959999999999</v>
+        <v>1129.2215000000001</v>
       </c>
       <c r="C106" s="5">
-        <v>1151.6959999999999</v>
+        <v>1129.2215000000001</v>
       </c>
       <c r="D106" s="5">
-        <v>1151.6959999999999</v>
+        <v>1129.2215000000001</v>
       </c>
       <c r="E106" s="5">
-        <v>1151.6959999999999</v>
+        <v>1129.2215000000001</v>
       </c>
       <c r="F106" s="5">
         <v>0</v>
@@ -41715,16 +41036,16 @@
         <v>44629</v>
       </c>
       <c r="B107" s="5">
-        <v>1155.3664000000001</v>
+        <v>1132.8203000000001</v>
       </c>
       <c r="C107" s="5">
-        <v>1155.3664000000001</v>
+        <v>1132.8203000000001</v>
       </c>
       <c r="D107" s="5">
-        <v>1155.3664000000001</v>
+        <v>1132.8203000000001</v>
       </c>
       <c r="E107" s="5">
-        <v>1155.3664000000001</v>
+        <v>1132.8203000000001</v>
       </c>
       <c r="F107" s="5">
         <v>0</v>
@@ -41738,16 +41059,16 @@
         <v>44630</v>
       </c>
       <c r="B108" s="5">
-        <v>1160.213</v>
+        <v>1137.5723</v>
       </c>
       <c r="C108" s="5">
-        <v>1160.213</v>
+        <v>1137.5723</v>
       </c>
       <c r="D108" s="5">
-        <v>1160.213</v>
+        <v>1137.5723</v>
       </c>
       <c r="E108" s="5">
-        <v>1160.213</v>
+        <v>1137.5723</v>
       </c>
       <c r="F108" s="5">
         <v>0</v>
@@ -41761,16 +41082,16 @@
         <v>44631</v>
       </c>
       <c r="B109" s="5">
-        <v>1156.9562000000001</v>
+        <v>1134.3789999999999</v>
       </c>
       <c r="C109" s="5">
-        <v>1156.9562000000001</v>
+        <v>1134.3789999999999</v>
       </c>
       <c r="D109" s="5">
-        <v>1156.9562000000001</v>
+        <v>1134.3789999999999</v>
       </c>
       <c r="E109" s="5">
-        <v>1156.9562000000001</v>
+        <v>1134.3789999999999</v>
       </c>
       <c r="F109" s="5">
         <v>0</v>
@@ -41784,16 +41105,16 @@
         <v>44634</v>
       </c>
       <c r="B110" s="5">
-        <v>1145.3658</v>
+        <v>1123.0148999999999</v>
       </c>
       <c r="C110" s="5">
-        <v>1145.3658</v>
+        <v>1123.0148999999999</v>
       </c>
       <c r="D110" s="5">
-        <v>1145.3658</v>
+        <v>1123.0148999999999</v>
       </c>
       <c r="E110" s="5">
-        <v>1145.3658</v>
+        <v>1123.0148999999999</v>
       </c>
       <c r="F110" s="5">
         <v>0</v>
@@ -41807,16 +41128,16 @@
         <v>44635</v>
       </c>
       <c r="B111" s="5">
-        <v>1092.3030000000001</v>
+        <v>1070.9875</v>
       </c>
       <c r="C111" s="5">
-        <v>1092.3030000000001</v>
+        <v>1070.9875</v>
       </c>
       <c r="D111" s="5">
-        <v>1092.3030000000001</v>
+        <v>1070.9875</v>
       </c>
       <c r="E111" s="5">
-        <v>1092.3030000000001</v>
+        <v>1070.9875</v>
       </c>
       <c r="F111" s="5">
         <v>0</v>
@@ -41830,16 +41151,16 @@
         <v>44636</v>
       </c>
       <c r="B112" s="5">
-        <v>1105.6139000000001</v>
+        <v>1084.0387000000001</v>
       </c>
       <c r="C112" s="5">
-        <v>1105.6139000000001</v>
+        <v>1084.0387000000001</v>
       </c>
       <c r="D112" s="5">
-        <v>1105.6139000000001</v>
+        <v>1084.0387000000001</v>
       </c>
       <c r="E112" s="5">
-        <v>1105.6139000000001</v>
+        <v>1084.0387000000001</v>
       </c>
       <c r="F112" s="5">
         <v>0</v>
@@ -41853,16 +41174,16 @@
         <v>44637</v>
       </c>
       <c r="B113" s="5">
-        <v>1116.3440000000001</v>
+        <v>1094.5592999999999</v>
       </c>
       <c r="C113" s="5">
-        <v>1116.3440000000001</v>
+        <v>1094.5592999999999</v>
       </c>
       <c r="D113" s="5">
-        <v>1116.3440000000001</v>
+        <v>1094.5592999999999</v>
       </c>
       <c r="E113" s="5">
-        <v>1116.3440000000001</v>
+        <v>1094.5592999999999</v>
       </c>
       <c r="F113" s="5">
         <v>0</v>
@@ -41876,16 +41197,16 @@
         <v>44638</v>
       </c>
       <c r="B114" s="5">
-        <v>1113.1569999999999</v>
+        <v>1091.4346</v>
       </c>
       <c r="C114" s="5">
-        <v>1113.1569999999999</v>
+        <v>1091.4346</v>
       </c>
       <c r="D114" s="5">
-        <v>1113.1569999999999</v>
+        <v>1091.4346</v>
       </c>
       <c r="E114" s="5">
-        <v>1113.1569999999999</v>
+        <v>1091.4346</v>
       </c>
       <c r="F114" s="5">
         <v>0</v>
@@ -41899,16 +41220,16 @@
         <v>44641</v>
       </c>
       <c r="B115" s="5">
-        <v>1136.338</v>
+        <v>1114.1631</v>
       </c>
       <c r="C115" s="5">
-        <v>1136.338</v>
+        <v>1114.1631</v>
       </c>
       <c r="D115" s="5">
-        <v>1136.338</v>
+        <v>1114.1631</v>
       </c>
       <c r="E115" s="5">
-        <v>1136.338</v>
+        <v>1114.1631</v>
       </c>
       <c r="F115" s="5">
         <v>0</v>
@@ -41922,16 +41243,16 @@
         <v>44642</v>
       </c>
       <c r="B116" s="5">
-        <v>1166.1229000000001</v>
+        <v>1143.3668</v>
       </c>
       <c r="C116" s="5">
-        <v>1166.1229000000001</v>
+        <v>1143.3668</v>
       </c>
       <c r="D116" s="5">
-        <v>1166.1229000000001</v>
+        <v>1143.3668</v>
       </c>
       <c r="E116" s="5">
-        <v>1166.1229000000001</v>
+        <v>1143.3668</v>
       </c>
       <c r="F116" s="5">
         <v>0</v>
@@ -41945,16 +41266,16 @@
         <v>44643</v>
       </c>
       <c r="B117" s="5">
-        <v>1154.2874999999999</v>
+        <v>1131.7624000000001</v>
       </c>
       <c r="C117" s="5">
-        <v>1154.2874999999999</v>
+        <v>1131.7624000000001</v>
       </c>
       <c r="D117" s="5">
-        <v>1154.2874999999999</v>
+        <v>1131.7624000000001</v>
       </c>
       <c r="E117" s="5">
-        <v>1154.2874999999999</v>
+        <v>1131.7624000000001</v>
       </c>
       <c r="F117" s="5">
         <v>0</v>
@@ -41968,16 +41289,16 @@
         <v>44644</v>
       </c>
       <c r="B118" s="5">
-        <v>1150.0002999999999</v>
+        <v>1127.5589</v>
       </c>
       <c r="C118" s="5">
-        <v>1150.0002999999999</v>
+        <v>1127.5589</v>
       </c>
       <c r="D118" s="5">
-        <v>1150.0002999999999</v>
+        <v>1127.5589</v>
       </c>
       <c r="E118" s="5">
-        <v>1150.0002999999999</v>
+        <v>1127.5589</v>
       </c>
       <c r="F118" s="5">
         <v>0</v>
@@ -41991,16 +41312,16 @@
         <v>44645</v>
       </c>
       <c r="B119" s="5">
-        <v>1141.2840000000001</v>
+        <v>1119.0127</v>
       </c>
       <c r="C119" s="5">
-        <v>1141.2840000000001</v>
+        <v>1119.0127</v>
       </c>
       <c r="D119" s="5">
-        <v>1141.2840000000001</v>
+        <v>1119.0127</v>
       </c>
       <c r="E119" s="5">
-        <v>1141.2840000000001</v>
+        <v>1119.0127</v>
       </c>
       <c r="F119" s="5">
         <v>0</v>
@@ -42014,16 +41335,16 @@
         <v>44648</v>
       </c>
       <c r="B120" s="5">
-        <v>1133.0799</v>
+        <v>1110.9686999999999</v>
       </c>
       <c r="C120" s="5">
-        <v>1133.0799</v>
+        <v>1110.9686999999999</v>
       </c>
       <c r="D120" s="5">
-        <v>1133.0799</v>
+        <v>1110.9686999999999</v>
       </c>
       <c r="E120" s="5">
-        <v>1133.0799</v>
+        <v>1110.9686999999999</v>
       </c>
       <c r="F120" s="5">
         <v>0</v>
@@ -42037,16 +41358,16 @@
         <v>44649</v>
       </c>
       <c r="B121" s="5">
-        <v>1135.4684</v>
+        <v>1113.3105</v>
       </c>
       <c r="C121" s="5">
-        <v>1135.4684</v>
+        <v>1113.3105</v>
       </c>
       <c r="D121" s="5">
-        <v>1135.4684</v>
+        <v>1113.3105</v>
       </c>
       <c r="E121" s="5">
-        <v>1135.4684</v>
+        <v>1113.3105</v>
       </c>
       <c r="F121" s="5">
         <v>0</v>
@@ -42060,16 +41381,16 @@
         <v>44650</v>
       </c>
       <c r="B122" s="5">
-        <v>1137.2464</v>
+        <v>1115.0539000000001</v>
       </c>
       <c r="C122" s="5">
-        <v>1137.2464</v>
+        <v>1115.0539000000001</v>
       </c>
       <c r="D122" s="5">
-        <v>1137.2464</v>
+        <v>1115.0539000000001</v>
       </c>
       <c r="E122" s="5">
-        <v>1137.2464</v>
+        <v>1115.0539000000001</v>
       </c>
       <c r="F122" s="5">
         <v>0</v>
@@ -42083,16 +41404,16 @@
         <v>44651</v>
       </c>
       <c r="B123" s="5">
-        <v>1132.5918999999999</v>
+        <v>1110.4901</v>
       </c>
       <c r="C123" s="5">
-        <v>1132.5918999999999</v>
+        <v>1110.4901</v>
       </c>
       <c r="D123" s="5">
-        <v>1132.5918999999999</v>
+        <v>1110.4901</v>
       </c>
       <c r="E123" s="5">
-        <v>1132.5918999999999</v>
+        <v>1110.4901</v>
       </c>
       <c r="F123" s="5">
         <v>0</v>
@@ -42106,16 +41427,16 @@
         <v>44652</v>
       </c>
       <c r="B124" s="5">
-        <v>1153.7175999999999</v>
+        <v>1131.2037</v>
       </c>
       <c r="C124" s="5">
-        <v>1153.7175999999999</v>
+        <v>1131.2037</v>
       </c>
       <c r="D124" s="5">
-        <v>1153.7175999999999</v>
+        <v>1131.2037</v>
       </c>
       <c r="E124" s="5">
-        <v>1153.7175999999999</v>
+        <v>1131.2037</v>
       </c>
       <c r="F124" s="5">
         <v>0</v>
@@ -42129,16 +41450,16 @@
         <v>44657</v>
       </c>
       <c r="B125" s="5">
-        <v>1155.5359000000001</v>
+        <v>1132.9864</v>
       </c>
       <c r="C125" s="5">
-        <v>1155.5359000000001</v>
+        <v>1132.9864</v>
       </c>
       <c r="D125" s="5">
-        <v>1155.5359000000001</v>
+        <v>1132.9864</v>
       </c>
       <c r="E125" s="5">
-        <v>1155.5359000000001</v>
+        <v>1132.9864</v>
       </c>
       <c r="F125" s="5">
         <v>0</v>
@@ -42152,16 +41473,16 @@
         <v>44658</v>
       </c>
       <c r="B126" s="5">
-        <v>1142.3811000000001</v>
+        <v>1116.6949</v>
       </c>
       <c r="C126" s="5">
-        <v>1142.3811000000001</v>
+        <v>1116.6949</v>
       </c>
       <c r="D126" s="5">
-        <v>1142.3811000000001</v>
+        <v>1116.6949</v>
       </c>
       <c r="E126" s="5">
-        <v>1142.3811000000001</v>
+        <v>1116.6949</v>
       </c>
       <c r="F126" s="5">
         <v>0</v>
@@ -42175,16 +41496,16 @@
         <v>44659</v>
       </c>
       <c r="B127" s="5">
-        <v>1156.6651999999999</v>
+        <v>1125.7039</v>
       </c>
       <c r="C127" s="5">
-        <v>1156.6651999999999</v>
+        <v>1125.7039</v>
       </c>
       <c r="D127" s="5">
-        <v>1156.6651999999999</v>
+        <v>1125.7039</v>
       </c>
       <c r="E127" s="5">
-        <v>1156.6651999999999</v>
+        <v>1125.7039</v>
       </c>
       <c r="F127" s="5">
         <v>0</v>
@@ -42198,16 +41519,16 @@
         <v>44662</v>
       </c>
       <c r="B128" s="5">
-        <v>1150.1494</v>
+        <v>1119.3625</v>
       </c>
       <c r="C128" s="5">
-        <v>1150.1494</v>
+        <v>1119.3625</v>
       </c>
       <c r="D128" s="5">
-        <v>1150.1494</v>
+        <v>1119.3625</v>
       </c>
       <c r="E128" s="5">
-        <v>1150.1494</v>
+        <v>1119.3625</v>
       </c>
       <c r="F128" s="5">
         <v>0</v>
@@ -42221,16 +41542,16 @@
         <v>44663</v>
       </c>
       <c r="B129" s="5">
-        <v>1158.2112999999999</v>
+        <v>1127.2085999999999</v>
       </c>
       <c r="C129" s="5">
-        <v>1158.2112999999999</v>
+        <v>1127.2085999999999</v>
       </c>
       <c r="D129" s="5">
-        <v>1158.2112999999999</v>
+        <v>1127.2085999999999</v>
       </c>
       <c r="E129" s="5">
-        <v>1158.2112999999999</v>
+        <v>1127.2085999999999</v>
       </c>
       <c r="F129" s="5">
         <v>0</v>
@@ -42244,16 +41565,16 @@
         <v>44664</v>
       </c>
       <c r="B130" s="5">
-        <v>1161.0027</v>
+        <v>1128.3708999999999</v>
       </c>
       <c r="C130" s="5">
-        <v>1161.0027</v>
+        <v>1128.3708999999999</v>
       </c>
       <c r="D130" s="5">
-        <v>1161.0027</v>
+        <v>1128.3708999999999</v>
       </c>
       <c r="E130" s="5">
-        <v>1161.0027</v>
+        <v>1128.3708999999999</v>
       </c>
       <c r="F130" s="5">
         <v>0</v>
@@ -42267,16 +41588,16 @@
         <v>44665</v>
       </c>
       <c r="B131" s="5">
-        <v>1160.4937</v>
+        <v>1127.8762999999999</v>
       </c>
       <c r="C131" s="5">
-        <v>1160.4937</v>
+        <v>1127.8762999999999</v>
       </c>
       <c r="D131" s="5">
-        <v>1160.4937</v>
+        <v>1127.8762999999999</v>
       </c>
       <c r="E131" s="5">
-        <v>1160.4937</v>
+        <v>1127.8762999999999</v>
       </c>
       <c r="F131" s="5">
         <v>0</v>
@@ -42290,16 +41611,16 @@
         <v>44666</v>
       </c>
       <c r="B132" s="5">
-        <v>1157.2543000000001</v>
+        <v>1124.7279000000001</v>
       </c>
       <c r="C132" s="5">
-        <v>1157.2543000000001</v>
+        <v>1124.7279000000001</v>
       </c>
       <c r="D132" s="5">
-        <v>1157.2543000000001</v>
+        <v>1124.7279000000001</v>
       </c>
       <c r="E132" s="5">
-        <v>1157.2543000000001</v>
+        <v>1124.7279000000001</v>
       </c>
       <c r="F132" s="5">
         <v>0</v>
@@ -42313,16 +41634,16 @@
         <v>44669</v>
       </c>
       <c r="B133" s="5">
-        <v>1158.7854</v>
+        <v>1126.2159999999999</v>
       </c>
       <c r="C133" s="5">
-        <v>1158.7854</v>
+        <v>1126.2159999999999</v>
       </c>
       <c r="D133" s="5">
-        <v>1158.7854</v>
+        <v>1126.2159999999999</v>
       </c>
       <c r="E133" s="5">
-        <v>1158.7854</v>
+        <v>1126.2159999999999</v>
       </c>
       <c r="F133" s="5">
         <v>0</v>
@@ -42336,16 +41657,16 @@
         <v>44670</v>
       </c>
       <c r="B134" s="5">
-        <v>1158.3179</v>
+        <v>1121.8478</v>
       </c>
       <c r="C134" s="5">
-        <v>1158.3179</v>
+        <v>1121.8478</v>
       </c>
       <c r="D134" s="5">
-        <v>1158.3179</v>
+        <v>1121.8478</v>
       </c>
       <c r="E134" s="5">
-        <v>1158.3179</v>
+        <v>1121.8478</v>
       </c>
       <c r="F134" s="5">
         <v>0</v>
@@ -42359,16 +41680,16 @@
         <v>44671</v>
       </c>
       <c r="B135" s="5">
-        <v>1158.6502</v>
+        <v>1122.1696999999999</v>
       </c>
       <c r="C135" s="5">
-        <v>1158.6502</v>
+        <v>1122.1696999999999</v>
       </c>
       <c r="D135" s="5">
-        <v>1158.6502</v>
+        <v>1122.1696999999999</v>
       </c>
       <c r="E135" s="5">
-        <v>1158.6502</v>
+        <v>1122.1696999999999</v>
       </c>
       <c r="F135" s="5">
         <v>0</v>
@@ -42382,16 +41703,16 @@
         <v>44672</v>
       </c>
       <c r="B136" s="5">
-        <v>1145.7291</v>
+        <v>1109.6554000000001</v>
       </c>
       <c r="C136" s="5">
-        <v>1145.7291</v>
+        <v>1109.6554000000001</v>
       </c>
       <c r="D136" s="5">
-        <v>1145.7291</v>
+        <v>1109.6554000000001</v>
       </c>
       <c r="E136" s="5">
-        <v>1145.7291</v>
+        <v>1109.6554000000001</v>
       </c>
       <c r="F136" s="5">
         <v>0</v>
@@ -42405,16 +41726,16 @@
         <v>44673</v>
       </c>
       <c r="B137" s="5">
-        <v>1140.9699000000001</v>
+        <v>1105.0461</v>
       </c>
       <c r="C137" s="5">
-        <v>1140.9699000000001</v>
+        <v>1105.0461</v>
       </c>
       <c r="D137" s="5">
-        <v>1140.9699000000001</v>
+        <v>1105.0461</v>
       </c>
       <c r="E137" s="5">
-        <v>1140.9699000000001</v>
+        <v>1105.0461</v>
       </c>
       <c r="F137" s="5">
         <v>0</v>
@@ -42428,16 +41749,16 @@
         <v>44676</v>
       </c>
       <c r="B138" s="5">
-        <v>1119.2067999999999</v>
+        <v>1083.9682</v>
       </c>
       <c r="C138" s="5">
-        <v>1119.2067999999999</v>
+        <v>1083.9682</v>
       </c>
       <c r="D138" s="5">
-        <v>1119.2067999999999</v>
+        <v>1083.9682</v>
       </c>
       <c r="E138" s="5">
-        <v>1119.2067999999999</v>
+        <v>1083.9682</v>
       </c>
       <c r="F138" s="5">
         <v>0</v>
@@ -42451,16 +41772,16 @@
         <v>44677</v>
       </c>
       <c r="B139" s="5">
-        <v>1120.1623</v>
+        <v>1084.8936000000001</v>
       </c>
       <c r="C139" s="5">
-        <v>1120.1623</v>
+        <v>1084.8936000000001</v>
       </c>
       <c r="D139" s="5">
-        <v>1120.1623</v>
+        <v>1084.8936000000001</v>
       </c>
       <c r="E139" s="5">
-        <v>1120.1623</v>
+        <v>1084.8936000000001</v>
       </c>
       <c r="F139" s="5">
         <v>0</v>
@@ -42474,16 +41795,16 @@
         <v>44678</v>
       </c>
       <c r="B140" s="5">
-        <v>1128.8713</v>
+        <v>1089.4911999999999</v>
       </c>
       <c r="C140" s="5">
-        <v>1128.8713</v>
+        <v>1089.4911999999999</v>
       </c>
       <c r="D140" s="5">
-        <v>1128.8713</v>
+        <v>1089.4911999999999</v>
       </c>
       <c r="E140" s="5">
-        <v>1128.8713</v>
+        <v>1089.4911999999999</v>
       </c>
       <c r="F140" s="5">
         <v>0</v>
@@ -42497,16 +41818,16 @@
         <v>44679</v>
       </c>
       <c r="B141" s="5">
-        <v>1115.9105</v>
+        <v>1076.9826</v>
       </c>
       <c r="C141" s="5">
-        <v>1115.9105</v>
+        <v>1076.9826</v>
       </c>
       <c r="D141" s="5">
-        <v>1115.9105</v>
+        <v>1076.9826</v>
       </c>
       <c r="E141" s="5">
-        <v>1115.9105</v>
+        <v>1076.9826</v>
       </c>
       <c r="F141" s="5">
         <v>0</v>
@@ -42520,16 +41841,16 @@
         <v>44680</v>
       </c>
       <c r="B142" s="5">
-        <v>1122.5613000000001</v>
+        <v>1083.4014</v>
       </c>
       <c r="C142" s="5">
-        <v>1122.5613000000001</v>
+        <v>1083.4014</v>
       </c>
       <c r="D142" s="5">
-        <v>1122.5613000000001</v>
+        <v>1083.4014</v>
       </c>
       <c r="E142" s="5">
-        <v>1122.5613000000001</v>
+        <v>1083.4014</v>
       </c>
       <c r="F142" s="5">
         <v>0</v>
@@ -42543,16 +41864,16 @@
         <v>44686</v>
       </c>
       <c r="B143" s="5">
-        <v>1115.7215000000001</v>
+        <v>1076.8001999999999</v>
       </c>
       <c r="C143" s="5">
-        <v>1115.7215000000001</v>
+        <v>1076.8001999999999</v>
       </c>
       <c r="D143" s="5">
-        <v>1115.7215000000001</v>
+        <v>1076.8001999999999</v>
       </c>
       <c r="E143" s="5">
-        <v>1115.7215000000001</v>
+        <v>1076.8001999999999</v>
       </c>
       <c r="F143" s="5">
         <v>0</v>
@@ -42566,16 +41887,16 @@
         <v>44687</v>
       </c>
       <c r="B144" s="5">
-        <v>1114.203</v>
+        <v>1075.3345999999999</v>
       </c>
       <c r="C144" s="5">
-        <v>1114.203</v>
+        <v>1075.3345999999999</v>
       </c>
       <c r="D144" s="5">
-        <v>1114.203</v>
+        <v>1075.3345999999999</v>
       </c>
       <c r="E144" s="5">
-        <v>1114.203</v>
+        <v>1075.3345999999999</v>
       </c>
       <c r="F144" s="5">
         <v>0</v>
@@ -42589,16 +41910,16 @@
         <v>44690</v>
       </c>
       <c r="B145" s="5">
-        <v>1109.4344000000001</v>
+        <v>1070.7324000000001</v>
       </c>
       <c r="C145" s="5">
-        <v>1109.4344000000001</v>
+        <v>1070.7324000000001</v>
       </c>
       <c r="D145" s="5">
-        <v>1109.4344000000001</v>
+        <v>1070.7324000000001</v>
       </c>
       <c r="E145" s="5">
-        <v>1109.4344000000001</v>
+        <v>1070.7324000000001</v>
       </c>
       <c r="F145" s="5">
         <v>0</v>
@@ -42612,16 +41933,16 @@
         <v>44691</v>
       </c>
       <c r="B146" s="5">
-        <v>1109.7330999999999</v>
+        <v>1071.0207</v>
       </c>
       <c r="C146" s="5">
-        <v>1109.7330999999999</v>
+        <v>1071.0207</v>
       </c>
       <c r="D146" s="5">
-        <v>1109.7330999999999</v>
+        <v>1071.0207</v>
       </c>
       <c r="E146" s="5">
-        <v>1109.7330999999999</v>
+        <v>1071.0207</v>
       </c>
       <c r="F146" s="5">
         <v>0</v>
@@ -42635,16 +41956,16 @@
         <v>44692</v>
       </c>
       <c r="B147" s="5">
-        <v>1118.2058</v>
+        <v>1079.1977999999999</v>
       </c>
       <c r="C147" s="5">
-        <v>1118.2058</v>
+        <v>1079.1977999999999</v>
       </c>
       <c r="D147" s="5">
-        <v>1118.2058</v>
+        <v>1079.1977999999999</v>
       </c>
       <c r="E147" s="5">
-        <v>1118.2058</v>
+        <v>1079.1977999999999</v>
       </c>
       <c r="F147" s="5">
         <v>0</v>
@@ -42658,16 +41979,16 @@
         <v>44693</v>
       </c>
       <c r="B148" s="5">
-        <v>1124.4665</v>
+        <v>1085.2401</v>
       </c>
       <c r="C148" s="5">
-        <v>1124.4665</v>
+        <v>1085.2401</v>
       </c>
       <c r="D148" s="5">
-        <v>1124.4665</v>
+        <v>1085.2401</v>
       </c>
       <c r="E148" s="5">
-        <v>1124.4665</v>
+        <v>1085.2401</v>
       </c>
       <c r="F148" s="5">
         <v>0</v>
@@ -42681,16 +42002,16 @@
         <v>44694</v>
       </c>
       <c r="B149" s="5">
-        <v>1127.6410000000001</v>
+        <v>1088.3039000000001</v>
       </c>
       <c r="C149" s="5">
-        <v>1127.6410000000001</v>
+        <v>1088.3039000000001</v>
       </c>
       <c r="D149" s="5">
-        <v>1127.6410000000001</v>
+        <v>1088.3039000000001</v>
       </c>
       <c r="E149" s="5">
-        <v>1127.6410000000001</v>
+        <v>1088.3039000000001</v>
       </c>
       <c r="F149" s="5">
         <v>0</v>
@@ -42704,16 +42025,16 @@
         <v>44697</v>
       </c>
       <c r="B150" s="5">
-        <v>1126.1139000000001</v>
+        <v>1086.8300999999999</v>
       </c>
       <c r="C150" s="5">
-        <v>1126.1139000000001</v>
+        <v>1086.8300999999999</v>
       </c>
       <c r="D150" s="5">
-        <v>1126.1139000000001</v>
+        <v>1086.8300999999999</v>
       </c>
       <c r="E150" s="5">
-        <v>1126.1139000000001</v>
+        <v>1086.8300999999999</v>
       </c>
       <c r="F150" s="5">
         <v>0</v>
@@ -42727,16 +42048,16 @@
         <v>44698</v>
       </c>
       <c r="B151" s="5">
-        <v>1124.3157000000001</v>
+        <v>1085.0944999999999</v>
       </c>
       <c r="C151" s="5">
-        <v>1124.3157000000001</v>
+        <v>1085.0944999999999</v>
       </c>
       <c r="D151" s="5">
-        <v>1124.3157000000001</v>
+        <v>1085.0944999999999</v>
       </c>
       <c r="E151" s="5">
-        <v>1124.3157000000001</v>
+        <v>1085.0944999999999</v>
       </c>
       <c r="F151" s="5">
         <v>0</v>
@@ -42750,16 +42071,16 @@
         <v>44699</v>
       </c>
       <c r="B152" s="5">
-        <v>1120.7267999999999</v>
+        <v>1081.6309000000001</v>
       </c>
       <c r="C152" s="5">
-        <v>1120.7267999999999</v>
+        <v>1081.6309000000001</v>
       </c>
       <c r="D152" s="5">
-        <v>1120.7267999999999</v>
+        <v>1081.6309000000001</v>
       </c>
       <c r="E152" s="5">
-        <v>1120.7267999999999</v>
+        <v>1081.6309000000001</v>
       </c>
       <c r="F152" s="5">
         <v>0</v>
@@ -42773,16 +42094,16 @@
         <v>44700</v>
       </c>
       <c r="B153" s="5">
-        <v>1112.3806</v>
+        <v>1073.5758000000001</v>
       </c>
       <c r="C153" s="5">
-        <v>1112.3806</v>
+        <v>1073.5758000000001</v>
       </c>
       <c r="D153" s="5">
-        <v>1112.3806</v>
+        <v>1073.5758000000001</v>
       </c>
       <c r="E153" s="5">
-        <v>1112.3806</v>
+        <v>1073.5758000000001</v>
       </c>
       <c r="F153" s="5">
         <v>0</v>
@@ -42796,16 +42117,16 @@
         <v>44701</v>
       </c>
       <c r="B154" s="5">
-        <v>1114.5368000000001</v>
+        <v>1075.6568</v>
       </c>
       <c r="C154" s="5">
-        <v>1114.5368000000001</v>
+        <v>1075.6568</v>
       </c>
       <c r="D154" s="5">
-        <v>1114.5368000000001</v>
+        <v>1075.6568</v>
       </c>
       <c r="E154" s="5">
-        <v>1114.5368000000001</v>
+        <v>1075.6568</v>
       </c>
       <c r="F154" s="5">
         <v>0</v>
@@ -42819,16 +42140,16 @@
         <v>44704</v>
       </c>
       <c r="B155" s="5">
-        <v>1111.2847999999999</v>
+        <v>1072.5183</v>
       </c>
       <c r="C155" s="5">
-        <v>1111.2847999999999</v>
+        <v>1072.5183</v>
       </c>
       <c r="D155" s="5">
-        <v>1111.2847999999999</v>
+        <v>1072.5183</v>
       </c>
       <c r="E155" s="5">
-        <v>1111.2847999999999</v>
+        <v>1072.5183</v>
       </c>
       <c r="F155" s="5">
         <v>0</v>
@@ -42842,16 +42163,16 @@
         <v>44705</v>
       </c>
       <c r="B156" s="5">
-        <v>1106.4431999999999</v>
+        <v>1067.8454999999999</v>
       </c>
       <c r="C156" s="5">
-        <v>1106.4431999999999</v>
+        <v>1067.8454999999999</v>
       </c>
       <c r="D156" s="5">
-        <v>1106.4431999999999</v>
+        <v>1067.8454999999999</v>
       </c>
       <c r="E156" s="5">
-        <v>1106.4431999999999</v>
+        <v>1067.8454999999999</v>
       </c>
       <c r="F156" s="5">
         <v>0</v>
@@ -42865,16 +42186,16 @@
         <v>44706</v>
       </c>
       <c r="B157" s="5">
-        <v>1105.8807999999999</v>
+        <v>1067.3027999999999</v>
       </c>
       <c r="C157" s="5">
-        <v>1105.8807999999999</v>
+        <v>1067.3027999999999</v>
       </c>
       <c r="D157" s="5">
-        <v>1105.8807999999999</v>
+        <v>1067.3027999999999</v>
       </c>
       <c r="E157" s="5">
-        <v>1105.8807999999999</v>
+        <v>1067.3027999999999</v>
       </c>
       <c r="F157" s="5">
         <v>0</v>
@@ -42888,16 +42209,16 @@
         <v>44707</v>
       </c>
       <c r="B158" s="5">
-        <v>1106.2915</v>
+        <v>1067.6992</v>
       </c>
       <c r="C158" s="5">
-        <v>1106.2915</v>
+        <v>1067.6992</v>
       </c>
       <c r="D158" s="5">
-        <v>1106.2915</v>
+        <v>1067.6992</v>
       </c>
       <c r="E158" s="5">
-        <v>1106.2915</v>
+        <v>1067.6992</v>
       </c>
       <c r="F158" s="5">
         <v>0</v>
@@ -42911,16 +42232,16 @@
         <v>44708</v>
       </c>
       <c r="B159" s="5">
-        <v>1106.5256999999999</v>
+        <v>1067.9251999999999</v>
       </c>
       <c r="C159" s="5">
-        <v>1106.5256999999999</v>
+        <v>1067.9251999999999</v>
       </c>
       <c r="D159" s="5">
-        <v>1106.5256999999999</v>
+        <v>1067.9251999999999</v>
       </c>
       <c r="E159" s="5">
-        <v>1106.5256999999999</v>
+        <v>1067.9251999999999</v>
       </c>
       <c r="F159" s="5">
         <v>0</v>
@@ -42934,16 +42255,16 @@
         <v>44711</v>
       </c>
       <c r="B160" s="5">
-        <v>1102.5959</v>
+        <v>1064.1324</v>
       </c>
       <c r="C160" s="5">
-        <v>1102.5959</v>
+        <v>1064.1324</v>
       </c>
       <c r="D160" s="5">
-        <v>1102.5959</v>
+        <v>1064.1324</v>
       </c>
       <c r="E160" s="5">
-        <v>1102.5959</v>
+        <v>1064.1324</v>
       </c>
       <c r="F160" s="5">
         <v>0</v>
@@ -42957,16 +42278,16 @@
         <v>44712</v>
       </c>
       <c r="B161" s="5">
-        <v>1094.8424</v>
+        <v>1056.6494</v>
       </c>
       <c r="C161" s="5">
-        <v>1094.8424</v>
+        <v>1056.6494</v>
       </c>
       <c r="D161" s="5">
-        <v>1094.8424</v>
+        <v>1056.6494</v>
       </c>
       <c r="E161" s="5">
-        <v>1094.8424</v>
+        <v>1056.6494</v>
       </c>
       <c r="F161" s="5">
         <v>0</v>
@@ -42980,16 +42301,16 @@
         <v>44713</v>
       </c>
       <c r="B162" s="5">
-        <v>1088.5187000000001</v>
+        <v>1050.5463</v>
       </c>
       <c r="C162" s="5">
-        <v>1088.5187000000001</v>
+        <v>1050.5463</v>
       </c>
       <c r="D162" s="5">
-        <v>1088.5187000000001</v>
+        <v>1050.5463</v>
       </c>
       <c r="E162" s="5">
-        <v>1088.5187000000001</v>
+        <v>1050.5463</v>
       </c>
       <c r="F162" s="5">
         <v>0</v>
@@ -43003,16 +42324,16 @@
         <v>44714</v>
       </c>
       <c r="B163" s="5">
-        <v>1090.7677000000001</v>
+        <v>1052.7167999999999</v>
       </c>
       <c r="C163" s="5">
-        <v>1090.7677000000001</v>
+        <v>1052.7167999999999</v>
       </c>
       <c r="D163" s="5">
-        <v>1090.7677000000001</v>
+        <v>1052.7167999999999</v>
       </c>
       <c r="E163" s="5">
-        <v>1090.7677000000001</v>
+        <v>1052.7167999999999</v>
       </c>
       <c r="F163" s="5">
         <v>0</v>
@@ -43026,16 +42347,16 @@
         <v>44718</v>
       </c>
       <c r="B164" s="5">
-        <v>1108.1418000000001</v>
+        <v>1069.4848999999999</v>
       </c>
       <c r="C164" s="5">
-        <v>1108.1418000000001</v>
+        <v>1069.4848999999999</v>
       </c>
       <c r="D164" s="5">
-        <v>1108.1418000000001</v>
+        <v>1069.4848999999999</v>
       </c>
       <c r="E164" s="5">
-        <v>1108.1418000000001</v>
+        <v>1069.4848999999999</v>
       </c>
       <c r="F164" s="5">
         <v>0</v>
@@ -43049,16 +42370,16 @@
         <v>44719</v>
       </c>
       <c r="B165" s="5">
-        <v>1123.6402</v>
+        <v>1084.4426000000001</v>
       </c>
       <c r="C165" s="5">
-        <v>1123.6402</v>
+        <v>1084.4426000000001</v>
       </c>
       <c r="D165" s="5">
-        <v>1123.6402</v>
+        <v>1084.4426000000001</v>
       </c>
       <c r="E165" s="5">
-        <v>1123.6402</v>
+        <v>1084.4426000000001</v>
       </c>
       <c r="F165" s="5">
         <v>0</v>
@@ -43072,16 +42393,16 @@
         <v>44720</v>
       </c>
       <c r="B166" s="5">
-        <v>1117.7659000000001</v>
+        <v>1069.413</v>
       </c>
       <c r="C166" s="5">
-        <v>1117.7659000000001</v>
+        <v>1069.413</v>
       </c>
       <c r="D166" s="5">
-        <v>1117.7659000000001</v>
+        <v>1069.413</v>
       </c>
       <c r="E166" s="5">
-        <v>1117.7659000000001</v>
+        <v>1069.413</v>
       </c>
       <c r="F166" s="5">
         <v>0</v>
@@ -43095,16 +42416,16 @@
         <v>44721</v>
       </c>
       <c r="B167" s="5">
-        <v>1122.3475000000001</v>
+        <v>1073.7963999999999</v>
       </c>
       <c r="C167" s="5">
-        <v>1122.3475000000001</v>
+        <v>1073.7963999999999</v>
       </c>
       <c r="D167" s="5">
-        <v>1122.3475000000001</v>
+        <v>1073.7963999999999</v>
       </c>
       <c r="E167" s="5">
-        <v>1122.3475000000001</v>
+        <v>1073.7963999999999</v>
       </c>
       <c r="F167" s="5">
         <v>0</v>
@@ -43118,16 +42439,16 @@
         <v>44722</v>
       </c>
       <c r="B168" s="5">
-        <v>1125.4875</v>
+        <v>1076.8006</v>
       </c>
       <c r="C168" s="5">
-        <v>1125.4875</v>
+        <v>1076.8006</v>
       </c>
       <c r="D168" s="5">
-        <v>1125.4875</v>
+        <v>1076.8006</v>
       </c>
       <c r="E168" s="5">
-        <v>1125.4875</v>
+        <v>1076.8006</v>
       </c>
       <c r="F168" s="5">
         <v>0</v>
@@ -43141,16 +42462,16 @@
         <v>44725</v>
       </c>
       <c r="B169" s="5">
-        <v>1121.6578</v>
+        <v>1073.1365000000001</v>
       </c>
       <c r="C169" s="5">
-        <v>1121.6578</v>
+        <v>1073.1365000000001</v>
       </c>
       <c r="D169" s="5">
-        <v>1121.6578</v>
+        <v>1073.1365000000001</v>
       </c>
       <c r="E169" s="5">
-        <v>1121.6578</v>
+        <v>1073.1365000000001</v>
       </c>
       <c r="F169" s="5">
         <v>0</v>
@@ -43164,16 +42485,16 @@
         <v>44726</v>
       </c>
       <c r="B170" s="5">
-        <v>1124.7240999999999</v>
+        <v>1076.0700999999999</v>
       </c>
       <c r="C170" s="5">
-        <v>1124.7240999999999</v>
+        <v>1076.0700999999999</v>
       </c>
       <c r="D170" s="5">
-        <v>1124.7240999999999</v>
+        <v>1076.0700999999999</v>
       </c>
       <c r="E170" s="5">
-        <v>1124.7240999999999</v>
+        <v>1076.0700999999999</v>
       </c>
       <c r="F170" s="5">
         <v>0</v>
@@ -43187,16 +42508,16 @@
         <v>44727</v>
       </c>
       <c r="B171" s="5">
-        <v>1126.0768</v>
+        <v>1077.3643</v>
       </c>
       <c r="C171" s="5">
-        <v>1126.0768</v>
+        <v>1077.3643</v>
       </c>
       <c r="D171" s="5">
-        <v>1126.0768</v>
+        <v>1077.3643</v>
       </c>
       <c r="E171" s="5">
-        <v>1126.0768</v>
+        <v>1077.3643</v>
       </c>
       <c r="F171" s="5">
         <v>0</v>
@@ -43210,16 +42531,16 @@
         <v>44728</v>
       </c>
       <c r="B172" s="5">
-        <v>1124.4962</v>
+        <v>1075.8521000000001</v>
       </c>
       <c r="C172" s="5">
-        <v>1124.4962</v>
+        <v>1075.8521000000001</v>
       </c>
       <c r="D172" s="5">
-        <v>1124.4962</v>
+        <v>1075.8521000000001</v>
       </c>
       <c r="E172" s="5">
-        <v>1124.4962</v>
+        <v>1075.8521000000001</v>
       </c>
       <c r="F172" s="5">
         <v>0</v>
@@ -43233,16 +42554,16 @@
         <v>44729</v>
       </c>
       <c r="B173" s="5">
-        <v>1121.0686000000001</v>
+        <v>1072.5727999999999</v>
       </c>
       <c r="C173" s="5">
-        <v>1121.0686000000001</v>
+        <v>1072.5727999999999</v>
       </c>
       <c r="D173" s="5">
-        <v>1121.0686000000001</v>
+        <v>1072.5727999999999</v>
       </c>
       <c r="E173" s="5">
-        <v>1121.0686000000001</v>
+        <v>1072.5727999999999</v>
       </c>
       <c r="F173" s="5">
         <v>0</v>
@@ -43256,16 +42577,16 @@
         <v>44732</v>
       </c>
       <c r="B174" s="5">
-        <v>1111.3466000000001</v>
+        <v>1063.2714000000001</v>
       </c>
       <c r="C174" s="5">
-        <v>1111.3466000000001</v>
+        <v>1063.2714000000001</v>
       </c>
       <c r="D174" s="5">
-        <v>1111.3466000000001</v>
+        <v>1063.2714000000001</v>
       </c>
       <c r="E174" s="5">
-        <v>1111.3466000000001</v>
+        <v>1063.2714000000001</v>
       </c>
       <c r="F174" s="5">
         <v>0</v>
@@ -43279,16 +42600,16 @@
         <v>44733</v>
       </c>
       <c r="B175" s="5">
-        <v>1110.1393</v>
+        <v>1062.1162999999999</v>
       </c>
       <c r="C175" s="5">
-        <v>1110.1393</v>
+        <v>1062.1162999999999</v>
       </c>
       <c r="D175" s="5">
-        <v>1110.1393</v>
+        <v>1062.1162999999999</v>
       </c>
       <c r="E175" s="5">
-        <v>1110.1393</v>
+        <v>1062.1162999999999</v>
       </c>
       <c r="F175" s="5">
         <v>0</v>
@@ -43302,16 +42623,16 @@
         <v>44734</v>
       </c>
       <c r="B176" s="5">
-        <v>1109.9494</v>
+        <v>1061.9346</v>
       </c>
       <c r="C176" s="5">
-        <v>1109.9494</v>
+        <v>1061.9346</v>
       </c>
       <c r="D176" s="5">
-        <v>1109.9494</v>
+        <v>1061.9346</v>
       </c>
       <c r="E176" s="5">
-        <v>1109.9494</v>
+        <v>1061.9346</v>
       </c>
       <c r="F176" s="5">
         <v>0</v>
@@ -43325,16 +42646,16 @@
         <v>44735</v>
       </c>
       <c r="B177" s="5">
-        <v>1115.8073999999999</v>
+        <v>1067.5391999999999</v>
       </c>
       <c r="C177" s="5">
-        <v>1115.8073999999999</v>
+        <v>1067.5391999999999</v>
       </c>
       <c r="D177" s="5">
-        <v>1115.8073999999999</v>
+        <v>1067.5391999999999</v>
       </c>
       <c r="E177" s="5">
-        <v>1115.8073999999999</v>
+        <v>1067.5391999999999</v>
       </c>
       <c r="F177" s="5">
         <v>0</v>
@@ -43348,16 +42669,16 @@
         <v>44736</v>
       </c>
       <c r="B178" s="5">
-        <v>1132.2336</v>
+        <v>1083.2547999999999</v>
       </c>
       <c r="C178" s="5">
-        <v>1132.2336</v>
+        <v>1083.2547999999999</v>
       </c>
       <c r="D178" s="5">
-        <v>1132.2336</v>
+        <v>1083.2547999999999</v>
       </c>
       <c r="E178" s="5">
-        <v>1132.2336</v>
+        <v>1083.2547999999999</v>
       </c>
       <c r="F178" s="5">
         <v>0</v>
@@ -43371,16 +42692,16 @@
         <v>44739</v>
       </c>
       <c r="B179" s="5">
-        <v>1139.0471</v>
+        <v>1089.7736</v>
       </c>
       <c r="C179" s="5">
-        <v>1139.0471</v>
+        <v>1089.7736</v>
       </c>
       <c r="D179" s="5">
-        <v>1139.0471</v>
+        <v>1089.7736</v>
       </c>
       <c r="E179" s="5">
-        <v>1139.0471</v>
+        <v>1089.7736</v>
       </c>
       <c r="F179" s="5">
         <v>0</v>
@@ -43394,16 +42715,16 @@
         <v>44740</v>
       </c>
       <c r="B180" s="5">
-        <v>1144.2603999999999</v>
+        <v>1094.7614000000001</v>
       </c>
       <c r="C180" s="5">
-        <v>1144.2603999999999</v>
+        <v>1094.7614000000001</v>
       </c>
       <c r="D180" s="5">
-        <v>1144.2603999999999</v>
+        <v>1094.7614000000001</v>
       </c>
       <c r="E180" s="5">
-        <v>1144.2603999999999</v>
+        <v>1094.7614000000001</v>
       </c>
       <c r="F180" s="5">
         <v>0</v>
@@ -43417,16 +42738,16 @@
         <v>44741</v>
       </c>
       <c r="B181" s="5">
-        <v>1141.3801000000001</v>
+        <v>1092.0056999999999</v>
       </c>
       <c r="C181" s="5">
-        <v>1141.3801000000001</v>
+        <v>1092.0056999999999</v>
       </c>
       <c r="D181" s="5">
-        <v>1141.3801000000001</v>
+        <v>1092.0056999999999</v>
       </c>
       <c r="E181" s="5">
-        <v>1141.3801000000001</v>
+        <v>1092.0056999999999</v>
       </c>
       <c r="F181" s="5">
         <v>0</v>
@@ -43440,16 +42761,16 @@
         <v>44742</v>
       </c>
       <c r="B182" s="5">
-        <v>1147.4338</v>
+        <v>1097.7974999999999</v>
       </c>
       <c r="C182" s="5">
-        <v>1147.4338</v>
+        <v>1097.7974999999999</v>
       </c>
       <c r="D182" s="5">
-        <v>1147.4338</v>
+        <v>1097.7974999999999</v>
       </c>
       <c r="E182" s="5">
-        <v>1147.4338</v>
+        <v>1097.7974999999999</v>
       </c>
       <c r="F182" s="5">
         <v>0</v>
@@ -43463,16 +42784,16 @@
         <v>44743</v>
       </c>
       <c r="B183" s="5">
-        <v>1147.5721000000001</v>
+        <v>1097.9297999999999</v>
       </c>
       <c r="C183" s="5">
-        <v>1147.5721000000001</v>
+        <v>1097.9297999999999</v>
       </c>
       <c r="D183" s="5">
-        <v>1147.5721000000001</v>
+        <v>1097.9297999999999</v>
       </c>
       <c r="E183" s="5">
-        <v>1147.5721000000001</v>
+        <v>1097.9297999999999</v>
       </c>
       <c r="F183" s="5">
         <v>0</v>
@@ -43486,16 +42807,16 @@
         <v>44746</v>
       </c>
       <c r="B184" s="5">
-        <v>1151.0525</v>
+        <v>1101.2596000000001</v>
       </c>
       <c r="C184" s="5">
-        <v>1151.0525</v>
+        <v>1101.2596000000001</v>
       </c>
       <c r="D184" s="5">
-        <v>1151.0525</v>
+        <v>1101.2596000000001</v>
       </c>
       <c r="E184" s="5">
-        <v>1151.0525</v>
+        <v>1101.2596000000001</v>
       </c>
       <c r="F184" s="5">
         <v>0</v>
@@ -43509,16 +42830,16 @@
         <v>44747</v>
       </c>
       <c r="B185" s="5">
-        <v>1145.8400999999999</v>
+        <v>1096.2727</v>
       </c>
       <c r="C185" s="5">
-        <v>1145.8400999999999</v>
+        <v>1096.2727</v>
       </c>
       <c r="D185" s="5">
-        <v>1145.8400999999999</v>
+        <v>1096.2727</v>
       </c>
       <c r="E185" s="5">
-        <v>1145.8400999999999</v>
+        <v>1096.2727</v>
       </c>
       <c r="F185" s="5">
         <v>0</v>
@@ -43532,16 +42853,16 @@
         <v>44748</v>
       </c>
       <c r="B186" s="5">
-        <v>1144.1767</v>
+        <v>1094.6813</v>
       </c>
       <c r="C186" s="5">
-        <v>1144.1767</v>
+        <v>1094.6813</v>
       </c>
       <c r="D186" s="5">
-        <v>1144.1767</v>
+        <v>1094.6813</v>
       </c>
       <c r="E186" s="5">
-        <v>1144.1767</v>
+        <v>1094.6813</v>
       </c>
       <c r="F186" s="5">
         <v>0</v>
@@ -43555,16 +42876,16 @@
         <v>44749</v>
       </c>
       <c r="B187" s="5">
-        <v>1143.3551</v>
+        <v>1093.8951999999999</v>
       </c>
       <c r="C187" s="5">
-        <v>1143.3551</v>
+        <v>1093.8951999999999</v>
       </c>
       <c r="D187" s="5">
-        <v>1143.3551</v>
+        <v>1093.8951999999999</v>
       </c>
       <c r="E187" s="5">
-        <v>1143.3551</v>
+        <v>1093.8951999999999</v>
       </c>
       <c r="F187" s="5">
         <v>0</v>
@@ -43578,16 +42899,16 @@
         <v>44750</v>
       </c>
       <c r="B188" s="5">
-        <v>1147.6415</v>
+        <v>1097.9962</v>
       </c>
       <c r="C188" s="5">
-        <v>1147.6415</v>
+        <v>1097.9962</v>
       </c>
       <c r="D188" s="5">
-        <v>1147.6415</v>
+        <v>1097.9962</v>
       </c>
       <c r="E188" s="5">
-        <v>1147.6415</v>
+        <v>1097.9962</v>
       </c>
       <c r="F188" s="5">
         <v>0</v>
@@ -43601,16 +42922,16 @@
         <v>44753</v>
       </c>
       <c r="B189" s="5">
-        <v>1145.3651</v>
+        <v>1095.8181999999999</v>
       </c>
       <c r="C189" s="5">
-        <v>1145.3651</v>
+        <v>1095.8181999999999</v>
       </c>
       <c r="D189" s="5">
-        <v>1145.3651</v>
+        <v>1095.8181999999999</v>
       </c>
       <c r="E189" s="5">
-        <v>1145.3651</v>
+        <v>1095.8181999999999</v>
       </c>
       <c r="F189" s="5">
         <v>0</v>
@@ -43624,16 +42945,16 @@
         <v>44754</v>
       </c>
       <c r="B190" s="5">
-        <v>1149.2759000000001</v>
+        <v>1099.5599</v>
       </c>
       <c r="C190" s="5">
-        <v>1149.2759000000001</v>
+        <v>1099.5599</v>
       </c>
       <c r="D190" s="5">
-        <v>1149.2759000000001</v>
+        <v>1099.5599</v>
       </c>
       <c r="E190" s="5">
-        <v>1149.2759000000001</v>
+        <v>1099.5599</v>
       </c>
       <c r="F190" s="5">
         <v>0</v>
@@ -43647,16 +42968,16 @@
         <v>44755</v>
       </c>
       <c r="B191" s="5">
-        <v>1146.8507999999999</v>
+        <v>1097.2397000000001</v>
       </c>
       <c r="C191" s="5">
-        <v>1146.8507999999999</v>
+        <v>1097.2397000000001</v>
       </c>
       <c r="D191" s="5">
-        <v>1146.8507999999999</v>
+        <v>1097.2397000000001</v>
       </c>
       <c r="E191" s="5">
-        <v>1146.8507999999999</v>
+        <v>1097.2397000000001</v>
       </c>
       <c r="F191" s="5">
         <v>0</v>
@@ -43670,16 +42991,16 @@
         <v>44756</v>
       </c>
       <c r="B192" s="5">
-        <v>1152.4566</v>
+        <v>1102.6030000000001</v>
       </c>
       <c r="C192" s="5">
-        <v>1152.4566</v>
+        <v>1102.6030000000001</v>
       </c>
       <c r="D192" s="5">
-        <v>1152.4566</v>
+        <v>1102.6030000000001</v>
       </c>
       <c r="E192" s="5">
-        <v>1152.4566</v>
+        <v>1102.6030000000001</v>
       </c>
       <c r="F192" s="5">
         <v>0</v>
@@ -43693,16 +43014,16 @@
         <v>44757</v>
       </c>
       <c r="B193" s="5">
-        <v>1154.4193</v>
+        <v>1104.4808</v>
       </c>
       <c r="C193" s="5">
-        <v>1154.4193</v>
+        <v>1104.4808</v>
       </c>
       <c r="D193" s="5">
-        <v>1154.4193</v>
+        <v>1104.4808</v>
       </c>
       <c r="E193" s="5">
-        <v>1154.4193</v>
+        <v>1104.4808</v>
       </c>
       <c r="F193" s="5">
         <v>0</v>
@@ -43716,16 +43037,16 @@
         <v>44760</v>
       </c>
       <c r="B194" s="5">
-        <v>1159.6695999999999</v>
+        <v>1109.5039999999999</v>
       </c>
       <c r="C194" s="5">
-        <v>1159.6695999999999</v>
+        <v>1109.5039999999999</v>
       </c>
       <c r="D194" s="5">
-        <v>1159.6695999999999</v>
+        <v>1109.5039999999999</v>
       </c>
       <c r="E194" s="5">
-        <v>1159.6695999999999</v>
+        <v>1109.5039999999999</v>
       </c>
       <c r="F194" s="5">
         <v>0</v>
@@ -43739,16 +43060,16 @@
         <v>44761</v>
       </c>
       <c r="B195" s="5">
-        <v>1163.3852999999999</v>
+        <v>1113.0589</v>
       </c>
       <c r="C195" s="5">
-        <v>1163.3852999999999</v>
+        <v>1113.0589</v>
       </c>
       <c r="D195" s="5">
-        <v>1163.3852999999999</v>
+        <v>1113.0589</v>
       </c>
       <c r="E195" s="5">
-        <v>1163.3852999999999</v>
+        <v>1113.0589</v>
       </c>
       <c r="F195" s="5">
         <v>0</v>
@@ -43762,16 +43083,16 @@
         <v>44762</v>
       </c>
       <c r="B196" s="5">
-        <v>1166.5211999999999</v>
+        <v>1116.0591999999999</v>
       </c>
       <c r="C196" s="5">
-        <v>1166.5211999999999</v>
+        <v>1116.0591999999999</v>
       </c>
       <c r="D196" s="5">
-        <v>1166.5211999999999</v>
+        <v>1116.0591999999999</v>
       </c>
       <c r="E196" s="5">
-        <v>1166.5211999999999</v>
+        <v>1116.0591999999999</v>
       </c>
       <c r="F196" s="5">
         <v>0</v>
@@ -43785,16 +43106,16 @@
         <v>44763</v>
       </c>
       <c r="B197" s="5">
-        <v>1165.6614999999999</v>
+        <v>1114.1657</v>
       </c>
       <c r="C197" s="5">
-        <v>1165.6614999999999</v>
+        <v>1114.1657</v>
       </c>
       <c r="D197" s="5">
-        <v>1165.6614999999999</v>
+        <v>1114.1657</v>
       </c>
       <c r="E197" s="5">
-        <v>1165.6614999999999</v>
+        <v>1114.1657</v>
       </c>
       <c r="F197" s="5">
         <v>0</v>
@@ -43808,16 +43129,16 @@
         <v>44764</v>
       </c>
       <c r="B198" s="5">
-        <v>1167.0467000000001</v>
+        <v>1115.4897000000001</v>
       </c>
       <c r="C198" s="5">
-        <v>1167.0467000000001</v>
+        <v>1115.4897000000001</v>
       </c>
       <c r="D198" s="5">
-        <v>1167.0467000000001</v>
+        <v>1115.4897000000001</v>
       </c>
       <c r="E198" s="5">
-        <v>1167.0467000000001</v>
+        <v>1115.4897000000001</v>
       </c>
       <c r="F198" s="5">
         <v>0</v>
@@ -43831,16 +43152,16 @@
         <v>44767</v>
       </c>
       <c r="B199" s="5">
-        <v>1161.0217</v>
+        <v>1109.7308</v>
       </c>
       <c r="C199" s="5">
-        <v>1161.0217</v>
+        <v>1109.7308</v>
       </c>
       <c r="D199" s="5">
-        <v>1161.0217</v>
+        <v>1109.7308</v>
       </c>
       <c r="E199" s="5">
-        <v>1161.0217</v>
+        <v>1109.7308</v>
       </c>
       <c r="F199" s="5">
         <v>0</v>
@@ -43854,16 +43175,16 @@
         <v>44768</v>
       </c>
       <c r="B200" s="5">
-        <v>1157.4432999999999</v>
+        <v>1106.3104000000001</v>
       </c>
       <c r="C200" s="5">
-        <v>1157.4432999999999</v>
+        <v>1106.3104000000001</v>
       </c>
       <c r="D200" s="5">
-        <v>1157.4432999999999</v>
+        <v>1106.3104000000001</v>
       </c>
       <c r="E200" s="5">
-        <v>1157.4432999999999</v>
+        <v>1106.3104000000001</v>
       </c>
       <c r="F200" s="5">
         <v>0</v>
@@ -43877,16 +43198,16 @@
         <v>44769</v>
       </c>
       <c r="B201" s="5">
-        <v>1155.1467</v>
+        <v>1104.1152999999999</v>
       </c>
       <c r="C201" s="5">
-        <v>1155.1467</v>
+        <v>1104.1152999999999</v>
       </c>
       <c r="D201" s="5">
-        <v>1155.1467</v>
+        <v>1104.1152999999999</v>
       </c>
       <c r="E201" s="5">
-        <v>1155.1467</v>
+        <v>1104.1152999999999</v>
       </c>
       <c r="F201" s="5">
         <v>0</v>
@@ -43900,16 +43221,16 @@
         <v>44770</v>
       </c>
       <c r="B202" s="5">
-        <v>1159.8315</v>
+        <v>1108.5931</v>
       </c>
       <c r="C202" s="5">
-        <v>1159.8315</v>
+        <v>1108.5931</v>
       </c>
       <c r="D202" s="5">
-        <v>1159.8315</v>
+        <v>1108.5931</v>
       </c>
       <c r="E202" s="5">
-        <v>1159.8315</v>
+        <v>1108.5931</v>
       </c>
       <c r="F202" s="5">
         <v>0</v>
@@ -43923,16 +43244,16 @@
         <v>44771</v>
       </c>
       <c r="B203" s="5">
-        <v>1163.8996</v>
+        <v>1112.4815000000001</v>
       </c>
       <c r="C203" s="5">
-        <v>1163.8996</v>
+        <v>1112.4815000000001</v>
       </c>
       <c r="D203" s="5">
-        <v>1163.8996</v>
+        <v>1112.4815000000001</v>
       </c>
       <c r="E203" s="5">
-        <v>1163.8996</v>
+        <v>1112.4815000000001</v>
       </c>
       <c r="F203" s="5">
         <v>0</v>
@@ -43946,16 +43267,16 @@
         <v>44774</v>
       </c>
       <c r="B204" s="5">
-        <v>1166.6162999999999</v>
+        <v>1115.0781999999999</v>
       </c>
       <c r="C204" s="5">
-        <v>1166.6162999999999</v>
+        <v>1115.0781999999999</v>
       </c>
       <c r="D204" s="5">
-        <v>1166.6162999999999</v>
+        <v>1115.0781999999999</v>
       </c>
       <c r="E204" s="5">
-        <v>1166.6162999999999</v>
+        <v>1115.0781999999999</v>
       </c>
       <c r="F204" s="5">
         <v>0</v>
@@ -43969,16 +43290,16 @@
         <v>44775</v>
       </c>
       <c r="B205" s="5">
-        <v>1164.2208000000001</v>
+        <v>1112.7885000000001</v>
       </c>
       <c r="C205" s="5">
-        <v>1164.2208000000001</v>
+        <v>1112.7885000000001</v>
       </c>
       <c r="D205" s="5">
-        <v>1164.2208000000001</v>
+        <v>1112.7885000000001</v>
       </c>
       <c r="E205" s="5">
-        <v>1164.2208000000001</v>
+        <v>1112.7885000000001</v>
       </c>
       <c r="F205" s="5">
         <v>0</v>
@@ -43992,16 +43313,16 @@
         <v>44776</v>
       </c>
       <c r="B206" s="5">
-        <v>1165.029</v>
+        <v>1113.5610999999999</v>
       </c>
       <c r="C206" s="5">
-        <v>1165.029</v>
+        <v>1113.5610999999999</v>
       </c>
       <c r="D206" s="5">
-        <v>1165.029</v>
+        <v>1113.5610999999999</v>
       </c>
       <c r="E206" s="5">
-        <v>1165.029</v>
+        <v>1113.5610999999999</v>
       </c>
       <c r="F206" s="5">
         <v>0</v>
@@ -44015,16 +43336,16 @@
         <v>44777</v>
       </c>
       <c r="B207" s="5">
-        <v>1169.8512000000001</v>
+        <v>1118.1703</v>
       </c>
       <c r="C207" s="5">
-        <v>1169.8512000000001</v>
+        <v>1118.1703</v>
       </c>
       <c r="D207" s="5">
-        <v>1169.8512000000001</v>
+        <v>1118.1703</v>
       </c>
       <c r="E207" s="5">
-        <v>1169.8512000000001</v>
+        <v>1118.1703</v>
       </c>
       <c r="F207" s="5">
         <v>0</v>
@@ -44038,16 +43359,16 @@
         <v>44778</v>
       </c>
       <c r="B208" s="5">
-        <v>1168.0238999999999</v>
+        <v>1116.4237000000001</v>
       </c>
       <c r="C208" s="5">
-        <v>1168.0238999999999</v>
+        <v>1116.4237000000001</v>
       </c>
       <c r="D208" s="5">
-        <v>1168.0238999999999</v>
+        <v>1116.4237000000001</v>
       </c>
       <c r="E208" s="5">
-        <v>1168.0238999999999</v>
+        <v>1116.4237000000001</v>
       </c>
       <c r="F208" s="5">
         <v>0</v>
@@ -44061,16 +43382,16 @@
         <v>44781</v>
       </c>
       <c r="B209" s="5">
-        <v>1165.7747999999999</v>
+        <v>1114.2739999999999</v>
       </c>
       <c r="C209" s="5">
-        <v>1165.7747999999999</v>
+        <v>1114.2739999999999</v>
       </c>
       <c r="D209" s="5">
-        <v>1165.7747999999999</v>
+        <v>1114.2739999999999</v>
       </c>
       <c r="E209" s="5">
-        <v>1165.7747999999999</v>
+        <v>1114.2739999999999</v>
       </c>
       <c r="F209" s="5">
         <v>0</v>
@@ -44084,16 +43405,16 @@
         <v>44782</v>
       </c>
       <c r="B210" s="5">
-        <v>1160.2659000000001</v>
+        <v>1109.0083</v>
       </c>
       <c r="C210" s="5">
-        <v>1160.2659000000001</v>
+        <v>1109.0083</v>
       </c>
       <c r="D210" s="5">
-        <v>1160.2659000000001</v>
+        <v>1109.0083</v>
       </c>
       <c r="E210" s="5">
-        <v>1160.2659000000001</v>
+        <v>1109.0083</v>
       </c>
       <c r="F210" s="5">
         <v>0</v>
@@ -44107,16 +43428,16 @@
         <v>44783</v>
       </c>
       <c r="B211" s="5">
-        <v>1161.4185</v>
+        <v>1110.1101000000001</v>
       </c>
       <c r="C211" s="5">
-        <v>1161.4185</v>
+        <v>1110.1101000000001</v>
       </c>
       <c r="D211" s="5">
-        <v>1161.4185</v>
+        <v>1110.1101000000001</v>
       </c>
       <c r="E211" s="5">
-        <v>1161.4185</v>
+        <v>1110.1101000000001</v>
       </c>
       <c r="F211" s="5">
         <v>0</v>
@@ -44130,16 +43451,16 @@
         <v>44784</v>
       </c>
       <c r="B212" s="5">
-        <v>1160.421</v>
+        <v>1109.1566</v>
       </c>
       <c r="C212" s="5">
-        <v>1160.421</v>
+        <v>1109.1566</v>
       </c>
       <c r="D212" s="5">
-        <v>1160.421</v>
+        <v>1109.1566</v>
       </c>
       <c r="E212" s="5">
-        <v>1160.421</v>
+        <v>1109.1566</v>
       </c>
       <c r="F212" s="5">
         <v>0</v>
@@ -44153,16 +43474,16 @@
         <v>44785</v>
       </c>
       <c r="B213" s="5">
-        <v>1163.1434999999999</v>
+        <v>1111.7589</v>
       </c>
       <c r="C213" s="5">
-        <v>1163.1434999999999</v>
+        <v>1111.7589</v>
       </c>
       <c r="D213" s="5">
-        <v>1163.1434999999999</v>
+        <v>1111.7589</v>
       </c>
       <c r="E213" s="5">
-        <v>1163.1434999999999</v>
+        <v>1111.7589</v>
       </c>
       <c r="F213" s="5">
         <v>0</v>
@@ -44176,16 +43497,16 @@
         <v>44788</v>
       </c>
       <c r="B214" s="5">
-        <v>1168.3516999999999</v>
+        <v>1116.7370000000001</v>
       </c>
       <c r="C214" s="5">
-        <v>1168.3516999999999</v>
+        <v>1116.7370000000001</v>
       </c>
       <c r="D214" s="5">
-        <v>1168.3516999999999</v>
+        <v>1116.7370000000001</v>
       </c>
       <c r="E214" s="5">
-        <v>1168.3516999999999</v>
+        <v>1116.7370000000001</v>
       </c>
       <c r="F214" s="5">
         <v>0</v>
@@ -44199,16 +43520,16 @@
         <v>44789</v>
       </c>
       <c r="B215" s="5">
-        <v>1173.7472</v>
+        <v>1121.8941</v>
       </c>
       <c r="C215" s="5">
-        <v>1173.7472</v>
+        <v>1121.8941</v>
       </c>
       <c r="D215" s="5">
-        <v>1173.7472</v>
+        <v>1121.8941</v>
       </c>
       <c r="E215" s="5">
-        <v>1173.7472</v>
+        <v>1121.8941</v>
       </c>
       <c r="F215" s="5">
         <v>0</v>
@@ -44222,16 +43543,16 @@
         <v>44790</v>
       </c>
       <c r="B216" s="5">
-        <v>1174.4671000000001</v>
+        <v>1122.5823</v>
       </c>
       <c r="C216" s="5">
-        <v>1174.4671000000001</v>
+        <v>1122.5823</v>
       </c>
       <c r="D216" s="5">
-        <v>1174.4671000000001</v>
+        <v>1122.5823</v>
       </c>
       <c r="E216" s="5">
-        <v>1174.4671000000001</v>
+        <v>1122.5823</v>
       </c>
       <c r="F216" s="5">
         <v>0</v>
@@ -44245,16 +43566,16 @@
         <v>44791</v>
       </c>
       <c r="B217" s="5">
-        <v>1179.0895</v>
+        <v>1127.0003999999999</v>
       </c>
       <c r="C217" s="5">
-        <v>1179.0895</v>
+        <v>1127.0003999999999</v>
       </c>
       <c r="D217" s="5">
-        <v>1179.0895</v>
+        <v>1127.0003999999999</v>
       </c>
       <c r="E217" s="5">
-        <v>1179.0895</v>
+        <v>1127.0003999999999</v>
       </c>
       <c r="F217" s="5">
         <v>0</v>
@@ -44268,16 +43589,16 @@
         <v>44792</v>
       </c>
       <c r="B218" s="5">
-        <v>1195.6876</v>
+        <v>1142.8652999999999</v>
       </c>
       <c r="C218" s="5">
-        <v>1195.6876</v>
+        <v>1142.8652999999999</v>
       </c>
       <c r="D218" s="5">
-        <v>1195.6876</v>
+        <v>1142.8652999999999</v>
       </c>
       <c r="E218" s="5">
-        <v>1195.6876</v>
+        <v>1142.8652999999999</v>
       </c>
       <c r="F218" s="5">
         <v>0</v>
@@ -44291,16 +43612,16 @@
         <v>44795</v>
       </c>
       <c r="B219" s="5">
-        <v>1190.9819</v>
+        <v>1138.3675000000001</v>
       </c>
       <c r="C219" s="5">
-        <v>1190.9819</v>
+        <v>1138.3675000000001</v>
       </c>
       <c r="D219" s="5">
-        <v>1190.9819</v>
+        <v>1138.3675000000001</v>
       </c>
       <c r="E219" s="5">
-        <v>1190.9819</v>
+        <v>1138.3675000000001</v>
       </c>
       <c r="F219" s="5">
         <v>0</v>
@@ -44314,16 +43635,16 @@
         <v>44796</v>
       </c>
       <c r="B220" s="5">
-        <v>1193.0286000000001</v>
+        <v>1140.3236999999999</v>
       </c>
       <c r="C220" s="5">
-        <v>1193.0286000000001</v>
+        <v>1140.3236999999999</v>
       </c>
       <c r="D220" s="5">
-        <v>1193.0286000000001</v>
+        <v>1140.3236999999999</v>
       </c>
       <c r="E220" s="5">
-        <v>1193.0286000000001</v>
+        <v>1140.3236999999999</v>
       </c>
       <c r="F220" s="5">
         <v>0</v>
@@ -44337,16 +43658,16 @@
         <v>44797</v>
       </c>
       <c r="B221" s="5">
-        <v>1185.7733000000001</v>
+        <v>1133.3888999999999</v>
       </c>
       <c r="C221" s="5">
-        <v>1185.7733000000001</v>
+        <v>1133.3888999999999</v>
       </c>
       <c r="D221" s="5">
-        <v>1185.7733000000001</v>
+        <v>1133.3888999999999</v>
       </c>
       <c r="E221" s="5">
-        <v>1185.7733000000001</v>
+        <v>1133.3888999999999</v>
       </c>
       <c r="F221" s="5">
         <v>0</v>
@@ -44360,16 +43681,16 @@
         <v>44798</v>
       </c>
       <c r="B222" s="5">
-        <v>1191.2062000000001</v>
+        <v>1138.5817999999999</v>
       </c>
       <c r="C222" s="5">
-        <v>1191.2062000000001</v>
+        <v>1138.5817999999999</v>
       </c>
       <c r="D222" s="5">
-        <v>1191.2062000000001</v>
+        <v>1138.5817999999999</v>
       </c>
       <c r="E222" s="5">
-        <v>1191.2062000000001</v>
+        <v>1138.5817999999999</v>
       </c>
       <c r="F222" s="5">
         <v>0</v>
@@ -44383,16 +43704,16 @@
         <v>44799</v>
       </c>
       <c r="B223" s="5">
-        <v>1188.4176</v>
+        <v>1135.9164000000001</v>
       </c>
       <c r="C223" s="5">
-        <v>1188.4176</v>
+        <v>1135.9164000000001</v>
       </c>
       <c r="D223" s="5">
-        <v>1188.4176</v>
+        <v>1135.9164000000001</v>
       </c>
       <c r="E223" s="5">
-        <v>1188.4176</v>
+        <v>1135.9164000000001</v>
       </c>
       <c r="F223" s="5">
         <v>0</v>
@@ -44406,16 +43727,16 @@
         <v>44802</v>
       </c>
       <c r="B224" s="5">
-        <v>1182.777</v>
+        <v>1130.5250000000001</v>
       </c>
       <c r="C224" s="5">
-        <v>1182.777</v>
+        <v>1130.5250000000001</v>
       </c>
       <c r="D224" s="5">
-        <v>1182.777</v>
+        <v>1130.5250000000001</v>
       </c>
       <c r="E224" s="5">
-        <v>1182.777</v>
+        <v>1130.5250000000001</v>
       </c>
       <c r="F224" s="5">
         <v>0</v>
@@ -44429,16 +43750,16 @@
         <v>44803</v>
       </c>
       <c r="B225" s="5">
-        <v>1186.7321999999999</v>
+        <v>1134.3054999999999</v>
       </c>
       <c r="C225" s="5">
-        <v>1186.7321999999999</v>
+        <v>1134.3054999999999</v>
       </c>
       <c r="D225" s="5">
-        <v>1186.7321999999999</v>
+        <v>1134.3054999999999</v>
       </c>
       <c r="E225" s="5">
-        <v>1186.7321999999999</v>
+        <v>1134.3054999999999</v>
       </c>
       <c r="F225" s="5">
         <v>0</v>
@@ -44452,16 +43773,16 @@
         <v>44804</v>
       </c>
       <c r="B226" s="5">
-        <v>1191.7402999999999</v>
+        <v>1139.0923</v>
       </c>
       <c r="C226" s="5">
-        <v>1191.7402999999999</v>
+        <v>1139.0923</v>
       </c>
       <c r="D226" s="5">
-        <v>1191.7402999999999</v>
+        <v>1139.0923</v>
       </c>
       <c r="E226" s="5">
-        <v>1191.7402999999999</v>
+        <v>1139.0923</v>
       </c>
       <c r="F226" s="5">
         <v>0</v>
@@ -44475,16 +43796,16 @@
         <v>44805</v>
       </c>
       <c r="B227" s="5">
-        <v>1187.6835000000001</v>
+        <v>1135.2147</v>
       </c>
       <c r="C227" s="5">
-        <v>1187.6835000000001</v>
+        <v>1135.2147</v>
       </c>
       <c r="D227" s="5">
-        <v>1187.6835000000001</v>
+        <v>1135.2147</v>
       </c>
       <c r="E227" s="5">
-        <v>1187.6835000000001</v>
+        <v>1135.2147</v>
       </c>
       <c r="F227" s="5">
         <v>0</v>
@@ -44498,16 +43819,16 @@
         <v>44806</v>
       </c>
       <c r="B228" s="5">
-        <v>1188.9481000000001</v>
+        <v>1136.4233999999999</v>
       </c>
       <c r="C228" s="5">
-        <v>1188.9481000000001</v>
+        <v>1136.4233999999999</v>
       </c>
       <c r="D228" s="5">
-        <v>1188.9481000000001</v>
+        <v>1136.4233999999999</v>
       </c>
       <c r="E228" s="5">
-        <v>1188.9481000000001</v>
+        <v>1136.4233999999999</v>
       </c>
       <c r="F228" s="5">
         <v>0</v>
@@ -44521,16 +43842,16 @@
         <v>44809</v>
       </c>
       <c r="B229" s="5">
-        <v>1186.3641</v>
+        <v>1133.9537</v>
       </c>
       <c r="C229" s="5">
-        <v>1186.3641</v>
+        <v>1133.9537</v>
       </c>
       <c r="D229" s="5">
-        <v>1186.3641</v>
+        <v>1133.9537</v>
       </c>
       <c r="E229" s="5">
-        <v>1186.3641</v>
+        <v>1133.9537</v>
       </c>
       <c r="F229" s="5">
         <v>0</v>
@@ -44544,16 +43865,16 @@
         <v>44810</v>
       </c>
       <c r="B230" s="5">
-        <v>1188.3833</v>
+        <v>1135.8835999999999</v>
       </c>
       <c r="C230" s="5">
-        <v>1188.3833</v>
+        <v>1135.8835999999999</v>
       </c>
       <c r="D230" s="5">
-        <v>1188.3833</v>
+        <v>1135.8835999999999</v>
       </c>
       <c r="E230" s="5">
-        <v>1188.3833</v>
+        <v>1135.8835999999999</v>
       </c>
       <c r="F230" s="5">
         <v>0</v>
@@ -44567,16 +43888,16 @@
         <v>44811</v>
       </c>
       <c r="B231" s="5">
-        <v>1190.8326</v>
+        <v>1138.2247</v>
       </c>
       <c r="C231" s="5">
-        <v>1190.8326</v>
+        <v>1138.2247</v>
       </c>
       <c r="D231" s="5">
-        <v>1190.8326</v>
+        <v>1138.2247</v>
       </c>
       <c r="E231" s="5">
-        <v>1190.8326</v>
+        <v>1138.2247</v>
       </c>
       <c r="F231" s="5">
         <v>0</v>
@@ -44590,16 +43911,16 @@
         <v>44812</v>
       </c>
       <c r="B232" s="5">
-        <v>1195.9884</v>
+        <v>1143.1528000000001</v>
       </c>
       <c r="C232" s="5">
-        <v>1195.9884</v>
+        <v>1143.1528000000001</v>
       </c>
       <c r="D232" s="5">
-        <v>1195.9884</v>
+        <v>1143.1528000000001</v>
       </c>
       <c r="E232" s="5">
-        <v>1195.9884</v>
+        <v>1143.1528000000001</v>
       </c>
       <c r="F232" s="5">
         <v>0</v>
@@ -44613,16 +43934,16 @@
         <v>44813</v>
       </c>
       <c r="B233" s="5">
-        <v>1200.9242999999999</v>
+        <v>1147.8706</v>
       </c>
       <c r="C233" s="5">
-        <v>1200.9242999999999</v>
+        <v>1147.8706</v>
       </c>
       <c r="D233" s="5">
-        <v>1200.9242999999999</v>
+        <v>1147.8706</v>
       </c>
       <c r="E233" s="5">
-        <v>1200.9242999999999</v>
+        <v>1147.8706</v>
       </c>
       <c r="F233" s="5">
         <v>0</v>
@@ -44636,16 +43957,16 @@
         <v>44817</v>
       </c>
       <c r="B234" s="5">
-        <v>1197.6024</v>
+        <v>1144.6954000000001</v>
       </c>
       <c r="C234" s="5">
-        <v>1197.6024</v>
+        <v>1144.6954000000001</v>
       </c>
       <c r="D234" s="5">
-        <v>1197.6024</v>
+        <v>1144.6954000000001</v>
       </c>
       <c r="E234" s="5">
-        <v>1197.6024</v>
+        <v>1144.6954000000001</v>
       </c>
       <c r="F234" s="5">
         <v>0</v>
@@ -44659,16 +43980,16 @@
         <v>44818</v>
       </c>
       <c r="B235" s="5">
-        <v>1194.0818999999999</v>
+        <v>1141.3304000000001</v>
       </c>
       <c r="C235" s="5">
-        <v>1194.0818999999999</v>
+        <v>1141.3304000000001</v>
       </c>
       <c r="D235" s="5">
-        <v>1194.0818999999999</v>
+        <v>1141.3304000000001</v>
       </c>
       <c r="E235" s="5">
-        <v>1194.0818999999999</v>
+        <v>1141.3304000000001</v>
       </c>
       <c r="F235" s="5">
         <v>0</v>
@@ -44682,16 +44003,16 @@
         <v>44819</v>
       </c>
       <c r="B236" s="5">
-        <v>1192.3876</v>
+        <v>1139.711</v>
       </c>
       <c r="C236" s="5">
-        <v>1192.3876</v>
+        <v>1139.711</v>
       </c>
       <c r="D236" s="5">
-        <v>1192.3876</v>
+        <v>1139.711</v>
       </c>
       <c r="E236" s="5">
-        <v>1192.3876</v>
+        <v>1139.711</v>
       </c>
       <c r="F236" s="5">
         <v>0</v>
@@ -44705,16 +44026,16 @@
         <v>44820</v>
       </c>
       <c r="B237" s="5">
-        <v>1189.6253999999999</v>
+        <v>1137.0708999999999</v>
       </c>
       <c r="C237" s="5">
-        <v>1189.6253999999999</v>
+        <v>1137.0708999999999</v>
       </c>
       <c r="D237" s="5">
-        <v>1189.6253999999999</v>
+        <v>1137.0708999999999</v>
       </c>
       <c r="E237" s="5">
-        <v>1189.6253999999999</v>
+        <v>1137.0708999999999</v>
       </c>
       <c r="F237" s="5">
         <v>0</v>
@@ -44728,16 +44049,16 @@
         <v>44823</v>
       </c>
       <c r="B238" s="5">
-        <v>1188.1415999999999</v>
+        <v>1135.6525999999999</v>
       </c>
       <c r="C238" s="5">
-        <v>1188.1415999999999</v>
+        <v>1135.6525999999999</v>
       </c>
       <c r="D238" s="5">
-        <v>1188.1415999999999</v>
+        <v>1135.6525999999999</v>
       </c>
       <c r="E238" s="5">
-        <v>1188.1415999999999</v>
+        <v>1135.6525999999999</v>
       </c>
       <c r="F238" s="5">
         <v>288593.46000000002</v>
@@ -44751,16 +44072,16 @@
         <v>44824</v>
       </c>
       <c r="B239" s="5">
-        <v>1186.7402999999999</v>
+        <v>1134.3132000000001</v>
       </c>
       <c r="C239" s="5">
-        <v>1186.7402999999999</v>
+        <v>1134.3132000000001</v>
       </c>
       <c r="D239" s="5">
-        <v>1186.7402999999999</v>
+        <v>1134.3132000000001</v>
       </c>
       <c r="E239" s="5">
-        <v>1186.7402999999999</v>
+        <v>1134.3132000000001</v>
       </c>
       <c r="F239" s="5">
         <v>254838.41</v>
@@ -44774,16 +44095,16 @@
         <v>44825</v>
       </c>
       <c r="B240" s="5">
-        <v>1189.2075</v>
+        <v>1135.3873000000001</v>
       </c>
       <c r="C240" s="5">
-        <v>1189.2075</v>
+        <v>1135.3873000000001</v>
       </c>
       <c r="D240" s="5">
-        <v>1189.2075</v>
+        <v>1135.3873000000001</v>
       </c>
       <c r="E240" s="5">
-        <v>1189.2075</v>
+        <v>1135.3873000000001</v>
       </c>
       <c r="F240" s="5">
         <v>277711.92</v>
@@ -44797,16 +44118,16 @@
         <v>44826</v>
       </c>
       <c r="B241" s="5">
-        <v>1192.8063999999999</v>
+        <v>1138.8233</v>
       </c>
       <c r="C241" s="5">
-        <v>1192.8063999999999</v>
+        <v>1138.8233</v>
       </c>
       <c r="D241" s="5">
-        <v>1192.8063999999999</v>
+        <v>1138.8233</v>
       </c>
       <c r="E241" s="5">
-        <v>1192.8063999999999</v>
+        <v>1138.8233</v>
       </c>
       <c r="F241" s="5">
         <v>295300.78999999998</v>
@@ -44820,16 +44141,16 @@
         <v>44827</v>
       </c>
       <c r="B242" s="5">
-        <v>1193.7112999999999</v>
+        <v>1139.6873000000001</v>
       </c>
       <c r="C242" s="5">
-        <v>1193.7112999999999</v>
+        <v>1139.6873000000001</v>
       </c>
       <c r="D242" s="5">
-        <v>1193.7112999999999</v>
+        <v>1139.6873000000001</v>
       </c>
       <c r="E242" s="5">
-        <v>1193.7112999999999</v>
+        <v>1139.6873000000001</v>
       </c>
       <c r="F242" s="5">
         <v>300603.28999999998</v>
@@ -44843,16 +44164,16 @@
         <v>44830</v>
       </c>
       <c r="B243" s="5">
-        <v>1190.8892000000001</v>
+        <v>1132.6999000000001</v>
       </c>
       <c r="C243" s="5">
-        <v>1190.8892000000001</v>
+        <v>1132.6999000000001</v>
       </c>
       <c r="D243" s="5">
-        <v>1190.8892000000001</v>
+        <v>1132.6999000000001</v>
       </c>
       <c r="E243" s="5">
-        <v>1190.8892000000001</v>
+        <v>1132.6999000000001</v>
       </c>
       <c r="F243" s="5">
         <v>306725.65000000002</v>
@@ -44866,16 +44187,16 @@
         <v>44831</v>
       </c>
       <c r="B244" s="5">
-        <v>1189.7242000000001</v>
+        <v>1130.7587000000001</v>
       </c>
       <c r="C244" s="5">
-        <v>1189.7242000000001</v>
+        <v>1130.7587000000001</v>
       </c>
       <c r="D244" s="5">
-        <v>1189.7242000000001</v>
+        <v>1130.7587000000001</v>
       </c>
       <c r="E244" s="5">
-        <v>1189.7242000000001</v>
+        <v>1130.7587000000001</v>
       </c>
       <c r="F244" s="5">
         <v>364414.66</v>
@@ -44889,16 +44210,16 @@
         <v>44832</v>
       </c>
       <c r="B245" s="5">
-        <v>1199.9378999999999</v>
+        <v>1139.7929999999999</v>
       </c>
       <c r="C245" s="5">
-        <v>1199.9378999999999</v>
+        <v>1139.7929999999999</v>
       </c>
       <c r="D245" s="5">
-        <v>1199.9378999999999</v>
+        <v>1139.7929999999999</v>
       </c>
       <c r="E245" s="5">
-        <v>1199.9378999999999</v>
+        <v>1139.7929999999999</v>
       </c>
       <c r="F245" s="5">
         <v>754191.76</v>
@@ -44912,16 +44233,16 @@
         <v>44833</v>
       </c>
       <c r="B246" s="5">
-        <v>1191.0332000000001</v>
+        <v>1131.3345999999999</v>
       </c>
       <c r="C246" s="5">
-        <v>1191.0332000000001</v>
+        <v>1131.3345999999999</v>
       </c>
       <c r="D246" s="5">
-        <v>1191.0332000000001</v>
+        <v>1131.3345999999999</v>
       </c>
       <c r="E246" s="5">
-        <v>1191.0332000000001</v>
+        <v>1131.3345999999999</v>
       </c>
       <c r="F246" s="5">
         <v>529734</v>
@@ -44935,16 +44256,16 @@
         <v>44834</v>
       </c>
       <c r="B247" s="5">
-        <v>1187.1777999999999</v>
+        <v>1127.6724999999999</v>
       </c>
       <c r="C247" s="5">
-        <v>1187.1777999999999</v>
+        <v>1127.6724999999999</v>
       </c>
       <c r="D247" s="5">
-        <v>1187.1777999999999</v>
+        <v>1127.6724999999999</v>
       </c>
       <c r="E247" s="5">
-        <v>1187.1777999999999</v>
+        <v>1127.6724999999999</v>
       </c>
       <c r="F247" s="5">
         <v>397263.64</v>
@@ -44958,16 +44279,16 @@
         <v>44844</v>
       </c>
       <c r="B248" s="5">
-        <v>1174.9448</v>
+        <v>1116.0526</v>
       </c>
       <c r="C248" s="5">
-        <v>1174.9448</v>
+        <v>1116.0526</v>
       </c>
       <c r="D248" s="5">
-        <v>1174.9448</v>
+        <v>1116.0526</v>
       </c>
       <c r="E248" s="5">
-        <v>1174.9448</v>
+        <v>1116.0526</v>
       </c>
       <c r="F248" s="5">
         <v>407760.56</v>
@@ -44981,16 +44302,16 @@
         <v>44845</v>
       </c>
       <c r="B249" s="5">
-        <v>1170.8254999999999</v>
+        <v>1112.1397999999999</v>
       </c>
       <c r="C249" s="5">
-        <v>1170.8254999999999</v>
+        <v>1112.1397999999999</v>
       </c>
       <c r="D249" s="5">
-        <v>1170.8254999999999</v>
+        <v>1112.1397999999999</v>
       </c>
       <c r="E249" s="5">
-        <v>1170.8254999999999</v>
+        <v>1112.1397999999999</v>
       </c>
       <c r="F249" s="5">
         <v>457584.39</v>
@@ -45004,16 +44325,16 @@
         <v>44846</v>
       </c>
       <c r="B250" s="5">
-        <v>1172.1419000000001</v>
+        <v>1111.9713999999999</v>
       </c>
       <c r="C250" s="5">
-        <v>1172.1419000000001</v>
+        <v>1111.9713999999999</v>
       </c>
       <c r="D250" s="5">
-        <v>1172.1419000000001</v>
+        <v>1111.9713999999999</v>
       </c>
       <c r="E250" s="5">
-        <v>1172.1419000000001</v>
+        <v>1111.9713999999999</v>
       </c>
       <c r="F250" s="5">
         <v>303413.08</v>
@@ -45027,16 +44348,16 @@
         <v>44847</v>
       </c>
       <c r="B251" s="5">
-        <v>1175.7813000000001</v>
+        <v>1115.4239</v>
       </c>
       <c r="C251" s="5">
-        <v>1175.7813000000001</v>
+        <v>1115.4239</v>
       </c>
       <c r="D251" s="5">
-        <v>1175.7813000000001</v>
+        <v>1115.4239</v>
       </c>
       <c r="E251" s="5">
-        <v>1175.7813000000001</v>
+        <v>1115.4239</v>
       </c>
       <c r="F251" s="5">
         <v>277943.96999999997</v>
@@ -45050,16 +44371,16 @@
         <v>44848</v>
       </c>
       <c r="B252" s="5">
-        <v>1175.8580999999999</v>
+        <v>1115.4967999999999</v>
       </c>
       <c r="C252" s="5">
-        <v>1175.8580999999999</v>
+        <v>1115.4967999999999</v>
       </c>
       <c r="D252" s="5">
-        <v>1175.8580999999999</v>
+        <v>1115.4967999999999</v>
       </c>
       <c r="E252" s="5">
-        <v>1175.8580999999999</v>
+        <v>1115.4967999999999</v>
       </c>
       <c r="F252" s="5">
         <v>263701.89</v>
@@ -45073,16 +44394,16 @@
         <v>44851</v>
       </c>
       <c r="B253" s="5">
-        <v>1173.4476999999999</v>
+        <v>1113.2101</v>
       </c>
       <c r="C253" s="5">
-        <v>1173.4476999999999</v>
+        <v>1113.2101</v>
       </c>
       <c r="D253" s="5">
-        <v>1173.4476999999999</v>
+        <v>1113.2101</v>
       </c>
       <c r="E253" s="5">
-        <v>1173.4476999999999</v>
+        <v>1113.2101</v>
       </c>
       <c r="F253" s="5">
         <v>236154.05</v>
@@ -45096,16 +44417,16 @@
         <v>44852</v>
       </c>
       <c r="B254" s="5">
-        <v>1175.8179</v>
+        <v>1115.4585999999999</v>
       </c>
       <c r="C254" s="5">
-        <v>1175.8179</v>
+        <v>1115.4585999999999</v>
       </c>
       <c r="D254" s="5">
-        <v>1175.8179</v>
+        <v>1115.4585999999999</v>
       </c>
       <c r="E254" s="5">
-        <v>1175.8179</v>
+        <v>1115.4585999999999</v>
       </c>
       <c r="F254" s="5">
         <v>246022.44</v>
@@ -45119,16 +44440,16 @@
         <v>44853</v>
       </c>
       <c r="B255" s="5">
-        <v>1175.0907</v>
+        <v>1114.7688000000001</v>
       </c>
       <c r="C255" s="5">
-        <v>1175.0907</v>
+        <v>1114.7688000000001</v>
       </c>
       <c r="D255" s="5">
-        <v>1175.0907</v>
+        <v>1114.7688000000001</v>
       </c>
       <c r="E255" s="5">
-        <v>1175.0907</v>
+        <v>1114.7688000000001</v>
       </c>
       <c r="F255" s="5">
         <v>270243.63</v>
@@ -45142,16 +44463,16 @@
         <v>44854</v>
       </c>
       <c r="B256" s="5">
-        <v>1173.2449999999999</v>
+        <v>1113.0178000000001</v>
       </c>
       <c r="C256" s="5">
-        <v>1173.2449999999999</v>
+        <v>1113.0178000000001</v>
       </c>
       <c r="D256" s="5">
-        <v>1173.2449999999999</v>
+        <v>1113.0178000000001</v>
       </c>
       <c r="E256" s="5">
-        <v>1173.2449999999999</v>
+        <v>1113.0178000000001</v>
       </c>
       <c r="F256" s="5">
         <v>231391.67</v>
@@ -45165,16 +44486,16 @@
         <v>44855</v>
       </c>
       <c r="B257" s="5">
-        <v>1170.2261000000001</v>
+        <v>1110.1539</v>
       </c>
       <c r="C257" s="5">
-        <v>1170.2261000000001</v>
+        <v>1110.1539</v>
       </c>
       <c r="D257" s="5">
-        <v>1170.2261000000001</v>
+        <v>1110.1539</v>
       </c>
       <c r="E257" s="5">
-        <v>1170.2261000000001</v>
+        <v>1110.1539</v>
       </c>
       <c r="F257" s="5">
         <v>337204.7</v>
@@ -45188,16 +44509,16 @@
         <v>44858</v>
       </c>
       <c r="B258" s="5">
-        <v>1158.8869999999999</v>
+        <v>1099.3969</v>
       </c>
       <c r="C258" s="5">
-        <v>1158.8869999999999</v>
+        <v>1099.3969</v>
       </c>
       <c r="D258" s="5">
-        <v>1158.8869999999999</v>
+        <v>1099.3969</v>
       </c>
       <c r="E258" s="5">
-        <v>1158.8869999999999</v>
+        <v>1099.3969</v>
       </c>
       <c r="F258" s="5">
         <v>371835.56</v>
@@ -45211,16 +44532,16 @@
         <v>44859</v>
       </c>
       <c r="B259" s="5">
-        <v>1151.8344</v>
+        <v>1092.7063000000001</v>
       </c>
       <c r="C259" s="5">
-        <v>1151.8344</v>
+        <v>1092.7063000000001</v>
       </c>
       <c r="D259" s="5">
-        <v>1151.8344</v>
+        <v>1092.7063000000001</v>
       </c>
       <c r="E259" s="5">
-        <v>1151.8344</v>
+        <v>1092.7063000000001</v>
       </c>
       <c r="F259" s="5">
         <v>394348.89</v>
@@ -45234,16 +44555,16 @@
         <v>44860</v>
       </c>
       <c r="B260" s="5">
-        <v>1150.3922</v>
+        <v>1091.3380999999999</v>
       </c>
       <c r="C260" s="5">
-        <v>1150.3922</v>
+        <v>1091.3380999999999</v>
       </c>
       <c r="D260" s="5">
-        <v>1150.3922</v>
+        <v>1091.3380999999999</v>
       </c>
       <c r="E260" s="5">
-        <v>1150.3922</v>
+        <v>1091.3380999999999</v>
       </c>
       <c r="F260" s="5">
         <v>366349.09</v>
@@ -45257,16 +44578,16 @@
         <v>44861</v>
       </c>
       <c r="B261" s="5">
-        <v>1138.1016999999999</v>
+        <v>1079.6786</v>
       </c>
       <c r="C261" s="5">
-        <v>1138.1016999999999</v>
+        <v>1079.6786</v>
       </c>
       <c r="D261" s="5">
-        <v>1138.1016999999999</v>
+        <v>1079.6786</v>
       </c>
       <c r="E261" s="5">
-        <v>1138.1016999999999</v>
+        <v>1079.6786</v>
       </c>
       <c r="F261" s="5">
         <v>457511.39</v>
@@ -45280,16 +44601,16 @@
         <v>44862</v>
       </c>
       <c r="B262" s="5">
-        <v>1139.8639000000001</v>
+        <v>1081.3503000000001</v>
       </c>
       <c r="C262" s="5">
-        <v>1139.8639000000001</v>
+        <v>1081.3503000000001</v>
       </c>
       <c r="D262" s="5">
-        <v>1139.8639000000001</v>
+        <v>1081.3503000000001</v>
       </c>
       <c r="E262" s="5">
-        <v>1139.8639000000001</v>
+        <v>1081.3503000000001</v>
       </c>
       <c r="F262" s="5">
         <v>439809.92</v>
@@ -45303,16 +44624,16 @@
         <v>44865</v>
       </c>
       <c r="B263" s="5">
-        <v>1128.7615000000001</v>
+        <v>1070.8178</v>
       </c>
       <c r="C263" s="5">
-        <v>1128.7615000000001</v>
+        <v>1070.8178</v>
       </c>
       <c r="D263" s="5">
-        <v>1128.7615000000001</v>
+        <v>1070.8178</v>
       </c>
       <c r="E263" s="5">
-        <v>1128.7615000000001</v>
+        <v>1070.8178</v>
       </c>
       <c r="F263" s="5">
         <v>334839.40000000002</v>
@@ -45326,16 +44647,16 @@
         <v>44866</v>
       </c>
       <c r="B264" s="5">
-        <v>1127.914</v>
+        <v>1070.0137999999999</v>
       </c>
       <c r="C264" s="5">
-        <v>1127.914</v>
+        <v>1070.0137999999999</v>
       </c>
       <c r="D264" s="5">
-        <v>1127.914</v>
+        <v>1070.0137999999999</v>
       </c>
       <c r="E264" s="5">
-        <v>1127.914</v>
+        <v>1070.0137999999999</v>
       </c>
       <c r="F264" s="5">
         <v>309826.57</v>
@@ -45349,16 +44670,16 @@
         <v>44867</v>
       </c>
       <c r="B265" s="5">
-        <v>1139.3616</v>
+        <v>1080.8738000000001</v>
       </c>
       <c r="C265" s="5">
-        <v>1139.3616</v>
+        <v>1080.8738000000001</v>
       </c>
       <c r="D265" s="5">
-        <v>1139.3616</v>
+        <v>1080.8738000000001</v>
       </c>
       <c r="E265" s="5">
-        <v>1139.3616</v>
+        <v>1080.8738000000001</v>
       </c>
       <c r="F265" s="5">
         <v>359653.04</v>
@@ -45372,16 +44693,16 @@
         <v>44868</v>
       </c>
       <c r="B266" s="5">
-        <v>1143.7271000000001</v>
+        <v>1085.0151000000001</v>
       </c>
       <c r="C266" s="5">
-        <v>1143.7271000000001</v>
+        <v>1085.0151000000001</v>
       </c>
       <c r="D266" s="5">
-        <v>1143.7271000000001</v>
+        <v>1085.0151000000001</v>
       </c>
       <c r="E266" s="5">
-        <v>1143.7271000000001</v>
+        <v>1085.0151000000001</v>
       </c>
       <c r="F266" s="5">
         <v>363220.21</v>
@@ -45395,16 +44716,16 @@
         <v>44869</v>
       </c>
       <c r="B267" s="5">
-        <v>1150.2791</v>
+        <v>1091.2308</v>
       </c>
       <c r="C267" s="5">
-        <v>1150.2791</v>
+        <v>1091.2308</v>
       </c>
       <c r="D267" s="5">
-        <v>1150.2791</v>
+        <v>1091.2308</v>
       </c>
       <c r="E267" s="5">
-        <v>1150.2791</v>
+        <v>1091.2308</v>
       </c>
       <c r="F267" s="5">
         <v>470454.06</v>
@@ -45418,16 +44739,16 @@
         <v>44872</v>
       </c>
       <c r="B268" s="5">
-        <v>1143.2431999999999</v>
+        <v>1084.5561</v>
       </c>
       <c r="C268" s="5">
-        <v>1143.2431999999999</v>
+        <v>1084.5561</v>
       </c>
       <c r="D268" s="5">
-        <v>1143.2431999999999</v>
+        <v>1084.5561</v>
       </c>
       <c r="E268" s="5">
-        <v>1143.2431999999999</v>
+        <v>1084.5561</v>
       </c>
       <c r="F268" s="5">
         <v>306473.49</v>
@@ -45441,16 +44762,16 @@
         <v>44873</v>
       </c>
       <c r="B269" s="5">
-        <v>1134.2095999999999</v>
+        <v>1075.9862000000001</v>
       </c>
       <c r="C269" s="5">
-        <v>1134.2095999999999</v>
+        <v>1075.9862000000001</v>
       </c>
       <c r="D269" s="5">
-        <v>1134.2095999999999</v>
+        <v>1075.9862000000001</v>
       </c>
       <c r="E269" s="5">
-        <v>1134.2095999999999</v>
+        <v>1075.9862000000001</v>
       </c>
       <c r="F269" s="5">
         <v>336744.68</v>
@@ -45464,16 +44785,16 @@
         <v>44874</v>
       </c>
       <c r="B270" s="5">
-        <v>1129.6576</v>
+        <v>1071.6678999999999</v>
       </c>
       <c r="C270" s="5">
-        <v>1129.6576</v>
+        <v>1071.6678999999999</v>
       </c>
       <c r="D270" s="5">
-        <v>1129.6576</v>
+        <v>1071.6678999999999</v>
       </c>
       <c r="E270" s="5">
-        <v>1129.6576</v>
+        <v>1071.6678999999999</v>
       </c>
       <c r="F270" s="5">
         <v>275074.46000000002</v>
@@ -45487,16 +44808,16 @@
         <v>44875</v>
       </c>
       <c r="B271" s="5">
-        <v>1124.463</v>
+        <v>1066.74</v>
       </c>
       <c r="C271" s="5">
-        <v>1124.463</v>
+        <v>1066.74</v>
       </c>
       <c r="D271" s="5">
-        <v>1124.463</v>
+        <v>1066.74</v>
       </c>
       <c r="E271" s="5">
-        <v>1124.463</v>
+        <v>1066.74</v>
       </c>
       <c r="F271" s="5">
         <v>271731.69</v>
@@ -45510,16 +44831,16 @@
         <v>44876</v>
       </c>
       <c r="B272" s="5">
-        <v>1122.8743999999999</v>
+        <v>1065.2329</v>
       </c>
       <c r="C272" s="5">
-        <v>1122.8743999999999</v>
+        <v>1065.2329</v>
       </c>
       <c r="D272" s="5">
-        <v>1122.8743999999999</v>
+        <v>1065.2329</v>
       </c>
       <c r="E272" s="5">
-        <v>1122.8743999999999</v>
+        <v>1065.2329</v>
       </c>
       <c r="F272" s="5">
         <v>338659.56</v>
@@ -45533,16 +44854,16 @@
         <v>44879</v>
       </c>
       <c r="B273" s="5">
-        <v>1114.9546</v>
+        <v>1057.7197000000001</v>
       </c>
       <c r="C273" s="5">
-        <v>1114.9546</v>
+        <v>1057.7197000000001</v>
       </c>
       <c r="D273" s="5">
-        <v>1114.9546</v>
+        <v>1057.7197000000001</v>
       </c>
       <c r="E273" s="5">
-        <v>1114.9546</v>
+        <v>1057.7197000000001</v>
       </c>
       <c r="F273" s="5">
         <v>406554.1</v>
@@ -45556,16 +44877,16 @@
         <v>44880</v>
       </c>
       <c r="B274" s="5">
-        <v>1109.2607</v>
+        <v>1052.3181</v>
       </c>
       <c r="C274" s="5">
-        <v>1109.2607</v>
+        <v>1052.3181</v>
       </c>
       <c r="D274" s="5">
-        <v>1109.2607</v>
+        <v>1052.3181</v>
       </c>
       <c r="E274" s="5">
-        <v>1109.2607</v>
+        <v>1052.3181</v>
       </c>
       <c r="F274" s="5">
         <v>314493.05</v>
@@ -45579,16 +44900,16 @@
         <v>44881</v>
       </c>
       <c r="B275" s="5">
-        <v>1105.5727999999999</v>
+        <v>1048.8194000000001</v>
       </c>
       <c r="C275" s="5">
-        <v>1105.5727999999999</v>
+        <v>1048.8194000000001</v>
       </c>
       <c r="D275" s="5">
-        <v>1105.5727999999999</v>
+        <v>1048.8194000000001</v>
       </c>
       <c r="E275" s="5">
-        <v>1105.5727999999999</v>
+        <v>1048.8194000000001</v>
       </c>
       <c r="F275" s="5">
         <v>352905.36</v>
@@ -45602,16 +44923,16 @@
         <v>44882</v>
       </c>
       <c r="B276" s="5">
-        <v>1095.8184000000001</v>
+        <v>1039.5658000000001</v>
       </c>
       <c r="C276" s="5">
-        <v>1095.8184000000001</v>
+        <v>1039.5658000000001</v>
       </c>
       <c r="D276" s="5">
-        <v>1095.8184000000001</v>
+        <v>1039.5658000000001</v>
       </c>
       <c r="E276" s="5">
-        <v>1095.8184000000001</v>
+        <v>1039.5658000000001</v>
       </c>
       <c r="F276" s="5">
         <v>410959.11</v>
@@ -45625,16 +44946,16 @@
         <v>44883</v>
       </c>
       <c r="B277" s="5">
-        <v>1093.8077000000001</v>
+        <v>1037.6583000000001</v>
       </c>
       <c r="C277" s="5">
-        <v>1093.8077000000001</v>
+        <v>1037.6583000000001</v>
       </c>
       <c r="D277" s="5">
-        <v>1093.8077000000001</v>
+        <v>1037.6583000000001</v>
       </c>
       <c r="E277" s="5">
-        <v>1093.8077000000001</v>
+        <v>1037.6583000000001</v>
       </c>
       <c r="F277" s="5">
         <v>380332.38</v>
@@ -45648,16 +44969,16 @@
         <v>44886</v>
       </c>
       <c r="B278" s="5">
-        <v>1107.3457000000001</v>
+        <v>1050.5014000000001</v>
       </c>
       <c r="C278" s="5">
-        <v>1107.3457000000001</v>
+        <v>1050.5014000000001</v>
       </c>
       <c r="D278" s="5">
-        <v>1107.3457000000001</v>
+        <v>1050.5014000000001</v>
       </c>
       <c r="E278" s="5">
-        <v>1107.3457000000001</v>
+        <v>1050.5014000000001</v>
       </c>
       <c r="F278" s="5">
         <v>292698.19</v>
@@ -45671,16 +44992,16 @@
         <v>44887</v>
       </c>
       <c r="B279" s="5">
-        <v>1104.3960999999999</v>
+        <v>1047.7030999999999</v>
       </c>
       <c r="C279" s="5">
-        <v>1104.3960999999999</v>
+        <v>1047.7030999999999</v>
       </c>
       <c r="D279" s="5">
-        <v>1104.3960999999999</v>
+        <v>1047.7030999999999</v>
       </c>
       <c r="E279" s="5">
-        <v>1104.3960999999999</v>
+        <v>1047.7030999999999</v>
       </c>
       <c r="F279" s="5">
         <v>204597.77</v>
@@ -45694,16 +45015,16 @@
         <v>44888</v>
       </c>
       <c r="B280" s="5">
-        <v>1103.2800999999999</v>
+        <v>1046.6445000000001</v>
       </c>
       <c r="C280" s="5">
-        <v>1103.2800999999999</v>
+        <v>1046.6445000000001</v>
       </c>
       <c r="D280" s="5">
-        <v>1103.2800999999999</v>
+        <v>1046.6445000000001</v>
       </c>
       <c r="E280" s="5">
-        <v>1103.2800999999999</v>
+        <v>1046.6445000000001</v>
       </c>
       <c r="F280" s="5">
         <v>294073.21000000002</v>
@@ -45717,16 +45038,16 @@
         <v>44889</v>
       </c>
       <c r="B281" s="5">
-        <v>1103.2021999999999</v>
+        <v>1046.5706</v>
       </c>
       <c r="C281" s="5">
-        <v>1103.2021999999999</v>
+        <v>1046.5706</v>
       </c>
       <c r="D281" s="5">
-        <v>1103.2021999999999</v>
+        <v>1046.5706</v>
       </c>
       <c r="E281" s="5">
-        <v>1103.2021999999999</v>
+        <v>1046.5706</v>
       </c>
       <c r="F281" s="5">
         <v>290064.59999999998</v>
@@ -45740,16 +45061,16 @@
         <v>44890</v>
       </c>
       <c r="B282" s="5">
-        <v>1104.1264000000001</v>
+        <v>1047.4474</v>
       </c>
       <c r="C282" s="5">
-        <v>1104.1264000000001</v>
+        <v>1047.4474</v>
       </c>
       <c r="D282" s="5">
-        <v>1104.1264000000001</v>
+        <v>1047.4474</v>
       </c>
       <c r="E282" s="5">
-        <v>1104.1264000000001</v>
+        <v>1047.4474</v>
       </c>
       <c r="F282" s="5">
         <v>264210.36</v>
@@ -45763,16 +45084,16 @@
         <v>44893</v>
       </c>
       <c r="B283" s="5">
-        <v>1101.0418999999999</v>
+        <v>1044.5210999999999</v>
       </c>
       <c r="C283" s="5">
-        <v>1101.0418999999999</v>
+        <v>1044.5210999999999</v>
       </c>
       <c r="D283" s="5">
-        <v>1101.0418999999999</v>
+        <v>1044.5210999999999</v>
       </c>
       <c r="E283" s="5">
-        <v>1101.0418999999999</v>
+        <v>1044.5210999999999</v>
       </c>
       <c r="F283" s="5">
         <v>273215.90000000002</v>
@@ -45786,16 +45107,16 @@
         <v>44894</v>
       </c>
       <c r="B284" s="5">
-        <v>1106.7158999999999</v>
+        <v>1049.9039</v>
       </c>
       <c r="C284" s="5">
-        <v>1106.7158999999999</v>
+        <v>1049.9039</v>
       </c>
       <c r="D284" s="5">
-        <v>1106.7158999999999</v>
+        <v>1049.9039</v>
       </c>
       <c r="E284" s="5">
-        <v>1106.7158999999999</v>
+        <v>1049.9039</v>
       </c>
       <c r="F284" s="5">
         <v>324630.02</v>
@@ -45809,16 +45130,16 @@
         <v>44895</v>
       </c>
       <c r="B285" s="5">
-        <v>1106.2306000000001</v>
+        <v>1049.4435000000001</v>
       </c>
       <c r="C285" s="5">
-        <v>1106.2306000000001</v>
+        <v>1049.4435000000001</v>
       </c>
       <c r="D285" s="5">
-        <v>1106.2306000000001</v>
+        <v>1049.4435000000001</v>
       </c>
       <c r="E285" s="5">
-        <v>1106.2306000000001</v>
+        <v>1049.4435000000001</v>
       </c>
       <c r="F285" s="5">
         <v>331792.83</v>
@@ -45832,16 +45153,16 @@
         <v>44896</v>
       </c>
       <c r="B286" s="5">
-        <v>1109.6697999999999</v>
+        <v>1052.7061000000001</v>
       </c>
       <c r="C286" s="5">
-        <v>1109.6697999999999</v>
+        <v>1052.7061000000001</v>
       </c>
       <c r="D286" s="5">
-        <v>1109.6697999999999</v>
+        <v>1052.7061000000001</v>
       </c>
       <c r="E286" s="5">
-        <v>1109.6697999999999</v>
+        <v>1052.7061000000001</v>
       </c>
       <c r="F286" s="5">
         <v>331325.39</v>
@@ -45855,16 +45176,16 @@
         <v>44897</v>
       </c>
       <c r="B287" s="5">
-        <v>1113.1858</v>
+        <v>1054.4142999999999</v>
       </c>
       <c r="C287" s="5">
-        <v>1113.1858</v>
+        <v>1054.4142999999999</v>
       </c>
       <c r="D287" s="5">
-        <v>1113.1858</v>
+        <v>1054.4142999999999</v>
       </c>
       <c r="E287" s="5">
-        <v>1113.1858</v>
+        <v>1054.4142999999999</v>
       </c>
       <c r="F287" s="5">
         <v>342061.78</v>
@@ -45878,16 +45199,16 @@
         <v>44900</v>
       </c>
       <c r="B288" s="5">
-        <v>1124.5418</v>
+        <v>1065.1706999999999</v>
       </c>
       <c r="C288" s="5">
-        <v>1124.5418</v>
+        <v>1065.1706999999999</v>
       </c>
       <c r="D288" s="5">
-        <v>1124.5418</v>
+        <v>1065.1706999999999</v>
       </c>
       <c r="E288" s="5">
-        <v>1124.5418</v>
+        <v>1065.1706999999999</v>
       </c>
       <c r="F288" s="5">
         <v>355028.28</v>
@@ -45901,16 +45222,16 @@
         <v>44901</v>
       </c>
       <c r="B289" s="5">
-        <v>1133.2541000000001</v>
+        <v>1073.4231</v>
       </c>
       <c r="C289" s="5">
-        <v>1133.2541000000001</v>
+        <v>1073.4231</v>
       </c>
       <c r="D289" s="5">
-        <v>1133.2541000000001</v>
+        <v>1073.4231</v>
       </c>
       <c r="E289" s="5">
-        <v>1133.2541000000001</v>
+        <v>1073.4231</v>
       </c>
       <c r="F289" s="5">
         <v>447353.57</v>
@@ -45924,16 +45245,16 @@
         <v>44902</v>
       </c>
       <c r="B290" s="5">
-        <v>1129.7493999999999</v>
+        <v>1070.1034</v>
       </c>
       <c r="C290" s="5">
-        <v>1129.7493999999999</v>
+        <v>1070.1034</v>
       </c>
       <c r="D290" s="5">
-        <v>1129.7493999999999</v>
+        <v>1070.1034</v>
       </c>
       <c r="E290" s="5">
-        <v>1129.7493999999999</v>
+        <v>1070.1034</v>
       </c>
       <c r="F290" s="5">
         <v>374064.99</v>
@@ -45947,16 +45268,16 @@
         <v>44903</v>
       </c>
       <c r="B291" s="5">
-        <v>1131.0684000000001</v>
+        <v>1071.3526999999999</v>
       </c>
       <c r="C291" s="5">
-        <v>1131.0684000000001</v>
+        <v>1071.3526999999999</v>
       </c>
       <c r="D291" s="5">
-        <v>1131.0684000000001</v>
+        <v>1071.3526999999999</v>
       </c>
       <c r="E291" s="5">
-        <v>1131.0684000000001</v>
+        <v>1071.3526999999999</v>
       </c>
       <c r="F291" s="5">
         <v>353813.23</v>
@@ -45970,16 +45291,16 @@
         <v>44904</v>
       </c>
       <c r="B292" s="5">
-        <v>1132.8967</v>
+        <v>1073.0845999999999</v>
       </c>
       <c r="C292" s="5">
-        <v>1132.8967</v>
+        <v>1073.0845999999999</v>
       </c>
       <c r="D292" s="5">
-        <v>1132.8967</v>
+        <v>1073.0845999999999</v>
       </c>
       <c r="E292" s="5">
-        <v>1132.8967</v>
+        <v>1073.0845999999999</v>
       </c>
       <c r="F292" s="5">
         <v>234064.82</v>
@@ -45993,16 +45314,16 @@
         <v>44907</v>
       </c>
       <c r="B293" s="5">
-        <v>1128.2974999999999</v>
+        <v>1068.7282</v>
       </c>
       <c r="C293" s="5">
-        <v>1128.2974999999999</v>
+        <v>1068.7282</v>
       </c>
       <c r="D293" s="5">
-        <v>1128.2974999999999</v>
+        <v>1068.7282</v>
       </c>
       <c r="E293" s="5">
-        <v>1128.2974999999999</v>
+        <v>1068.7282</v>
       </c>
       <c r="F293" s="5">
         <v>299807.84999999998</v>
@@ -46016,16 +45337,16 @@
         <v>44908</v>
       </c>
       <c r="B294" s="5">
-        <v>1124.9096</v>
+        <v>1065.5191</v>
       </c>
       <c r="C294" s="5">
-        <v>1124.9096</v>
+        <v>1065.5191</v>
       </c>
       <c r="D294" s="5">
-        <v>1124.9096</v>
+        <v>1065.5191</v>
       </c>
       <c r="E294" s="5">
-        <v>1124.9096</v>
+        <v>1065.5191</v>
       </c>
       <c r="F294" s="5">
         <v>274691.27</v>
@@ -46039,16 +45360,16 @@
         <v>44909</v>
       </c>
       <c r="B295" s="5">
-        <v>1117.6871000000001</v>
+        <v>1058.6780000000001</v>
       </c>
       <c r="C295" s="5">
-        <v>1117.6871000000001</v>
+        <v>1058.6780000000001</v>
       </c>
       <c r="D295" s="5">
-        <v>1117.6871000000001</v>
+        <v>1058.6780000000001</v>
       </c>
       <c r="E295" s="5">
-        <v>1117.6871000000001</v>
+        <v>1058.6780000000001</v>
       </c>
       <c r="F295" s="5">
         <v>298191.71000000002</v>
@@ -46062,22 +45383,22 @@
         <v>44910</v>
       </c>
       <c r="B296" s="5">
-        <v>1116.2460000000001</v>
+        <v>1057.3130000000001</v>
       </c>
       <c r="C296" s="5">
-        <v>1116.2460000000001</v>
+        <v>1057.3130000000001</v>
       </c>
       <c r="D296" s="5">
-        <v>1116.2460000000001</v>
+        <v>1057.3130000000001</v>
       </c>
       <c r="E296" s="5">
-        <v>1116.2460000000001</v>
+        <v>1057.3130000000001</v>
       </c>
       <c r="F296" s="5">
-        <v>0</v>
+        <v>320422.73</v>
       </c>
       <c r="G296" s="5">
-        <v>0</v>
+        <v>194921691</v>
       </c>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.2">
@@ -46085,22 +45406,22 @@
         <v>44911</v>
       </c>
       <c r="B297" s="5">
-        <v>1114.8625999999999</v>
+        <v>1056.0026</v>
       </c>
       <c r="C297" s="5">
-        <v>1114.8625999999999</v>
+        <v>1056.0026</v>
       </c>
       <c r="D297" s="5">
-        <v>1114.8625999999999</v>
+        <v>1056.0026</v>
       </c>
       <c r="E297" s="5">
-        <v>1114.8625999999999</v>
+        <v>1056.0026</v>
       </c>
       <c r="F297" s="5">
-        <v>0</v>
+        <v>298920.2</v>
       </c>
       <c r="G297" s="5">
-        <v>0</v>
+        <v>177338629</v>
       </c>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.2">
@@ -46108,22 +45429,22 @@
         <v>44914</v>
       </c>
       <c r="B298" s="5">
-        <v>1112.3351</v>
+        <v>1053.6085</v>
       </c>
       <c r="C298" s="5">
-        <v>1112.3351</v>
+        <v>1053.6085</v>
       </c>
       <c r="D298" s="5">
-        <v>1112.3351</v>
+        <v>1053.6085</v>
       </c>
       <c r="E298" s="5">
-        <v>1112.3351</v>
+        <v>1053.6085</v>
       </c>
       <c r="F298" s="5">
-        <v>0</v>
+        <v>298968.39</v>
       </c>
       <c r="G298" s="5">
-        <v>0</v>
+        <v>170483971</v>
       </c>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.2">
@@ -46131,22 +45452,22 @@
         <v>44915</v>
       </c>
       <c r="B299" s="5">
-        <v>1104.1559999999999</v>
+        <v>1044.6842999999999</v>
       </c>
       <c r="C299" s="5">
-        <v>1104.1559999999999</v>
+        <v>1044.6842999999999</v>
       </c>
       <c r="D299" s="5">
-        <v>1104.1559999999999</v>
+        <v>1044.6842999999999</v>
       </c>
       <c r="E299" s="5">
-        <v>1104.1559999999999</v>
+        <v>1044.6842999999999</v>
       </c>
       <c r="F299" s="5">
-        <v>0</v>
+        <v>254365.84</v>
       </c>
       <c r="G299" s="5">
-        <v>0</v>
+        <v>148169985</v>
       </c>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.2">
@@ -46154,22 +45475,22 @@
         <v>44916</v>
       </c>
       <c r="B300" s="5">
-        <v>1101.3757000000001</v>
+        <v>1042.0536999999999</v>
       </c>
       <c r="C300" s="5">
-        <v>1101.3757000000001</v>
+        <v>1042.0536999999999</v>
       </c>
       <c r="D300" s="5">
-        <v>1101.3757000000001</v>
+        <v>1042.0536999999999</v>
       </c>
       <c r="E300" s="5">
-        <v>1101.3757000000001</v>
+        <v>1042.0536999999999</v>
       </c>
       <c r="F300" s="5">
-        <v>0</v>
+        <v>275104.37</v>
       </c>
       <c r="G300" s="5">
-        <v>0</v>
+        <v>154618086</v>
       </c>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.2">
@@ -46177,22 +45498,22 @@
         <v>44917</v>
       </c>
       <c r="B301" s="5">
-        <v>1102.3117999999999</v>
+        <v>1042.9394</v>
       </c>
       <c r="C301" s="5">
-        <v>1102.3117999999999</v>
+        <v>1042.9394</v>
       </c>
       <c r="D301" s="5">
-        <v>1102.3117999999999</v>
+        <v>1042.9394</v>
       </c>
       <c r="E301" s="5">
-        <v>1102.3117999999999</v>
+        <v>1042.9394</v>
       </c>
       <c r="F301" s="5">
-        <v>0</v>
+        <v>273758.28000000003</v>
       </c>
       <c r="G301" s="5">
-        <v>0</v>
+        <v>154955679</v>
       </c>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
@@ -46200,22 +45521,22 @@
         <v>44918</v>
       </c>
       <c r="B302" s="5">
-        <v>1108.6348</v>
+        <v>1048.9218000000001</v>
       </c>
       <c r="C302" s="5">
-        <v>1108.6348</v>
+        <v>1048.9218000000001</v>
       </c>
       <c r="D302" s="5">
-        <v>1108.6348</v>
+        <v>1048.9218000000001</v>
       </c>
       <c r="E302" s="5">
-        <v>1108.6348</v>
+        <v>1048.9218000000001</v>
       </c>
       <c r="F302" s="5">
-        <v>0</v>
+        <v>298500.95</v>
       </c>
       <c r="G302" s="5">
-        <v>0</v>
+        <v>169764701</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
@@ -46223,22 +45544,22 @@
         <v>44921</v>
       </c>
       <c r="B303" s="5">
-        <v>1109.6216999999999</v>
+        <v>1049.8556000000001</v>
       </c>
       <c r="C303" s="5">
-        <v>1109.6216999999999</v>
+        <v>1049.8556000000001</v>
       </c>
       <c r="D303" s="5">
-        <v>1109.6216999999999</v>
+        <v>1049.8556000000001</v>
       </c>
       <c r="E303" s="5">
-        <v>1109.6216999999999</v>
+        <v>1049.8556000000001</v>
       </c>
       <c r="F303" s="5">
-        <v>0</v>
+        <v>330420.39</v>
       </c>
       <c r="G303" s="5">
-        <v>0</v>
+        <v>189006268</v>
       </c>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.2">
@@ -46246,22 +45567,22 @@
         <v>44922</v>
       </c>
       <c r="B304" s="5">
-        <v>1106.4052999999999</v>
+        <v>1046.8125</v>
       </c>
       <c r="C304" s="5">
-        <v>1106.4052999999999</v>
+        <v>1046.8125</v>
       </c>
       <c r="D304" s="5">
-        <v>1106.4052999999999</v>
+        <v>1046.8125</v>
       </c>
       <c r="E304" s="5">
-        <v>1106.4052999999999</v>
+        <v>1046.8125</v>
       </c>
       <c r="F304" s="5">
-        <v>0</v>
+        <v>236226.98</v>
       </c>
       <c r="G304" s="5">
-        <v>0</v>
+        <v>137270669</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
@@ -46269,22 +45590,22 @@
         <v>44923</v>
       </c>
       <c r="B305" s="5">
-        <v>1097.2736</v>
+        <v>1038.1724999999999</v>
       </c>
       <c r="C305" s="5">
-        <v>1097.2736</v>
+        <v>1038.1724999999999</v>
       </c>
       <c r="D305" s="5">
-        <v>1097.2736</v>
+        <v>1038.1724999999999</v>
       </c>
       <c r="E305" s="5">
-        <v>1097.2736</v>
+        <v>1038.1724999999999</v>
       </c>
       <c r="F305" s="5">
-        <v>0</v>
+        <v>327755.49</v>
       </c>
       <c r="G305" s="5">
-        <v>0</v>
+        <v>176634434</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
@@ -46292,22 +45613,22 @@
         <v>44924</v>
       </c>
       <c r="B306" s="5">
-        <v>1098.779</v>
+        <v>1039.5969</v>
       </c>
       <c r="C306" s="5">
-        <v>1098.779</v>
+        <v>1039.5969</v>
       </c>
       <c r="D306" s="5">
-        <v>1098.779</v>
+        <v>1039.5969</v>
       </c>
       <c r="E306" s="5">
-        <v>1098.779</v>
+        <v>1039.5969</v>
       </c>
       <c r="F306" s="5">
-        <v>0</v>
+        <v>326788.55</v>
       </c>
       <c r="G306" s="5">
-        <v>0</v>
+        <v>174775189</v>
       </c>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
@@ -46315,22 +45636,22 @@
         <v>44925</v>
       </c>
       <c r="B307" s="5">
-        <v>1114.4712999999999</v>
+        <v>1054.444</v>
       </c>
       <c r="C307" s="5">
-        <v>1114.4712999999999</v>
+        <v>1054.444</v>
       </c>
       <c r="D307" s="5">
-        <v>1114.4712999999999</v>
+        <v>1054.444</v>
       </c>
       <c r="E307" s="5">
-        <v>1114.4712999999999</v>
+        <v>1054.444</v>
       </c>
       <c r="F307" s="5">
-        <v>0</v>
+        <v>405807.01</v>
       </c>
       <c r="G307" s="5">
-        <v>0</v>
+        <v>231441618</v>
       </c>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
@@ -46338,22 +45659,22 @@
         <v>44929</v>
       </c>
       <c r="B308" s="5">
-        <v>1107.4988000000001</v>
+        <v>1047.847</v>
       </c>
       <c r="C308" s="5">
-        <v>1107.4988000000001</v>
+        <v>1047.847</v>
       </c>
       <c r="D308" s="5">
-        <v>1107.4988000000001</v>
+        <v>1047.847</v>
       </c>
       <c r="E308" s="5">
-        <v>1107.4988000000001</v>
+        <v>1047.847</v>
       </c>
       <c r="F308" s="5">
-        <v>0</v>
+        <v>286345.46000000002</v>
       </c>
       <c r="G308" s="5">
-        <v>0</v>
+        <v>170481670</v>
       </c>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
@@ -46361,22 +45682,22 @@
         <v>44930</v>
       </c>
       <c r="B309" s="5">
-        <v>1102.4994999999999</v>
+        <v>1042.6262999999999</v>
       </c>
       <c r="C309" s="5">
-        <v>1102.4994999999999</v>
+        <v>1042.6262999999999</v>
       </c>
       <c r="D309" s="5">
-        <v>1102.4994999999999</v>
+        <v>1042.6262999999999</v>
       </c>
       <c r="E309" s="5">
-        <v>1102.4994999999999</v>
+        <v>1042.6262999999999</v>
       </c>
       <c r="F309" s="5">
-        <v>0</v>
+        <v>294718.45</v>
       </c>
       <c r="G309" s="5">
-        <v>0</v>
+        <v>172390004</v>
       </c>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.2">
@@ -46384,22 +45705,22 @@
         <v>44931</v>
       </c>
       <c r="B310" s="5">
-        <v>1096.6842999999999</v>
+        <v>1035.943</v>
       </c>
       <c r="C310" s="5">
-        <v>1096.6842999999999</v>
+        <v>1035.943</v>
       </c>
       <c r="D310" s="5">
-        <v>1096.6842999999999</v>
+        <v>1035.943</v>
       </c>
       <c r="E310" s="5">
-        <v>1096.6842999999999</v>
+        <v>1035.943</v>
       </c>
       <c r="F310" s="5">
-        <v>0</v>
+        <v>337962.12</v>
       </c>
       <c r="G310" s="5">
-        <v>0</v>
+        <v>186164293</v>
       </c>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.2">
@@ -46407,22 +45728,22 @@
         <v>44932</v>
       </c>
       <c r="B311" s="5">
-        <v>1102.3144</v>
+        <v>1041.2611999999999</v>
       </c>
       <c r="C311" s="5">
-        <v>1102.3144</v>
+        <v>1041.2611999999999</v>
       </c>
       <c r="D311" s="5">
-        <v>1102.3144</v>
+        <v>1041.2611999999999</v>
       </c>
       <c r="E311" s="5">
-        <v>1102.3144</v>
+        <v>1041.2611999999999</v>
       </c>
       <c r="F311" s="5">
-        <v>0</v>
+        <v>362734.46</v>
       </c>
       <c r="G311" s="5">
-        <v>0</v>
+        <v>195918445</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
@@ -46430,22 +45751,22 @@
         <v>44935</v>
       </c>
       <c r="B312" s="5">
-        <v>1102.2433000000001</v>
+        <v>1041.1940999999999</v>
       </c>
       <c r="C312" s="5">
-        <v>1102.2433000000001</v>
+        <v>1041.1940999999999</v>
       </c>
       <c r="D312" s="5">
-        <v>1102.2433000000001</v>
+        <v>1041.1940999999999</v>
       </c>
       <c r="E312" s="5">
-        <v>1102.2433000000001</v>
+        <v>1041.1940999999999</v>
       </c>
       <c r="F312" s="5">
-        <v>0</v>
+        <v>352539.29</v>
       </c>
       <c r="G312" s="5">
-        <v>0</v>
+        <v>211491447</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
@@ -46453,22 +45774,22 @@
         <v>44936</v>
       </c>
       <c r="B313" s="5">
-        <v>1106.2551000000001</v>
+        <v>1044.9837</v>
       </c>
       <c r="C313" s="5">
-        <v>1106.2551000000001</v>
+        <v>1044.9837</v>
       </c>
       <c r="D313" s="5">
-        <v>1106.2551000000001</v>
+        <v>1044.9837</v>
       </c>
       <c r="E313" s="5">
-        <v>1106.2551000000001</v>
+        <v>1044.9837</v>
       </c>
       <c r="F313" s="5">
-        <v>0</v>
+        <v>391228.17</v>
       </c>
       <c r="G313" s="5">
-        <v>0</v>
+        <v>227876849</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
@@ -46476,22 +45797,22 @@
         <v>44937</v>
       </c>
       <c r="B314" s="5">
-        <v>1105.9598000000001</v>
+        <v>1044.7047</v>
       </c>
       <c r="C314" s="5">
-        <v>1105.9598000000001</v>
+        <v>1044.7047</v>
       </c>
       <c r="D314" s="5">
-        <v>1105.9598000000001</v>
+        <v>1044.7047</v>
       </c>
       <c r="E314" s="5">
-        <v>1105.9598000000001</v>
+        <v>1044.7047</v>
       </c>
       <c r="F314" s="5">
-        <v>0</v>
+        <v>396701.35</v>
       </c>
       <c r="G314" s="5">
-        <v>0</v>
+        <v>227256855</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
@@ -46499,22 +45820,22 @@
         <v>44938</v>
       </c>
       <c r="B315" s="5">
-        <v>1104.0608</v>
+        <v>1042.9109000000001</v>
       </c>
       <c r="C315" s="5">
-        <v>1104.0608</v>
+        <v>1042.9109000000001</v>
       </c>
       <c r="D315" s="5">
-        <v>1104.0608</v>
+        <v>1042.9109000000001</v>
       </c>
       <c r="E315" s="5">
-        <v>1104.0608</v>
+        <v>1042.9109000000001</v>
       </c>
       <c r="F315" s="5">
-        <v>0</v>
+        <v>325396.15000000002</v>
       </c>
       <c r="G315" s="5">
-        <v>0</v>
+        <v>185083868</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
@@ -46522,22 +45843,22 @@
         <v>44939</v>
       </c>
       <c r="B316" s="5">
-        <v>1101.5047</v>
+        <v>1040.4964</v>
       </c>
       <c r="C316" s="5">
-        <v>1101.5047</v>
+        <v>1040.4964</v>
       </c>
       <c r="D316" s="5">
-        <v>1101.5047</v>
+        <v>1040.4964</v>
       </c>
       <c r="E316" s="5">
-        <v>1101.5047</v>
+        <v>1040.4964</v>
       </c>
       <c r="F316" s="5">
-        <v>0</v>
+        <v>303308.55</v>
       </c>
       <c r="G316" s="5">
-        <v>0</v>
+        <v>169951153</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
@@ -46545,22 +45866,22 @@
         <v>44942</v>
       </c>
       <c r="B317" s="5">
-        <v>1098.4214999999999</v>
+        <v>1037.5839000000001</v>
       </c>
       <c r="C317" s="5">
-        <v>1098.4214999999999</v>
+        <v>1037.5839000000001</v>
       </c>
       <c r="D317" s="5">
-        <v>1098.4214999999999</v>
+        <v>1037.5839000000001</v>
       </c>
       <c r="E317" s="5">
-        <v>1098.4214999999999</v>
+        <v>1037.5839000000001</v>
       </c>
       <c r="F317" s="5">
-        <v>0</v>
+        <v>288410.94</v>
       </c>
       <c r="G317" s="5">
-        <v>0</v>
+        <v>163569285</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
@@ -46568,22 +45889,22 @@
         <v>44943</v>
       </c>
       <c r="B318" s="5">
-        <v>1095.4953</v>
+        <v>1034.8198</v>
       </c>
       <c r="C318" s="5">
-        <v>1095.4953</v>
+        <v>1034.8198</v>
       </c>
       <c r="D318" s="5">
-        <v>1095.4953</v>
+        <v>1034.8198</v>
       </c>
       <c r="E318" s="5">
-        <v>1095.4953</v>
+        <v>1034.8198</v>
       </c>
       <c r="F318" s="5">
-        <v>0</v>
+        <v>241118.36</v>
       </c>
       <c r="G318" s="5">
-        <v>0</v>
+        <v>147514067</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
@@ -46591,22 +45912,22 @@
         <v>44944</v>
       </c>
       <c r="B319" s="5">
-        <v>1095.9630999999999</v>
+        <v>1035.2617</v>
       </c>
       <c r="C319" s="5">
-        <v>1095.9630999999999</v>
+        <v>1035.2617</v>
       </c>
       <c r="D319" s="5">
-        <v>1095.9630999999999</v>
+        <v>1035.2617</v>
       </c>
       <c r="E319" s="5">
-        <v>1095.9630999999999</v>
+        <v>1035.2617</v>
       </c>
       <c r="F319" s="5">
-        <v>0</v>
+        <v>292532.5</v>
       </c>
       <c r="G319" s="5">
-        <v>0</v>
+        <v>169994504</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
@@ -46614,22 +45935,22 @@
         <v>44945</v>
       </c>
       <c r="B320" s="5">
-        <v>1096.4957999999999</v>
+        <v>1035.7648999999999</v>
       </c>
       <c r="C320" s="5">
-        <v>1096.4957999999999</v>
+        <v>1035.7648999999999</v>
       </c>
       <c r="D320" s="5">
-        <v>1096.4957999999999</v>
+        <v>1035.7648999999999</v>
       </c>
       <c r="E320" s="5">
-        <v>1096.4957999999999</v>
+        <v>1035.7648999999999</v>
       </c>
       <c r="F320" s="5">
-        <v>0</v>
+        <v>294329.42</v>
       </c>
       <c r="G320" s="5">
-        <v>0</v>
+        <v>166562173</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
@@ -46637,22 +45958,22 @@
         <v>44946</v>
       </c>
       <c r="B321" s="5">
-        <v>1098.2472</v>
+        <v>1037.4193</v>
       </c>
       <c r="C321" s="5">
-        <v>1098.2472</v>
+        <v>1037.4193</v>
       </c>
       <c r="D321" s="5">
-        <v>1098.2472</v>
+        <v>1037.4193</v>
       </c>
       <c r="E321" s="5">
-        <v>1098.2472</v>
+        <v>1037.4193</v>
       </c>
       <c r="F321" s="5">
-        <v>0</v>
+        <v>316238.26</v>
       </c>
       <c r="G321" s="5">
-        <v>0</v>
+        <v>173520607</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
@@ -46660,22 +45981,22 @@
         <v>44956</v>
       </c>
       <c r="B322" s="5">
-        <v>1105.8607</v>
+        <v>1044.6111000000001</v>
       </c>
       <c r="C322" s="5">
-        <v>1105.8607</v>
+        <v>1044.6111000000001</v>
       </c>
       <c r="D322" s="5">
-        <v>1105.8607</v>
+        <v>1044.6111000000001</v>
       </c>
       <c r="E322" s="5">
-        <v>1105.8607</v>
+        <v>1044.6111000000001</v>
       </c>
       <c r="F322" s="5">
-        <v>0</v>
+        <v>394811.55</v>
       </c>
       <c r="G322" s="5">
-        <v>0</v>
+        <v>234289061</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
@@ -46683,22 +46004,22 @@
         <v>44957</v>
       </c>
       <c r="B323" s="5">
-        <v>1118.7149999999999</v>
+        <v>1056.7535</v>
       </c>
       <c r="C323" s="5">
-        <v>1118.7149999999999</v>
+        <v>1056.7535</v>
       </c>
       <c r="D323" s="5">
-        <v>1118.7149999999999</v>
+        <v>1056.7535</v>
       </c>
       <c r="E323" s="5">
-        <v>1118.7149999999999</v>
+        <v>1056.7535</v>
       </c>
       <c r="F323" s="5">
-        <v>0</v>
+        <v>484966.8</v>
       </c>
       <c r="G323" s="5">
-        <v>0</v>
+        <v>282810683</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
@@ -46706,22 +46027,22 @@
         <v>44958</v>
       </c>
       <c r="B324" s="5">
-        <v>1125.3427999999999</v>
+        <v>1063.0142000000001</v>
       </c>
       <c r="C324" s="5">
-        <v>1125.3427999999999</v>
+        <v>1063.0142000000001</v>
       </c>
       <c r="D324" s="5">
-        <v>1125.3427999999999</v>
+        <v>1063.0142000000001</v>
       </c>
       <c r="E324" s="5">
-        <v>1125.3427999999999</v>
+        <v>1063.0142000000001</v>
       </c>
       <c r="F324" s="5">
-        <v>0</v>
+        <v>434723.06</v>
       </c>
       <c r="G324" s="5">
-        <v>0</v>
+        <v>244773579</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
@@ -46729,22 +46050,22 @@
         <v>44959</v>
       </c>
       <c r="B325" s="5">
-        <v>1120.8305</v>
+        <v>1058.7518</v>
       </c>
       <c r="C325" s="5">
-        <v>1120.8305</v>
+        <v>1058.7518</v>
       </c>
       <c r="D325" s="5">
-        <v>1120.8305</v>
+        <v>1058.7518</v>
       </c>
       <c r="E325" s="5">
-        <v>1120.8305</v>
+        <v>1058.7518</v>
       </c>
       <c r="F325" s="5">
-        <v>0</v>
+        <v>485609.4</v>
       </c>
       <c r="G325" s="5">
-        <v>0</v>
+        <v>267814593</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
@@ -46752,22 +46073,22 @@
         <v>44960</v>
       </c>
       <c r="B326" s="5">
-        <v>1122.4341999999999</v>
+        <v>1060.2666999999999</v>
       </c>
       <c r="C326" s="5">
-        <v>1122.4341999999999</v>
+        <v>1060.2666999999999</v>
       </c>
       <c r="D326" s="5">
-        <v>1122.4341999999999</v>
+        <v>1060.2666999999999</v>
       </c>
       <c r="E326" s="5">
-        <v>1122.4341999999999</v>
+        <v>1060.2666999999999</v>
       </c>
       <c r="F326" s="5">
-        <v>0</v>
+        <v>478284.82</v>
       </c>
       <c r="G326" s="5">
-        <v>0</v>
+        <v>269866018</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
@@ -46775,22 +46096,22 @@
         <v>44963</v>
       </c>
       <c r="B327" s="5">
-        <v>1122.5965000000001</v>
+        <v>1060.42</v>
       </c>
       <c r="C327" s="5">
-        <v>1122.5965000000001</v>
+        <v>1060.42</v>
       </c>
       <c r="D327" s="5">
-        <v>1122.5965000000001</v>
+        <v>1060.42</v>
       </c>
       <c r="E327" s="5">
-        <v>1122.5965000000001</v>
+        <v>1060.42</v>
       </c>
       <c r="F327" s="5">
-        <v>0</v>
+        <v>465125.61</v>
       </c>
       <c r="G327" s="5">
-        <v>0</v>
+        <v>271637583</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
@@ -46798,22 +46119,22 @@
         <v>44964</v>
       </c>
       <c r="B328" s="5">
-        <v>1121.6085</v>
+        <v>1059.4866999999999</v>
       </c>
       <c r="C328" s="5">
-        <v>1121.6085</v>
+        <v>1059.4866999999999</v>
       </c>
       <c r="D328" s="5">
-        <v>1121.6085</v>
+        <v>1059.4866999999999</v>
       </c>
       <c r="E328" s="5">
-        <v>1121.6085</v>
+        <v>1059.4866999999999</v>
       </c>
       <c r="F328" s="5">
-        <v>0</v>
+        <v>411002</v>
       </c>
       <c r="G328" s="5">
-        <v>0</v>
+        <v>236448137</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
@@ -46821,22 +46142,22 @@
         <v>44965</v>
       </c>
       <c r="B329" s="5">
-        <v>1120.8632</v>
+        <v>1058.7827</v>
       </c>
       <c r="C329" s="5">
-        <v>1120.8632</v>
+        <v>1058.7827</v>
       </c>
       <c r="D329" s="5">
-        <v>1120.8632</v>
+        <v>1058.7827</v>
       </c>
       <c r="E329" s="5">
-        <v>1120.8632</v>
+        <v>1058.7827</v>
       </c>
       <c r="F329" s="5">
-        <v>0</v>
+        <v>354744.57</v>
       </c>
       <c r="G329" s="5">
-        <v>0</v>
+        <v>194956899</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
@@ -46844,22 +46165,22 @@
         <v>44966</v>
       </c>
       <c r="B330" s="5">
-        <v>1120.3125</v>
+        <v>1058.2625</v>
       </c>
       <c r="C330" s="5">
-        <v>1120.3125</v>
+        <v>1058.2625</v>
       </c>
       <c r="D330" s="5">
-        <v>1120.3125</v>
+        <v>1058.2625</v>
       </c>
       <c r="E330" s="5">
-        <v>1120.3125</v>
+        <v>1058.2625</v>
       </c>
       <c r="F330" s="5">
-        <v>0</v>
+        <v>381367.57</v>
       </c>
       <c r="G330" s="5">
-        <v>0</v>
+        <v>213867160</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
@@ -46867,22 +46188,22 @@
         <v>44967</v>
       </c>
       <c r="B331" s="5">
-        <v>1123.7614000000001</v>
+        <v>1061.5202999999999</v>
       </c>
       <c r="C331" s="5">
-        <v>1123.7614000000001</v>
+        <v>1061.5202999999999</v>
       </c>
       <c r="D331" s="5">
-        <v>1123.7614000000001</v>
+        <v>1061.5202999999999</v>
       </c>
       <c r="E331" s="5">
-        <v>1123.7614000000001</v>
+        <v>1061.5202999999999</v>
       </c>
       <c r="F331" s="5">
-        <v>0</v>
+        <v>521888.72</v>
       </c>
       <c r="G331" s="5">
-        <v>0</v>
+        <v>291686701</v>
       </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
@@ -46890,22 +46211,22 @@
         <v>44970</v>
       </c>
       <c r="B332" s="5">
-        <v>1126.9448</v>
+        <v>1064.5273999999999</v>
       </c>
       <c r="C332" s="5">
-        <v>1126.9448</v>
+        <v>1064.5273999999999</v>
       </c>
       <c r="D332" s="5">
-        <v>1126.9448</v>
+        <v>1064.5273999999999</v>
       </c>
       <c r="E332" s="5">
-        <v>1126.9448</v>
+        <v>1064.5273999999999</v>
       </c>
       <c r="F332" s="5">
-        <v>0</v>
+        <v>431542.36</v>
       </c>
       <c r="G332" s="5">
-        <v>0</v>
+        <v>236092171</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
@@ -46913,22 +46234,22 @@
         <v>44971</v>
       </c>
       <c r="B333" s="5">
-        <v>1132.1885</v>
+        <v>1069.4807000000001</v>
       </c>
       <c r="C333" s="5">
-        <v>1132.1885</v>
+        <v>1069.4807000000001</v>
       </c>
       <c r="D333" s="5">
-        <v>1132.1885</v>
+        <v>1069.4807000000001</v>
       </c>
       <c r="E333" s="5">
-        <v>1132.1885</v>
+        <v>1069.4807000000001</v>
       </c>
       <c r="F333" s="5">
-        <v>0</v>
+        <v>479154.34</v>
       </c>
       <c r="G333" s="5">
-        <v>0</v>
+        <v>278366223</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
@@ -46936,22 +46257,22 @@
         <v>44972</v>
       </c>
       <c r="B334" s="5">
-        <v>1128.9936</v>
+        <v>1066.4627</v>
       </c>
       <c r="C334" s="5">
-        <v>1128.9936</v>
+        <v>1066.4627</v>
       </c>
       <c r="D334" s="5">
-        <v>1128.9936</v>
+        <v>1066.4627</v>
       </c>
       <c r="E334" s="5">
-        <v>1128.9936</v>
+        <v>1066.4627</v>
       </c>
       <c r="F334" s="5">
-        <v>0</v>
+        <v>475387.78</v>
       </c>
       <c r="G334" s="5">
-        <v>0</v>
+        <v>262016518</v>
       </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.2">
@@ -46959,22 +46280,22 @@
         <v>44973</v>
       </c>
       <c r="B335" s="5">
-        <v>1126.1706999999999</v>
+        <v>1063.7962</v>
       </c>
       <c r="C335" s="5">
-        <v>1126.1706999999999</v>
+        <v>1063.7962</v>
       </c>
       <c r="D335" s="5">
-        <v>1126.1706999999999</v>
+        <v>1063.7962</v>
       </c>
       <c r="E335" s="5">
-        <v>1126.1706999999999</v>
+        <v>1063.7962</v>
       </c>
       <c r="F335" s="5">
-        <v>0</v>
+        <v>549791.88</v>
       </c>
       <c r="G335" s="5">
-        <v>0</v>
+        <v>298645866</v>
       </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.2">
@@ -46982,22 +46303,22 @@
         <v>44974</v>
       </c>
       <c r="B336" s="5">
-        <v>1125.0463999999999</v>
+        <v>1062.7342000000001</v>
       </c>
       <c r="C336" s="5">
-        <v>1125.0463999999999</v>
+        <v>1062.7342000000001</v>
       </c>
       <c r="D336" s="5">
-        <v>1125.0463999999999</v>
+        <v>1062.7342000000001</v>
       </c>
       <c r="E336" s="5">
-        <v>1125.0463999999999</v>
+        <v>1062.7342000000001</v>
       </c>
       <c r="F336" s="5">
-        <v>0</v>
+        <v>461147.06</v>
       </c>
       <c r="G336" s="5">
-        <v>0</v>
+        <v>265567136</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.2">
@@ -47005,22 +46326,22 @@
         <v>44977</v>
       </c>
       <c r="B337" s="5">
-        <v>1126.789</v>
+        <v>1064.3803</v>
       </c>
       <c r="C337" s="5">
-        <v>1126.789</v>
+        <v>1064.3803</v>
       </c>
       <c r="D337" s="5">
-        <v>1126.789</v>
+        <v>1064.3803</v>
       </c>
       <c r="E337" s="5">
-        <v>1126.789</v>
+        <v>1064.3803</v>
       </c>
       <c r="F337" s="5">
-        <v>0</v>
+        <v>425671.8</v>
       </c>
       <c r="G337" s="5">
-        <v>0</v>
+        <v>260774454</v>
       </c>
     </row>
   </sheetData>
@@ -47034,7 +46355,7 @@
   <dimension ref="A2:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -47049,7 +46370,7 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>44978.428476851848</v>
+        <v>44978.631385416666</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="7">

--- a/data/业绩比较基准数据.xlsx
+++ b/data/业绩比较基准数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\dataspell-analysis\ds-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B30387AF-1683-4164-9C81-9FC2C2072D7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E4B9F8-E43F-45CF-916F-55D361853485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C248513A-B504-4B83-910F-5E7DDAD17B3E}"/>
   </bookViews>
@@ -45,54 +45,71 @@
   </si>
   <si>
     <t>日期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>399300.SZ</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>沪深300</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>开盘价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最高价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最低价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收盘价</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成交额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>H11006.CSI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中证国债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>开盘价</t>
+    <t>932006.CSI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最高价</t>
+    <t>中证REITs(收盘)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>最低价</t>
+    <t>H11001.CSI</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>收盘价</t>
-  </si>
-  <si>
-    <t>成交量</t>
-  </si>
-  <si>
-    <t>成交额</t>
+    <t>中证全债</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>000852.SH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>中证1000</t>
-  </si>
-  <si>
-    <t>H11001.CSI</t>
-  </si>
-  <si>
-    <t>中证全债</t>
-  </si>
-  <si>
-    <t>399300.SZ</t>
-  </si>
-  <si>
-    <t>沪深300</t>
-  </si>
-  <si>
-    <t>932006.CSI</t>
-  </si>
-  <si>
-    <t>中证REITs(收盘)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -509,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D65061-BCFD-46DC-A163-26550D595C1F}">
   <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -525,42 +542,42 @@
         <v>同花顺iFinD</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -9925,13 +9942,27 @@
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A410" s="3"/>
-      <c r="B410" s="5"/>
-      <c r="C410" s="5"/>
-      <c r="D410" s="5"/>
-      <c r="E410" s="5"/>
-      <c r="F410" s="5"/>
-      <c r="G410" s="5"/>
+      <c r="A410" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B410" s="5">
+        <v>4118.9669000000004</v>
+      </c>
+      <c r="C410" s="5">
+        <v>4134.8759</v>
+      </c>
+      <c r="D410" s="5">
+        <v>4101.8595999999998</v>
+      </c>
+      <c r="E410" s="5">
+        <v>4106.9506000000001</v>
+      </c>
+      <c r="F410" s="5">
+        <v>104290295</v>
+      </c>
+      <c r="G410" s="5">
+        <v>191586158991.20001</v>
+      </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="3"/>
@@ -10037,7 +10068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CEB2F0-8AF2-4FCB-952D-16E7F3CB5E48}">
   <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A391" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10053,42 +10084,42 @@
         <v>同花顺iFinD</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -19449,17 +19480,31 @@
         <v>171690946</v>
       </c>
       <c r="G409" s="5">
-        <v>203386321239.5</v>
+        <v>203386321240</v>
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A410" s="3"/>
-      <c r="B410" s="5"/>
-      <c r="C410" s="5"/>
-      <c r="D410" s="5"/>
-      <c r="E410" s="5"/>
-      <c r="F410" s="5"/>
-      <c r="G410" s="5"/>
+      <c r="A410" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B410" s="5">
+        <v>6961.1504000000004</v>
+      </c>
+      <c r="C410" s="5">
+        <v>7014.5614999999998</v>
+      </c>
+      <c r="D410" s="5">
+        <v>6947.1166999999996</v>
+      </c>
+      <c r="E410" s="5">
+        <v>6998.4297999999999</v>
+      </c>
+      <c r="F410" s="5">
+        <v>144601016</v>
+      </c>
+      <c r="G410" s="5">
+        <v>175966912644.5</v>
+      </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="3"/>
@@ -19564,7 +19609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82959531-E717-4F8B-BB5A-0A74A73B6DAC}">
   <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A391" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19578,42 +19623,42 @@
         <v>同花顺iFinD</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -28614,13 +28659,13 @@
         <v>44957</v>
       </c>
       <c r="B394" s="5">
-        <v>225.6113</v>
+        <v>225.55449999999999</v>
       </c>
       <c r="C394" s="5">
-        <v>225.6113</v>
+        <v>225.55449999999999</v>
       </c>
       <c r="D394" s="5">
-        <v>225.6113</v>
+        <v>225.55449999999999</v>
       </c>
       <c r="E394" s="5">
         <v>225.6113</v>
@@ -28955,13 +29000,27 @@
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A409" s="3"/>
-      <c r="B409" s="5"/>
-      <c r="C409" s="5"/>
-      <c r="D409" s="5"/>
-      <c r="E409" s="5"/>
-      <c r="F409" s="5"/>
-      <c r="G409" s="5"/>
+      <c r="A409" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B409" s="5">
+        <v>225.9479</v>
+      </c>
+      <c r="C409" s="5">
+        <v>225.9479</v>
+      </c>
+      <c r="D409" s="5">
+        <v>225.9479</v>
+      </c>
+      <c r="E409" s="5">
+        <v>225.9479</v>
+      </c>
+      <c r="F409" s="5">
+        <v>0</v>
+      </c>
+      <c r="G409" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="3"/>
@@ -29076,7 +29135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6508B615-C4C0-4A79-A165-6AE659695A0E}">
   <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A400" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -29090,42 +29149,42 @@
         <v>同花顺iFinD</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -38126,13 +38185,13 @@
         <v>44957</v>
       </c>
       <c r="B394" s="5">
-        <v>212.5865</v>
+        <v>212.48159999999999</v>
       </c>
       <c r="C394" s="5">
-        <v>212.5865</v>
+        <v>212.48159999999999</v>
       </c>
       <c r="D394" s="5">
-        <v>212.5865</v>
+        <v>212.48159999999999</v>
       </c>
       <c r="E394" s="5">
         <v>212.5865</v>
@@ -38467,13 +38526,27 @@
       </c>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A409" s="3"/>
-      <c r="B409" s="5"/>
-      <c r="C409" s="5"/>
-      <c r="D409" s="5"/>
-      <c r="E409" s="5"/>
-      <c r="F409" s="5"/>
-      <c r="G409" s="5"/>
+      <c r="A409" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B409" s="5">
+        <v>212.613</v>
+      </c>
+      <c r="C409" s="5">
+        <v>212.613</v>
+      </c>
+      <c r="D409" s="5">
+        <v>212.613</v>
+      </c>
+      <c r="E409" s="5">
+        <v>212.613</v>
+      </c>
+      <c r="F409" s="5">
+        <v>0</v>
+      </c>
+      <c r="G409" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A410" s="3"/>
@@ -38585,9 +38658,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39F584C-6D90-4048-B26D-97D5525D1AA1}">
-  <dimension ref="A1:G337"/>
+  <dimension ref="A1:G338"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A319" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38601,42 +38674,42 @@
         <v>同花顺iFinD</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -46342,6 +46415,29 @@
       </c>
       <c r="G337" s="5">
         <v>260774454</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A338" s="3">
+        <v>44978</v>
+      </c>
+      <c r="B338" s="5">
+        <v>1067.0610999999999</v>
+      </c>
+      <c r="C338" s="5">
+        <v>1067.0610999999999</v>
+      </c>
+      <c r="D338" s="5">
+        <v>1067.0610999999999</v>
+      </c>
+      <c r="E338" s="5">
+        <v>1067.0610999999999</v>
+      </c>
+      <c r="F338" s="5">
+        <v>455161.14</v>
+      </c>
+      <c r="G338" s="5">
+        <v>276770040</v>
       </c>
     </row>
   </sheetData>
@@ -46370,12 +46466,12 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>44978.631385416666</v>
+        <v>44979.681558564815</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="7">
         <f ca="1">DATE(YEAR(B2),MONTH(B2),DAY(B2))</f>
-        <v>44978</v>
+        <v>44979</v>
       </c>
     </row>
   </sheetData>

--- a/data/业绩比较基准数据.xlsx
+++ b/data/业绩比较基准数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\dataspell-analysis\ds-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E4B9F8-E43F-45CF-916F-55D361853485}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7318DB-C830-4761-A10A-E65677D19373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C248513A-B504-4B83-910F-5E7DDAD17B3E}"/>
   </bookViews>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D65061-BCFD-46DC-A163-26550D595C1F}">
   <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19503,7 +19503,7 @@
         <v>144601016</v>
       </c>
       <c r="G410" s="5">
-        <v>175966912644.5</v>
+        <v>175966912645</v>
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
@@ -28659,13 +28659,13 @@
         <v>44957</v>
       </c>
       <c r="B394" s="5">
-        <v>225.55449999999999</v>
+        <v>225.6113</v>
       </c>
       <c r="C394" s="5">
-        <v>225.55449999999999</v>
+        <v>225.6113</v>
       </c>
       <c r="D394" s="5">
-        <v>225.55449999999999</v>
+        <v>225.6113</v>
       </c>
       <c r="E394" s="5">
         <v>225.6113</v>
@@ -29023,13 +29023,27 @@
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A410" s="3"/>
-      <c r="B410" s="5"/>
-      <c r="C410" s="5"/>
-      <c r="D410" s="5"/>
-      <c r="E410" s="5"/>
-      <c r="F410" s="5"/>
-      <c r="G410" s="5"/>
+      <c r="A410" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B410" s="5">
+        <v>226.02440000000001</v>
+      </c>
+      <c r="C410" s="5">
+        <v>226.02440000000001</v>
+      </c>
+      <c r="D410" s="5">
+        <v>226.02440000000001</v>
+      </c>
+      <c r="E410" s="5">
+        <v>226.02440000000001</v>
+      </c>
+      <c r="F410" s="5">
+        <v>0</v>
+      </c>
+      <c r="G410" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="3"/>
@@ -38185,13 +38199,13 @@
         <v>44957</v>
       </c>
       <c r="B394" s="5">
-        <v>212.48159999999999</v>
+        <v>212.5865</v>
       </c>
       <c r="C394" s="5">
-        <v>212.48159999999999</v>
+        <v>212.5865</v>
       </c>
       <c r="D394" s="5">
-        <v>212.48159999999999</v>
+        <v>212.5865</v>
       </c>
       <c r="E394" s="5">
         <v>212.5865</v>
@@ -38549,13 +38563,27 @@
       </c>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A410" s="3"/>
-      <c r="B410" s="5"/>
-      <c r="C410" s="5"/>
-      <c r="D410" s="5"/>
-      <c r="E410" s="5"/>
-      <c r="F410" s="5"/>
-      <c r="G410" s="5"/>
+      <c r="A410" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B410" s="5">
+        <v>212.71870000000001</v>
+      </c>
+      <c r="C410" s="5">
+        <v>212.71870000000001</v>
+      </c>
+      <c r="D410" s="5">
+        <v>212.71870000000001</v>
+      </c>
+      <c r="E410" s="5">
+        <v>212.71870000000001</v>
+      </c>
+      <c r="F410" s="5">
+        <v>0</v>
+      </c>
+      <c r="G410" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A411" s="3"/>
@@ -38658,7 +38686,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39F584C-6D90-4048-B26D-97D5525D1AA1}">
-  <dimension ref="A1:G338"/>
+  <dimension ref="A1:G339"/>
   <sheetViews>
     <sheetView topLeftCell="A319" workbookViewId="0"/>
   </sheetViews>
@@ -46438,6 +46466,29 @@
       </c>
       <c r="G338" s="5">
         <v>276770040</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A339" s="3">
+        <v>44979</v>
+      </c>
+      <c r="B339" s="5">
+        <v>1065.0383999999999</v>
+      </c>
+      <c r="C339" s="5">
+        <v>1065.0383999999999</v>
+      </c>
+      <c r="D339" s="5">
+        <v>1065.0383999999999</v>
+      </c>
+      <c r="E339" s="5">
+        <v>1065.0383999999999</v>
+      </c>
+      <c r="F339" s="5">
+        <v>383354.1</v>
+      </c>
+      <c r="G339" s="5">
+        <v>218735632</v>
       </c>
     </row>
   </sheetData>
@@ -46466,12 +46517,12 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>44979.681558564815</v>
+        <v>44980.443543171299</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="7">
         <f ca="1">DATE(YEAR(B2),MONTH(B2),DAY(B2))</f>
-        <v>44979</v>
+        <v>44980</v>
       </c>
     </row>
   </sheetData>

--- a/data/业绩比较基准数据.xlsx
+++ b/data/业绩比较基准数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\dataspell-analysis\ds-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7318DB-C830-4761-A10A-E65677D19373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F638A-47F3-44FA-92D6-D3010743FC40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C248513A-B504-4B83-910F-5E7DDAD17B3E}"/>
   </bookViews>
@@ -9965,22 +9965,50 @@
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A411" s="3"/>
-      <c r="B411" s="5"/>
-      <c r="C411" s="5"/>
-      <c r="D411" s="5"/>
-      <c r="E411" s="5"/>
-      <c r="F411" s="5"/>
-      <c r="G411" s="5"/>
+      <c r="A411" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B411" s="5">
+        <v>4106.2136</v>
+      </c>
+      <c r="C411" s="5">
+        <v>4132.3896000000004</v>
+      </c>
+      <c r="D411" s="5">
+        <v>4088.2073</v>
+      </c>
+      <c r="E411" s="5">
+        <v>4103.6463000000003</v>
+      </c>
+      <c r="F411" s="5">
+        <v>103564906</v>
+      </c>
+      <c r="G411" s="5">
+        <v>197193582430.10001</v>
+      </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A412" s="3"/>
-      <c r="B412" s="5"/>
-      <c r="C412" s="5"/>
-      <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
-      <c r="F412" s="5"/>
-      <c r="G412" s="5"/>
+      <c r="A412" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B412" s="5">
+        <v>4100.9897000000001</v>
+      </c>
+      <c r="C412" s="5">
+        <v>4102.6094000000003</v>
+      </c>
+      <c r="D412" s="5">
+        <v>4048.2374</v>
+      </c>
+      <c r="E412" s="5">
+        <v>4061.0457000000001</v>
+      </c>
+      <c r="F412" s="5">
+        <v>100989425</v>
+      </c>
+      <c r="G412" s="5">
+        <v>191210465053.20001</v>
+      </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="3"/>
@@ -19507,22 +19535,50 @@
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A411" s="3"/>
-      <c r="B411" s="5"/>
-      <c r="C411" s="5"/>
-      <c r="D411" s="5"/>
-      <c r="E411" s="5"/>
-      <c r="F411" s="5"/>
-      <c r="G411" s="5"/>
+      <c r="A411" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B411" s="5">
+        <v>6997.7825999999995</v>
+      </c>
+      <c r="C411" s="5">
+        <v>7008.6785</v>
+      </c>
+      <c r="D411" s="5">
+        <v>6929.6117000000004</v>
+      </c>
+      <c r="E411" s="5">
+        <v>6966.7866000000004</v>
+      </c>
+      <c r="F411" s="5">
+        <v>141862467</v>
+      </c>
+      <c r="G411" s="5">
+        <v>172438837845</v>
+      </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A412" s="3"/>
-      <c r="B412" s="5"/>
-      <c r="C412" s="5"/>
-      <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
-      <c r="F412" s="5"/>
-      <c r="G412" s="5"/>
+      <c r="A412" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B412" s="5">
+        <v>6971.6486000000004</v>
+      </c>
+      <c r="C412" s="5">
+        <v>6983.1602999999996</v>
+      </c>
+      <c r="D412" s="5">
+        <v>6906.6857</v>
+      </c>
+      <c r="E412" s="5">
+        <v>6944.8239999999996</v>
+      </c>
+      <c r="F412" s="5">
+        <v>121078826</v>
+      </c>
+      <c r="G412" s="5">
+        <v>151978026582.39999</v>
+      </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="3"/>
@@ -29046,13 +29102,27 @@
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A411" s="3"/>
-      <c r="B411" s="5"/>
-      <c r="C411" s="5"/>
-      <c r="D411" s="5"/>
-      <c r="E411" s="5"/>
-      <c r="F411" s="5"/>
-      <c r="G411" s="5"/>
+      <c r="A411" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B411" s="5">
+        <v>226.02539999999999</v>
+      </c>
+      <c r="C411" s="5">
+        <v>226.02539999999999</v>
+      </c>
+      <c r="D411" s="5">
+        <v>226.02539999999999</v>
+      </c>
+      <c r="E411" s="5">
+        <v>226.02539999999999</v>
+      </c>
+      <c r="F411" s="5">
+        <v>0</v>
+      </c>
+      <c r="G411" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="3"/>
@@ -38586,13 +38656,27 @@
       </c>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A411" s="3"/>
-      <c r="B411" s="5"/>
-      <c r="C411" s="5"/>
-      <c r="D411" s="5"/>
-      <c r="E411" s="5"/>
-      <c r="F411" s="5"/>
-      <c r="G411" s="5"/>
+      <c r="A411" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B411" s="5">
+        <v>212.73689999999999</v>
+      </c>
+      <c r="C411" s="5">
+        <v>212.73689999999999</v>
+      </c>
+      <c r="D411" s="5">
+        <v>212.73689999999999</v>
+      </c>
+      <c r="E411" s="5">
+        <v>212.73689999999999</v>
+      </c>
+      <c r="F411" s="5">
+        <v>0</v>
+      </c>
+      <c r="G411" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A412" s="3"/>
@@ -38686,7 +38770,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39F584C-6D90-4048-B26D-97D5525D1AA1}">
-  <dimension ref="A1:G339"/>
+  <dimension ref="A1:G340"/>
   <sheetViews>
     <sheetView topLeftCell="A319" workbookViewId="0"/>
   </sheetViews>
@@ -46489,6 +46573,29 @@
       </c>
       <c r="G339" s="5">
         <v>218735632</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A340" s="3">
+        <v>44980</v>
+      </c>
+      <c r="B340" s="5">
+        <v>1060.7081000000001</v>
+      </c>
+      <c r="C340" s="5">
+        <v>1060.7081000000001</v>
+      </c>
+      <c r="D340" s="5">
+        <v>1060.7081000000001</v>
+      </c>
+      <c r="E340" s="5">
+        <v>1060.7081000000001</v>
+      </c>
+      <c r="F340" s="5">
+        <v>343140.35</v>
+      </c>
+      <c r="G340" s="5">
+        <v>196715160</v>
       </c>
     </row>
   </sheetData>
@@ -46517,12 +46624,12 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>44980.443543171299</v>
+        <v>44981.651907407409</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="7">
         <f ca="1">DATE(YEAR(B2),MONTH(B2),DAY(B2))</f>
-        <v>44980</v>
+        <v>44981</v>
       </c>
     </row>
   </sheetData>

--- a/data/业绩比较基准数据.xlsx
+++ b/data/业绩比较基准数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\dataspell-analysis\ds-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F638A-47F3-44FA-92D6-D3010743FC40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8329E7-C790-4814-93B1-49E211D3E8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C248513A-B504-4B83-910F-5E7DDAD17B3E}"/>
   </bookViews>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D65061-BCFD-46DC-A163-26550D595C1F}">
   <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10011,13 +10011,27 @@
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A413" s="3"/>
-      <c r="B413" s="5"/>
-      <c r="C413" s="5"/>
-      <c r="D413" s="5"/>
-      <c r="E413" s="5"/>
-      <c r="F413" s="5"/>
-      <c r="G413" s="5"/>
+      <c r="A413" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B413" s="5">
+        <v>4040.4571000000001</v>
+      </c>
+      <c r="C413" s="5">
+        <v>4067.0295999999998</v>
+      </c>
+      <c r="D413" s="5">
+        <v>4034.5237000000002</v>
+      </c>
+      <c r="E413" s="5">
+        <v>4043.8444</v>
+      </c>
+      <c r="F413" s="5">
+        <v>93787630</v>
+      </c>
+      <c r="G413" s="5">
+        <v>187959491145.29999</v>
+      </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
@@ -19577,17 +19591,31 @@
         <v>121078826</v>
       </c>
       <c r="G412" s="5">
-        <v>151978026582.39999</v>
+        <v>151978026582</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A413" s="3"/>
-      <c r="B413" s="5"/>
-      <c r="C413" s="5"/>
-      <c r="D413" s="5"/>
-      <c r="E413" s="5"/>
-      <c r="F413" s="5"/>
-      <c r="G413" s="5"/>
+      <c r="A413" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B413" s="5">
+        <v>6928.0343999999996</v>
+      </c>
+      <c r="C413" s="5">
+        <v>6950.8831</v>
+      </c>
+      <c r="D413" s="5">
+        <v>6876.2536</v>
+      </c>
+      <c r="E413" s="5">
+        <v>6894.2959000000001</v>
+      </c>
+      <c r="F413" s="5">
+        <v>129300939</v>
+      </c>
+      <c r="G413" s="5">
+        <v>162346177199</v>
+      </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
@@ -28715,13 +28743,13 @@
         <v>44957</v>
       </c>
       <c r="B394" s="5">
-        <v>225.6113</v>
+        <v>225.55449999999999</v>
       </c>
       <c r="C394" s="5">
-        <v>225.6113</v>
+        <v>225.55449999999999</v>
       </c>
       <c r="D394" s="5">
-        <v>225.6113</v>
+        <v>225.55449999999999</v>
       </c>
       <c r="E394" s="5">
         <v>225.6113</v>
@@ -29125,22 +29153,50 @@
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A412" s="3"/>
-      <c r="B412" s="5"/>
-      <c r="C412" s="5"/>
-      <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
-      <c r="F412" s="5"/>
-      <c r="G412" s="5"/>
+      <c r="A412" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B412" s="5">
+        <v>226.00450000000001</v>
+      </c>
+      <c r="C412" s="5">
+        <v>226.00450000000001</v>
+      </c>
+      <c r="D412" s="5">
+        <v>226.00450000000001</v>
+      </c>
+      <c r="E412" s="5">
+        <v>226.00450000000001</v>
+      </c>
+      <c r="F412" s="5">
+        <v>0</v>
+      </c>
+      <c r="G412" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A413" s="3"/>
-      <c r="B413" s="5"/>
-      <c r="C413" s="5"/>
-      <c r="D413" s="5"/>
-      <c r="E413" s="5"/>
-      <c r="F413" s="5"/>
-      <c r="G413" s="5"/>
+      <c r="A413" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B413" s="5">
+        <v>226.07509999999999</v>
+      </c>
+      <c r="C413" s="5">
+        <v>226.07509999999999</v>
+      </c>
+      <c r="D413" s="5">
+        <v>226.07509999999999</v>
+      </c>
+      <c r="E413" s="5">
+        <v>226.07509999999999</v>
+      </c>
+      <c r="F413" s="5">
+        <v>0</v>
+      </c>
+      <c r="G413" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
@@ -38269,13 +38325,13 @@
         <v>44957</v>
       </c>
       <c r="B394" s="5">
-        <v>212.5865</v>
+        <v>212.48159999999999</v>
       </c>
       <c r="C394" s="5">
-        <v>212.5865</v>
+        <v>212.48159999999999</v>
       </c>
       <c r="D394" s="5">
-        <v>212.5865</v>
+        <v>212.48159999999999</v>
       </c>
       <c r="E394" s="5">
         <v>212.5865</v>
@@ -38679,22 +38735,50 @@
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A412" s="3"/>
-      <c r="B412" s="5"/>
-      <c r="C412" s="5"/>
-      <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
-      <c r="F412" s="5"/>
-      <c r="G412" s="5"/>
+      <c r="A412" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B412" s="5">
+        <v>212.72800000000001</v>
+      </c>
+      <c r="C412" s="5">
+        <v>212.72800000000001</v>
+      </c>
+      <c r="D412" s="5">
+        <v>212.72800000000001</v>
+      </c>
+      <c r="E412" s="5">
+        <v>212.72800000000001</v>
+      </c>
+      <c r="F412" s="5">
+        <v>0</v>
+      </c>
+      <c r="G412" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A413" s="3"/>
-      <c r="B413" s="5"/>
-      <c r="C413" s="5"/>
-      <c r="D413" s="5"/>
-      <c r="E413" s="5"/>
-      <c r="F413" s="5"/>
-      <c r="G413" s="5"/>
+      <c r="A413" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B413" s="5">
+        <v>212.7979</v>
+      </c>
+      <c r="C413" s="5">
+        <v>212.7979</v>
+      </c>
+      <c r="D413" s="5">
+        <v>212.7979</v>
+      </c>
+      <c r="E413" s="5">
+        <v>212.7979</v>
+      </c>
+      <c r="F413" s="5">
+        <v>0</v>
+      </c>
+      <c r="G413" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
@@ -38770,7 +38854,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39F584C-6D90-4048-B26D-97D5525D1AA1}">
-  <dimension ref="A1:G340"/>
+  <dimension ref="A1:G342"/>
   <sheetViews>
     <sheetView topLeftCell="A319" workbookViewId="0"/>
   </sheetViews>
@@ -46596,6 +46680,52 @@
       </c>
       <c r="G340" s="5">
         <v>196715160</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A341" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B341" s="5">
+        <v>1054.6912</v>
+      </c>
+      <c r="C341" s="5">
+        <v>1054.6912</v>
+      </c>
+      <c r="D341" s="5">
+        <v>1054.6912</v>
+      </c>
+      <c r="E341" s="5">
+        <v>1054.6912</v>
+      </c>
+      <c r="F341" s="5">
+        <v>351781.9</v>
+      </c>
+      <c r="G341" s="5">
+        <v>196112313</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A342" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B342" s="5">
+        <v>1049.6072999999999</v>
+      </c>
+      <c r="C342" s="5">
+        <v>1049.6072999999999</v>
+      </c>
+      <c r="D342" s="5">
+        <v>1049.6072999999999</v>
+      </c>
+      <c r="E342" s="5">
+        <v>1049.6072999999999</v>
+      </c>
+      <c r="F342" s="5">
+        <v>405946.07</v>
+      </c>
+      <c r="G342" s="5">
+        <v>230054925</v>
       </c>
     </row>
   </sheetData>
@@ -46624,12 +46754,12 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>44981.651907407409</v>
+        <v>44985.416069212966</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="7">
         <f ca="1">DATE(YEAR(B2),MONTH(B2),DAY(B2))</f>
-        <v>44981</v>
+        <v>44985</v>
       </c>
     </row>
   </sheetData>

--- a/data/业绩比较基准数据.xlsx
+++ b/data/业绩比较基准数据.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\dataspell-analysis\ds-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A4F638A-47F3-44FA-92D6-D3010743FC40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4E46BF-DEB3-447D-A517-5862603838CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C248513A-B504-4B83-910F-5E7DDAD17B3E}"/>
   </bookViews>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D65061-BCFD-46DC-A163-26550D595C1F}">
   <dimension ref="A1:G421"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A400" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10011,13 +10011,27 @@
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A413" s="3"/>
-      <c r="B413" s="5"/>
-      <c r="C413" s="5"/>
-      <c r="D413" s="5"/>
-      <c r="E413" s="5"/>
-      <c r="F413" s="5"/>
-      <c r="G413" s="5"/>
+      <c r="A413" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B413" s="5">
+        <v>4040.4571000000001</v>
+      </c>
+      <c r="C413" s="5">
+        <v>4067.0295999999998</v>
+      </c>
+      <c r="D413" s="5">
+        <v>4034.5237000000002</v>
+      </c>
+      <c r="E413" s="5">
+        <v>4043.8444</v>
+      </c>
+      <c r="F413" s="5">
+        <v>93787630</v>
+      </c>
+      <c r="G413" s="5">
+        <v>187959491145.29999</v>
+      </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
@@ -19577,17 +19591,31 @@
         <v>121078826</v>
       </c>
       <c r="G412" s="5">
-        <v>151978026582.39999</v>
+        <v>151978026582</v>
       </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A413" s="3"/>
-      <c r="B413" s="5"/>
-      <c r="C413" s="5"/>
-      <c r="D413" s="5"/>
-      <c r="E413" s="5"/>
-      <c r="F413" s="5"/>
-      <c r="G413" s="5"/>
+      <c r="A413" s="3">
+        <v>44984</v>
+      </c>
+      <c r="B413" s="5">
+        <v>6928.0343999999996</v>
+      </c>
+      <c r="C413" s="5">
+        <v>6950.8831</v>
+      </c>
+      <c r="D413" s="5">
+        <v>6876.2536</v>
+      </c>
+      <c r="E413" s="5">
+        <v>6894.2959000000001</v>
+      </c>
+      <c r="F413" s="5">
+        <v>129300939</v>
+      </c>
+      <c r="G413" s="5">
+        <v>162346177198.5</v>
+      </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A414" s="3"/>
@@ -29125,13 +29153,27 @@
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A412" s="3"/>
-      <c r="B412" s="5"/>
-      <c r="C412" s="5"/>
-      <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
-      <c r="F412" s="5"/>
-      <c r="G412" s="5"/>
+      <c r="A412" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B412" s="5">
+        <v>226.00450000000001</v>
+      </c>
+      <c r="C412" s="5">
+        <v>226.00450000000001</v>
+      </c>
+      <c r="D412" s="5">
+        <v>226.00450000000001</v>
+      </c>
+      <c r="E412" s="5">
+        <v>226.00450000000001</v>
+      </c>
+      <c r="F412" s="5">
+        <v>0</v>
+      </c>
+      <c r="G412" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="3"/>
@@ -38679,13 +38721,27 @@
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A412" s="3"/>
-      <c r="B412" s="5"/>
-      <c r="C412" s="5"/>
-      <c r="D412" s="5"/>
-      <c r="E412" s="5"/>
-      <c r="F412" s="5"/>
-      <c r="G412" s="5"/>
+      <c r="A412" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B412" s="5">
+        <v>212.72800000000001</v>
+      </c>
+      <c r="C412" s="5">
+        <v>212.72800000000001</v>
+      </c>
+      <c r="D412" s="5">
+        <v>212.72800000000001</v>
+      </c>
+      <c r="E412" s="5">
+        <v>212.72800000000001</v>
+      </c>
+      <c r="F412" s="5">
+        <v>0</v>
+      </c>
+      <c r="G412" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A413" s="3"/>
@@ -38770,7 +38826,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39F584C-6D90-4048-B26D-97D5525D1AA1}">
-  <dimension ref="A1:G340"/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
     <sheetView topLeftCell="A319" workbookViewId="0"/>
   </sheetViews>
@@ -46596,6 +46652,29 @@
       </c>
       <c r="G340" s="5">
         <v>196715160</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A341" s="3">
+        <v>44981</v>
+      </c>
+      <c r="B341" s="5">
+        <v>1054.6912</v>
+      </c>
+      <c r="C341" s="5">
+        <v>1054.6912</v>
+      </c>
+      <c r="D341" s="5">
+        <v>1054.6912</v>
+      </c>
+      <c r="E341" s="5">
+        <v>1054.6912</v>
+      </c>
+      <c r="F341" s="5">
+        <v>351781.9</v>
+      </c>
+      <c r="G341" s="5">
+        <v>196112313</v>
       </c>
     </row>
   </sheetData>
@@ -46624,12 +46703,12 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>44981.651907407409</v>
+        <v>44984.683722800924</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="7">
         <f ca="1">DATE(YEAR(B2),MONTH(B2),DAY(B2))</f>
-        <v>44981</v>
+        <v>44984</v>
       </c>
     </row>
   </sheetData>

--- a/data/业绩比较基准数据.xlsx
+++ b/data/业绩比较基准数据.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Project\dataspell-analysis\ds-project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F8329E7-C790-4814-93B1-49E211D3E8E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2A33CD-501B-4BAE-B814-29B6DABE0758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C248513A-B504-4B83-910F-5E7DDAD17B3E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{C248513A-B504-4B83-910F-5E7DDAD17B3E}"/>
   </bookViews>
   <sheets>
     <sheet name="沪深300指数" sheetId="1" r:id="rId1"/>
@@ -524,9 +524,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D65061-BCFD-46DC-A163-26550D595C1F}">
-  <dimension ref="A1:G421"/>
+  <dimension ref="A1:G424"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A397" workbookViewId="0"/>
+    <sheetView topLeftCell="A403" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -10034,70 +10034,257 @@
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A414" s="3"/>
-      <c r="B414" s="5"/>
-      <c r="C414" s="5"/>
-      <c r="D414" s="5"/>
-      <c r="E414" s="5"/>
-      <c r="F414" s="5"/>
-      <c r="G414" s="5"/>
+      <c r="A414" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B414" s="5">
+        <v>4058.1298000000002</v>
+      </c>
+      <c r="C414" s="5">
+        <v>4074.2638999999999</v>
+      </c>
+      <c r="D414" s="5">
+        <v>4026.4476</v>
+      </c>
+      <c r="E414" s="5">
+        <v>4069.4587000000001</v>
+      </c>
+      <c r="F414" s="5">
+        <v>110323591</v>
+      </c>
+      <c r="G414" s="5">
+        <v>198799712379.10001</v>
+      </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A415" s="3"/>
-      <c r="B415" s="5"/>
-      <c r="C415" s="5"/>
-      <c r="D415" s="5"/>
-      <c r="E415" s="5"/>
-      <c r="F415" s="5"/>
-      <c r="G415" s="5"/>
+      <c r="A415" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B415" s="5">
+        <v>4068.7330999999999</v>
+      </c>
+      <c r="C415" s="5">
+        <v>4135.4812000000002</v>
+      </c>
+      <c r="D415" s="5">
+        <v>4061.2166999999999</v>
+      </c>
+      <c r="E415" s="5">
+        <v>4126.9414999999999</v>
+      </c>
+      <c r="F415" s="5">
+        <v>156015794</v>
+      </c>
+      <c r="G415" s="5">
+        <v>255374791015.70001</v>
+      </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A416" s="3"/>
-      <c r="B416" s="5"/>
-      <c r="C416" s="5"/>
-      <c r="D416" s="5"/>
-      <c r="E416" s="5"/>
-      <c r="F416" s="5"/>
-      <c r="G416" s="5"/>
+      <c r="A416" s="3">
+        <v>44987</v>
+      </c>
+      <c r="B416" s="5">
+        <v>4119.9919</v>
+      </c>
+      <c r="C416" s="5">
+        <v>4137.2524999999996</v>
+      </c>
+      <c r="D416" s="5">
+        <v>4113.8263999999999</v>
+      </c>
+      <c r="E416" s="5">
+        <v>4117.7376999999997</v>
+      </c>
+      <c r="F416" s="5">
+        <v>148217637</v>
+      </c>
+      <c r="G416" s="5">
+        <v>235953764969.5</v>
+      </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A417" s="3"/>
-      <c r="B417" s="5"/>
-      <c r="C417" s="5"/>
-      <c r="D417" s="5"/>
-      <c r="E417" s="5"/>
-      <c r="F417" s="5"/>
-      <c r="G417" s="5"/>
+      <c r="A417" s="3">
+        <v>44988</v>
+      </c>
+      <c r="B417" s="5">
+        <v>4126.0182999999997</v>
+      </c>
+      <c r="C417" s="5">
+        <v>4135.2115999999996</v>
+      </c>
+      <c r="D417" s="5">
+        <v>4100.3827000000001</v>
+      </c>
+      <c r="E417" s="5">
+        <v>4130.5513000000001</v>
+      </c>
+      <c r="F417" s="5">
+        <v>160331741</v>
+      </c>
+      <c r="G417" s="5">
+        <v>226914545628.39999</v>
+      </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A418" s="3"/>
-      <c r="B418" s="5"/>
-      <c r="C418" s="5"/>
-      <c r="D418" s="5"/>
-      <c r="E418" s="5"/>
-      <c r="F418" s="5"/>
-      <c r="G418" s="5"/>
+      <c r="A418" s="3">
+        <v>44991</v>
+      </c>
+      <c r="B418" s="5">
+        <v>4131.1525000000001</v>
+      </c>
+      <c r="C418" s="5">
+        <v>4132.8366999999998</v>
+      </c>
+      <c r="D418" s="5">
+        <v>4088.4484000000002</v>
+      </c>
+      <c r="E418" s="5">
+        <v>4109.0101999999997</v>
+      </c>
+      <c r="F418" s="5">
+        <v>162971807</v>
+      </c>
+      <c r="G418" s="5">
+        <v>283079861971.5</v>
+      </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A419" s="3"/>
-      <c r="B419" s="5"/>
-      <c r="C419" s="5"/>
-      <c r="D419" s="5"/>
-      <c r="E419" s="5"/>
-      <c r="F419" s="5"/>
-      <c r="G419" s="5"/>
+      <c r="A419" s="3">
+        <v>44992</v>
+      </c>
+      <c r="B419" s="5">
+        <v>4103.6418999999996</v>
+      </c>
+      <c r="C419" s="5">
+        <v>4124.9609</v>
+      </c>
+      <c r="D419" s="5">
+        <v>4046.5679</v>
+      </c>
+      <c r="E419" s="5">
+        <v>4048.8519000000001</v>
+      </c>
+      <c r="F419" s="5">
+        <v>195912068</v>
+      </c>
+      <c r="G419" s="5">
+        <v>272491994009.20001</v>
+      </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A420" s="3"/>
-      <c r="B420" s="5"/>
-      <c r="C420" s="5"/>
-      <c r="D420" s="5"/>
-      <c r="E420" s="5"/>
-      <c r="F420" s="5"/>
-      <c r="G420" s="5"/>
+      <c r="A420" s="3">
+        <v>44993</v>
+      </c>
+      <c r="B420" s="5">
+        <v>4030.7386999999999</v>
+      </c>
+      <c r="C420" s="5">
+        <v>4037.2869999999998</v>
+      </c>
+      <c r="D420" s="5">
+        <v>4011.5230999999999</v>
+      </c>
+      <c r="E420" s="5">
+        <v>4034.1077</v>
+      </c>
+      <c r="F420" s="5">
+        <v>117936493</v>
+      </c>
+      <c r="G420" s="5">
+        <v>191659655190.89999</v>
+      </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A421" s="3"/>
+      <c r="A421" s="3">
+        <v>44994</v>
+      </c>
+      <c r="B421" s="5">
+        <v>4035.8433</v>
+      </c>
+      <c r="C421" s="5">
+        <v>4043.8492999999999</v>
+      </c>
+      <c r="D421" s="5">
+        <v>4000.8901000000001</v>
+      </c>
+      <c r="E421" s="5">
+        <v>4019.8505</v>
+      </c>
+      <c r="F421" s="5">
+        <v>116539629</v>
+      </c>
+      <c r="G421" s="5">
+        <v>201737990686.79999</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A422" s="3">
+        <v>44995</v>
+      </c>
+      <c r="B422" s="5">
+        <v>3991.7959000000001</v>
+      </c>
+      <c r="C422" s="5">
+        <v>4004.3611999999998</v>
+      </c>
+      <c r="D422" s="5">
+        <v>3966.4279999999999</v>
+      </c>
+      <c r="E422" s="5">
+        <v>3967.1352000000002</v>
+      </c>
+      <c r="F422" s="5">
+        <v>123855409</v>
+      </c>
+      <c r="G422" s="5">
+        <v>218286956131</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A423" s="3">
+        <v>44998</v>
+      </c>
+      <c r="B423" s="5">
+        <v>3962.6426000000001</v>
+      </c>
+      <c r="C423" s="5">
+        <v>4008.6860000000001</v>
+      </c>
+      <c r="D423" s="5">
+        <v>3962.6426000000001</v>
+      </c>
+      <c r="E423" s="5">
+        <v>4008.6860000000001</v>
+      </c>
+      <c r="F423" s="5">
+        <v>143561370</v>
+      </c>
+      <c r="G423" s="5">
+        <v>242865516757.60001</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A424" s="3">
+        <v>44999</v>
+      </c>
+      <c r="B424" s="5">
+        <v>3999.8802999999998</v>
+      </c>
+      <c r="C424" s="5">
+        <v>4001.9414999999999</v>
+      </c>
+      <c r="D424" s="5">
+        <v>3946.9405000000002</v>
+      </c>
+      <c r="E424" s="5">
+        <v>3984.6956</v>
+      </c>
+      <c r="F424" s="5">
+        <v>150544174</v>
+      </c>
+      <c r="G424" s="5">
+        <v>267224848810.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10108,9 +10295,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97CEB2F0-8AF2-4FCB-952D-16E7F3CB5E48}">
-  <dimension ref="A1:G421"/>
+  <dimension ref="A1:G424"/>
   <sheetViews>
-    <sheetView topLeftCell="A391" workbookViewId="0"/>
+    <sheetView topLeftCell="A412" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19618,70 +19805,257 @@
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A414" s="3"/>
-      <c r="B414" s="5"/>
-      <c r="C414" s="5"/>
-      <c r="D414" s="5"/>
-      <c r="E414" s="5"/>
-      <c r="F414" s="5"/>
-      <c r="G414" s="5"/>
+      <c r="A414" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B414" s="5">
+        <v>6911.3624</v>
+      </c>
+      <c r="C414" s="5">
+        <v>6955.5736999999999</v>
+      </c>
+      <c r="D414" s="5">
+        <v>6874.9252999999999</v>
+      </c>
+      <c r="E414" s="5">
+        <v>6955.5736999999999</v>
+      </c>
+      <c r="F414" s="5">
+        <v>131036025</v>
+      </c>
+      <c r="G414" s="5">
+        <v>164461396666</v>
+      </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A415" s="3"/>
-      <c r="B415" s="5"/>
-      <c r="C415" s="5"/>
-      <c r="D415" s="5"/>
-      <c r="E415" s="5"/>
-      <c r="F415" s="5"/>
-      <c r="G415" s="5"/>
+      <c r="A415" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B415" s="5">
+        <v>6955.4817000000003</v>
+      </c>
+      <c r="C415" s="5">
+        <v>7002.7710999999999</v>
+      </c>
+      <c r="D415" s="5">
+        <v>6932.7566999999999</v>
+      </c>
+      <c r="E415" s="5">
+        <v>7002.7710999999999</v>
+      </c>
+      <c r="F415" s="5">
+        <v>155908555</v>
+      </c>
+      <c r="G415" s="5">
+        <v>194162937429</v>
+      </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A416" s="3"/>
-      <c r="B416" s="5"/>
-      <c r="C416" s="5"/>
-      <c r="D416" s="5"/>
-      <c r="E416" s="5"/>
-      <c r="F416" s="5"/>
-      <c r="G416" s="5"/>
+      <c r="A416" s="3">
+        <v>44987</v>
+      </c>
+      <c r="B416" s="5">
+        <v>6999.2322000000004</v>
+      </c>
+      <c r="C416" s="5">
+        <v>7021.1088</v>
+      </c>
+      <c r="D416" s="5">
+        <v>6963.0554000000002</v>
+      </c>
+      <c r="E416" s="5">
+        <v>6972.3062</v>
+      </c>
+      <c r="F416" s="5">
+        <v>166505708</v>
+      </c>
+      <c r="G416" s="5">
+        <v>202422136342</v>
+      </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A417" s="3"/>
-      <c r="B417" s="5"/>
-      <c r="C417" s="5"/>
-      <c r="D417" s="5"/>
-      <c r="E417" s="5"/>
-      <c r="F417" s="5"/>
-      <c r="G417" s="5"/>
+      <c r="A417" s="3">
+        <v>44988</v>
+      </c>
+      <c r="B417" s="5">
+        <v>6970.2132000000001</v>
+      </c>
+      <c r="C417" s="5">
+        <v>6997.4245000000001</v>
+      </c>
+      <c r="D417" s="5">
+        <v>6921.2668999999996</v>
+      </c>
+      <c r="E417" s="5">
+        <v>6967.94</v>
+      </c>
+      <c r="F417" s="5">
+        <v>154598247</v>
+      </c>
+      <c r="G417" s="5">
+        <v>184879618935</v>
+      </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A418" s="3"/>
-      <c r="B418" s="5"/>
-      <c r="C418" s="5"/>
-      <c r="D418" s="5"/>
-      <c r="E418" s="5"/>
-      <c r="F418" s="5"/>
-      <c r="G418" s="5"/>
+      <c r="A418" s="3">
+        <v>44991</v>
+      </c>
+      <c r="B418" s="5">
+        <v>6973.5226000000002</v>
+      </c>
+      <c r="C418" s="5">
+        <v>7004.7097000000003</v>
+      </c>
+      <c r="D418" s="5">
+        <v>6933.9929000000002</v>
+      </c>
+      <c r="E418" s="5">
+        <v>6997.0443999999998</v>
+      </c>
+      <c r="F418" s="5">
+        <v>150317134</v>
+      </c>
+      <c r="G418" s="5">
+        <v>194154258048</v>
+      </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A419" s="3"/>
-      <c r="B419" s="5"/>
-      <c r="C419" s="5"/>
-      <c r="D419" s="5"/>
-      <c r="E419" s="5"/>
-      <c r="F419" s="5"/>
-      <c r="G419" s="5"/>
+      <c r="A419" s="3">
+        <v>44992</v>
+      </c>
+      <c r="B419" s="5">
+        <v>6991.5594000000001</v>
+      </c>
+      <c r="C419" s="5">
+        <v>6993.1770999999999</v>
+      </c>
+      <c r="D419" s="5">
+        <v>6855.3434999999999</v>
+      </c>
+      <c r="E419" s="5">
+        <v>6855.3434999999999</v>
+      </c>
+      <c r="F419" s="5">
+        <v>159757780</v>
+      </c>
+      <c r="G419" s="5">
+        <v>189478401770</v>
+      </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A420" s="3"/>
-      <c r="B420" s="5"/>
-      <c r="C420" s="5"/>
-      <c r="D420" s="5"/>
-      <c r="E420" s="5"/>
-      <c r="F420" s="5"/>
-      <c r="G420" s="5"/>
+      <c r="A420" s="3">
+        <v>44993</v>
+      </c>
+      <c r="B420" s="5">
+        <v>6838.6286</v>
+      </c>
+      <c r="C420" s="5">
+        <v>6894.3639000000003</v>
+      </c>
+      <c r="D420" s="5">
+        <v>6832.0371999999998</v>
+      </c>
+      <c r="E420" s="5">
+        <v>6891.4556000000002</v>
+      </c>
+      <c r="F420" s="5">
+        <v>121280600</v>
+      </c>
+      <c r="G420" s="5">
+        <v>152705779612</v>
+      </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A421" s="3"/>
+      <c r="A421" s="3">
+        <v>44994</v>
+      </c>
+      <c r="B421" s="5">
+        <v>6898.2397000000001</v>
+      </c>
+      <c r="C421" s="5">
+        <v>6911.5384000000004</v>
+      </c>
+      <c r="D421" s="5">
+        <v>6851.9088000000002</v>
+      </c>
+      <c r="E421" s="5">
+        <v>6892.8564999999999</v>
+      </c>
+      <c r="F421" s="5">
+        <v>126671261</v>
+      </c>
+      <c r="G421" s="5">
+        <v>155909335205</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A422" s="3">
+        <v>44995</v>
+      </c>
+      <c r="B422" s="5">
+        <v>6854.4101000000001</v>
+      </c>
+      <c r="C422" s="5">
+        <v>6864.9350999999997</v>
+      </c>
+      <c r="D422" s="5">
+        <v>6795.2231000000002</v>
+      </c>
+      <c r="E422" s="5">
+        <v>6798.2987000000003</v>
+      </c>
+      <c r="F422" s="5">
+        <v>140338591</v>
+      </c>
+      <c r="G422" s="5">
+        <v>170506323948</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A423" s="3">
+        <v>44998</v>
+      </c>
+      <c r="B423" s="5">
+        <v>6780.0226000000002</v>
+      </c>
+      <c r="C423" s="5">
+        <v>6832.6210000000001</v>
+      </c>
+      <c r="D423" s="5">
+        <v>6750.2187999999996</v>
+      </c>
+      <c r="E423" s="5">
+        <v>6832.6210000000001</v>
+      </c>
+      <c r="F423" s="5">
+        <v>141191187</v>
+      </c>
+      <c r="G423" s="5">
+        <v>176170851055</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A424" s="3">
+        <v>44999</v>
+      </c>
+      <c r="B424" s="5">
+        <v>6824.2480999999998</v>
+      </c>
+      <c r="C424" s="5">
+        <v>6824.2480999999998</v>
+      </c>
+      <c r="D424" s="5">
+        <v>6690.0864000000001</v>
+      </c>
+      <c r="E424" s="5">
+        <v>6769.8491000000004</v>
+      </c>
+      <c r="F424" s="5">
+        <v>156336435</v>
+      </c>
+      <c r="G424" s="5">
+        <v>197124650947</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -19691,9 +20065,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82959531-E717-4F8B-BB5A-0A74A73B6DAC}">
-  <dimension ref="A1:G421"/>
+  <dimension ref="A1:G424"/>
   <sheetViews>
-    <sheetView topLeftCell="A391" workbookViewId="0"/>
+    <sheetView topLeftCell="A415" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -28743,13 +29117,13 @@
         <v>44957</v>
       </c>
       <c r="B394" s="5">
-        <v>225.55449999999999</v>
+        <v>225.6113</v>
       </c>
       <c r="C394" s="5">
-        <v>225.55449999999999</v>
+        <v>225.6113</v>
       </c>
       <c r="D394" s="5">
-        <v>225.55449999999999</v>
+        <v>225.6113</v>
       </c>
       <c r="E394" s="5">
         <v>225.6113</v>
@@ -29199,70 +29573,257 @@
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A414" s="3"/>
-      <c r="B414" s="5"/>
-      <c r="C414" s="5"/>
-      <c r="D414" s="5"/>
-      <c r="E414" s="5"/>
-      <c r="F414" s="5"/>
-      <c r="G414" s="5"/>
+      <c r="A414" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B414" s="5">
+        <v>226.06960000000001</v>
+      </c>
+      <c r="C414" s="5">
+        <v>226.06960000000001</v>
+      </c>
+      <c r="D414" s="5">
+        <v>226.06960000000001</v>
+      </c>
+      <c r="E414" s="5">
+        <v>226.06960000000001</v>
+      </c>
+      <c r="F414" s="5">
+        <v>0</v>
+      </c>
+      <c r="G414" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A415" s="3"/>
-      <c r="B415" s="5"/>
-      <c r="C415" s="5"/>
-      <c r="D415" s="5"/>
-      <c r="E415" s="5"/>
-      <c r="F415" s="5"/>
-      <c r="G415" s="5"/>
+      <c r="A415" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B415" s="5">
+        <v>226.12729999999999</v>
+      </c>
+      <c r="C415" s="5">
+        <v>226.12729999999999</v>
+      </c>
+      <c r="D415" s="5">
+        <v>226.12729999999999</v>
+      </c>
+      <c r="E415" s="5">
+        <v>226.12729999999999</v>
+      </c>
+      <c r="F415" s="5">
+        <v>0</v>
+      </c>
+      <c r="G415" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A416" s="3"/>
-      <c r="B416" s="5"/>
-      <c r="C416" s="5"/>
-      <c r="D416" s="5"/>
-      <c r="E416" s="5"/>
-      <c r="F416" s="5"/>
-      <c r="G416" s="5"/>
+      <c r="A416" s="3">
+        <v>44987</v>
+      </c>
+      <c r="B416" s="5">
+        <v>226.11709999999999</v>
+      </c>
+      <c r="C416" s="5">
+        <v>226.11709999999999</v>
+      </c>
+      <c r="D416" s="5">
+        <v>226.11709999999999</v>
+      </c>
+      <c r="E416" s="5">
+        <v>226.11709999999999</v>
+      </c>
+      <c r="F416" s="5">
+        <v>0</v>
+      </c>
+      <c r="G416" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A417" s="3"/>
-      <c r="B417" s="5"/>
-      <c r="C417" s="5"/>
-      <c r="D417" s="5"/>
-      <c r="E417" s="5"/>
-      <c r="F417" s="5"/>
-      <c r="G417" s="5"/>
+      <c r="A417" s="3">
+        <v>44988</v>
+      </c>
+      <c r="B417" s="5">
+        <v>226.06890000000001</v>
+      </c>
+      <c r="C417" s="5">
+        <v>226.06890000000001</v>
+      </c>
+      <c r="D417" s="5">
+        <v>226.06890000000001</v>
+      </c>
+      <c r="E417" s="5">
+        <v>226.06890000000001</v>
+      </c>
+      <c r="F417" s="5">
+        <v>0</v>
+      </c>
+      <c r="G417" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A418" s="3"/>
-      <c r="B418" s="5"/>
-      <c r="C418" s="5"/>
-      <c r="D418" s="5"/>
-      <c r="E418" s="5"/>
-      <c r="F418" s="5"/>
-      <c r="G418" s="5"/>
+      <c r="A418" s="3">
+        <v>44991</v>
+      </c>
+      <c r="B418" s="5">
+        <v>226.3271</v>
+      </c>
+      <c r="C418" s="5">
+        <v>226.3271</v>
+      </c>
+      <c r="D418" s="5">
+        <v>226.3271</v>
+      </c>
+      <c r="E418" s="5">
+        <v>226.3271</v>
+      </c>
+      <c r="F418" s="5">
+        <v>0</v>
+      </c>
+      <c r="G418" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A419" s="3"/>
-      <c r="B419" s="5"/>
-      <c r="C419" s="5"/>
-      <c r="D419" s="5"/>
-      <c r="E419" s="5"/>
-      <c r="F419" s="5"/>
-      <c r="G419" s="5"/>
+      <c r="A419" s="3">
+        <v>44992</v>
+      </c>
+      <c r="B419" s="5">
+        <v>226.41380000000001</v>
+      </c>
+      <c r="C419" s="5">
+        <v>226.41380000000001</v>
+      </c>
+      <c r="D419" s="5">
+        <v>226.41380000000001</v>
+      </c>
+      <c r="E419" s="5">
+        <v>226.41380000000001</v>
+      </c>
+      <c r="F419" s="5">
+        <v>0</v>
+      </c>
+      <c r="G419" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A420" s="3"/>
-      <c r="B420" s="5"/>
-      <c r="C420" s="5"/>
-      <c r="D420" s="5"/>
-      <c r="E420" s="5"/>
-      <c r="F420" s="5"/>
-      <c r="G420" s="5"/>
+      <c r="A420" s="3">
+        <v>44993</v>
+      </c>
+      <c r="B420" s="5">
+        <v>226.47739999999999</v>
+      </c>
+      <c r="C420" s="5">
+        <v>226.47739999999999</v>
+      </c>
+      <c r="D420" s="5">
+        <v>226.47739999999999</v>
+      </c>
+      <c r="E420" s="5">
+        <v>226.47739999999999</v>
+      </c>
+      <c r="F420" s="5">
+        <v>0</v>
+      </c>
+      <c r="G420" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A421" s="3"/>
+      <c r="A421" s="3">
+        <v>44994</v>
+      </c>
+      <c r="B421" s="5">
+        <v>226.53899999999999</v>
+      </c>
+      <c r="C421" s="5">
+        <v>226.53899999999999</v>
+      </c>
+      <c r="D421" s="5">
+        <v>226.53899999999999</v>
+      </c>
+      <c r="E421" s="5">
+        <v>226.53899999999999</v>
+      </c>
+      <c r="F421" s="5">
+        <v>0</v>
+      </c>
+      <c r="G421" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A422" s="3">
+        <v>44995</v>
+      </c>
+      <c r="B422" s="5">
+        <v>226.6112</v>
+      </c>
+      <c r="C422" s="5">
+        <v>226.6112</v>
+      </c>
+      <c r="D422" s="5">
+        <v>226.6112</v>
+      </c>
+      <c r="E422" s="5">
+        <v>226.6112</v>
+      </c>
+      <c r="F422" s="5">
+        <v>0</v>
+      </c>
+      <c r="G422" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A423" s="3">
+        <v>44998</v>
+      </c>
+      <c r="B423" s="5">
+        <v>226.70580000000001</v>
+      </c>
+      <c r="C423" s="5">
+        <v>226.70580000000001</v>
+      </c>
+      <c r="D423" s="5">
+        <v>226.70580000000001</v>
+      </c>
+      <c r="E423" s="5">
+        <v>226.70580000000001</v>
+      </c>
+      <c r="F423" s="5">
+        <v>0</v>
+      </c>
+      <c r="G423" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A424" s="3">
+        <v>44999</v>
+      </c>
+      <c r="B424" s="5">
+        <v>226.768</v>
+      </c>
+      <c r="C424" s="5">
+        <v>226.768</v>
+      </c>
+      <c r="D424" s="5">
+        <v>226.768</v>
+      </c>
+      <c r="E424" s="5">
+        <v>226.768</v>
+      </c>
+      <c r="F424" s="5">
+        <v>0</v>
+      </c>
+      <c r="G424" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -29273,9 +29834,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6508B615-C4C0-4A79-A165-6AE659695A0E}">
-  <dimension ref="A1:G421"/>
+  <dimension ref="A1:G424"/>
   <sheetViews>
-    <sheetView topLeftCell="A400" workbookViewId="0"/>
+    <sheetView topLeftCell="A409" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -38325,13 +38886,13 @@
         <v>44957</v>
       </c>
       <c r="B394" s="5">
-        <v>212.48159999999999</v>
+        <v>212.5865</v>
       </c>
       <c r="C394" s="5">
-        <v>212.48159999999999</v>
+        <v>212.5865</v>
       </c>
       <c r="D394" s="5">
-        <v>212.48159999999999</v>
+        <v>212.5865</v>
       </c>
       <c r="E394" s="5">
         <v>212.5865</v>
@@ -38781,70 +39342,257 @@
       </c>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A414" s="3"/>
-      <c r="B414" s="5"/>
-      <c r="C414" s="5"/>
-      <c r="D414" s="5"/>
-      <c r="E414" s="5"/>
-      <c r="F414" s="5"/>
-      <c r="G414" s="5"/>
+      <c r="A414" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B414" s="5">
+        <v>212.82140000000001</v>
+      </c>
+      <c r="C414" s="5">
+        <v>212.82140000000001</v>
+      </c>
+      <c r="D414" s="5">
+        <v>212.82140000000001</v>
+      </c>
+      <c r="E414" s="5">
+        <v>212.82140000000001</v>
+      </c>
+      <c r="F414" s="5">
+        <v>0</v>
+      </c>
+      <c r="G414" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A415" s="3"/>
-      <c r="B415" s="5"/>
-      <c r="C415" s="5"/>
-      <c r="D415" s="5"/>
-      <c r="E415" s="5"/>
-      <c r="F415" s="5"/>
-      <c r="G415" s="5"/>
+      <c r="A415" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B415" s="5">
+        <v>212.90469999999999</v>
+      </c>
+      <c r="C415" s="5">
+        <v>212.90469999999999</v>
+      </c>
+      <c r="D415" s="5">
+        <v>212.90469999999999</v>
+      </c>
+      <c r="E415" s="5">
+        <v>212.90469999999999</v>
+      </c>
+      <c r="F415" s="5">
+        <v>0</v>
+      </c>
+      <c r="G415" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A416" s="3"/>
-      <c r="B416" s="5"/>
-      <c r="C416" s="5"/>
-      <c r="D416" s="5"/>
-      <c r="E416" s="5"/>
-      <c r="F416" s="5"/>
-      <c r="G416" s="5"/>
+      <c r="A416" s="3">
+        <v>44987</v>
+      </c>
+      <c r="B416" s="5">
+        <v>212.8554</v>
+      </c>
+      <c r="C416" s="5">
+        <v>212.8554</v>
+      </c>
+      <c r="D416" s="5">
+        <v>212.8554</v>
+      </c>
+      <c r="E416" s="5">
+        <v>212.8554</v>
+      </c>
+      <c r="F416" s="5">
+        <v>0</v>
+      </c>
+      <c r="G416" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A417" s="3"/>
-      <c r="B417" s="5"/>
-      <c r="C417" s="5"/>
-      <c r="D417" s="5"/>
-      <c r="E417" s="5"/>
-      <c r="F417" s="5"/>
-      <c r="G417" s="5"/>
+      <c r="A417" s="3">
+        <v>44988</v>
+      </c>
+      <c r="B417" s="5">
+        <v>212.82300000000001</v>
+      </c>
+      <c r="C417" s="5">
+        <v>212.82300000000001</v>
+      </c>
+      <c r="D417" s="5">
+        <v>212.82300000000001</v>
+      </c>
+      <c r="E417" s="5">
+        <v>212.82300000000001</v>
+      </c>
+      <c r="F417" s="5">
+        <v>0</v>
+      </c>
+      <c r="G417" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A418" s="3"/>
-      <c r="B418" s="5"/>
-      <c r="C418" s="5"/>
-      <c r="D418" s="5"/>
-      <c r="E418" s="5"/>
-      <c r="F418" s="5"/>
-      <c r="G418" s="5"/>
+      <c r="A418" s="3">
+        <v>44991</v>
+      </c>
+      <c r="B418" s="5">
+        <v>213.0651</v>
+      </c>
+      <c r="C418" s="5">
+        <v>213.0651</v>
+      </c>
+      <c r="D418" s="5">
+        <v>213.0651</v>
+      </c>
+      <c r="E418" s="5">
+        <v>213.0651</v>
+      </c>
+      <c r="F418" s="5">
+        <v>0</v>
+      </c>
+      <c r="G418" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A419" s="3"/>
-      <c r="B419" s="5"/>
-      <c r="C419" s="5"/>
-      <c r="D419" s="5"/>
-      <c r="E419" s="5"/>
-      <c r="F419" s="5"/>
-      <c r="G419" s="5"/>
+      <c r="A419" s="3">
+        <v>44992</v>
+      </c>
+      <c r="B419" s="5">
+        <v>213.21789999999999</v>
+      </c>
+      <c r="C419" s="5">
+        <v>213.21789999999999</v>
+      </c>
+      <c r="D419" s="5">
+        <v>213.21789999999999</v>
+      </c>
+      <c r="E419" s="5">
+        <v>213.21789999999999</v>
+      </c>
+      <c r="F419" s="5">
+        <v>0</v>
+      </c>
+      <c r="G419" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A420" s="3"/>
-      <c r="B420" s="5"/>
-      <c r="C420" s="5"/>
-      <c r="D420" s="5"/>
-      <c r="E420" s="5"/>
-      <c r="F420" s="5"/>
-      <c r="G420" s="5"/>
+      <c r="A420" s="3">
+        <v>44993</v>
+      </c>
+      <c r="B420" s="5">
+        <v>213.2432</v>
+      </c>
+      <c r="C420" s="5">
+        <v>213.2432</v>
+      </c>
+      <c r="D420" s="5">
+        <v>213.2432</v>
+      </c>
+      <c r="E420" s="5">
+        <v>213.2432</v>
+      </c>
+      <c r="F420" s="5">
+        <v>0</v>
+      </c>
+      <c r="G420" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A421" s="3"/>
+      <c r="A421" s="3">
+        <v>44994</v>
+      </c>
+      <c r="B421" s="5">
+        <v>213.32810000000001</v>
+      </c>
+      <c r="C421" s="5">
+        <v>213.32810000000001</v>
+      </c>
+      <c r="D421" s="5">
+        <v>213.32810000000001</v>
+      </c>
+      <c r="E421" s="5">
+        <v>213.32810000000001</v>
+      </c>
+      <c r="F421" s="5">
+        <v>0</v>
+      </c>
+      <c r="G421" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A422" s="3">
+        <v>44995</v>
+      </c>
+      <c r="B422" s="5">
+        <v>213.40299999999999</v>
+      </c>
+      <c r="C422" s="5">
+        <v>213.40299999999999</v>
+      </c>
+      <c r="D422" s="5">
+        <v>213.40299999999999</v>
+      </c>
+      <c r="E422" s="5">
+        <v>213.40299999999999</v>
+      </c>
+      <c r="F422" s="5">
+        <v>0</v>
+      </c>
+      <c r="G422" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A423" s="3">
+        <v>44998</v>
+      </c>
+      <c r="B423" s="5">
+        <v>213.48060000000001</v>
+      </c>
+      <c r="C423" s="5">
+        <v>213.48060000000001</v>
+      </c>
+      <c r="D423" s="5">
+        <v>213.48060000000001</v>
+      </c>
+      <c r="E423" s="5">
+        <v>213.48060000000001</v>
+      </c>
+      <c r="F423" s="5">
+        <v>0</v>
+      </c>
+      <c r="G423" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A424" s="3">
+        <v>44999</v>
+      </c>
+      <c r="B424" s="5">
+        <v>213.5821</v>
+      </c>
+      <c r="C424" s="5">
+        <v>213.5821</v>
+      </c>
+      <c r="D424" s="5">
+        <v>213.5821</v>
+      </c>
+      <c r="E424" s="5">
+        <v>213.5821</v>
+      </c>
+      <c r="F424" s="5">
+        <v>0</v>
+      </c>
+      <c r="G424" s="5">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -38854,9 +39602,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A39F584C-6D90-4048-B26D-97D5525D1AA1}">
-  <dimension ref="A1:G342"/>
+  <dimension ref="A1:G353"/>
   <sheetViews>
-    <sheetView topLeftCell="A319" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -46726,6 +47474,259 @@
       </c>
       <c r="G342" s="5">
         <v>230054925</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A343" s="3">
+        <v>44985</v>
+      </c>
+      <c r="B343" s="5">
+        <v>1050.0387000000001</v>
+      </c>
+      <c r="C343" s="5">
+        <v>1050.0387000000001</v>
+      </c>
+      <c r="D343" s="5">
+        <v>1050.0387000000001</v>
+      </c>
+      <c r="E343" s="5">
+        <v>1050.0387000000001</v>
+      </c>
+      <c r="F343" s="5">
+        <v>417321.74</v>
+      </c>
+      <c r="G343" s="5">
+        <v>242786297</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A344" s="3">
+        <v>44986</v>
+      </c>
+      <c r="B344" s="5">
+        <v>1050.4188999999999</v>
+      </c>
+      <c r="C344" s="5">
+        <v>1050.4188999999999</v>
+      </c>
+      <c r="D344" s="5">
+        <v>1050.4188999999999</v>
+      </c>
+      <c r="E344" s="5">
+        <v>1050.4188999999999</v>
+      </c>
+      <c r="F344" s="5">
+        <v>396278.16</v>
+      </c>
+      <c r="G344" s="5">
+        <v>237293559</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A345" s="3">
+        <v>44987</v>
+      </c>
+      <c r="B345" s="5">
+        <v>1049.9514999999999</v>
+      </c>
+      <c r="C345" s="5">
+        <v>1049.9514999999999</v>
+      </c>
+      <c r="D345" s="5">
+        <v>1049.9514999999999</v>
+      </c>
+      <c r="E345" s="5">
+        <v>1049.9514999999999</v>
+      </c>
+      <c r="F345" s="5">
+        <v>435417.36</v>
+      </c>
+      <c r="G345" s="5">
+        <v>261258061</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A346" s="3">
+        <v>44988</v>
+      </c>
+      <c r="B346" s="5">
+        <v>1049.5456999999999</v>
+      </c>
+      <c r="C346" s="5">
+        <v>1049.5456999999999</v>
+      </c>
+      <c r="D346" s="5">
+        <v>1049.5456999999999</v>
+      </c>
+      <c r="E346" s="5">
+        <v>1049.5456999999999</v>
+      </c>
+      <c r="F346" s="5">
+        <v>470318.85</v>
+      </c>
+      <c r="G346" s="5">
+        <v>282993099</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A347" s="3">
+        <v>44991</v>
+      </c>
+      <c r="B347" s="5">
+        <v>1046.4517000000001</v>
+      </c>
+      <c r="C347" s="5">
+        <v>1046.4517000000001</v>
+      </c>
+      <c r="D347" s="5">
+        <v>1046.4517000000001</v>
+      </c>
+      <c r="E347" s="5">
+        <v>1046.4517000000001</v>
+      </c>
+      <c r="F347" s="5">
+        <v>435431.17</v>
+      </c>
+      <c r="G347" s="5">
+        <v>252866549</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A348" s="3">
+        <v>44992</v>
+      </c>
+      <c r="B348" s="5">
+        <v>1042.2991</v>
+      </c>
+      <c r="C348" s="5">
+        <v>1042.2991</v>
+      </c>
+      <c r="D348" s="5">
+        <v>1042.2991</v>
+      </c>
+      <c r="E348" s="5">
+        <v>1042.2991</v>
+      </c>
+      <c r="F348" s="5">
+        <v>472738.53</v>
+      </c>
+      <c r="G348" s="5">
+        <v>275040033</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A349" s="3">
+        <v>44993</v>
+      </c>
+      <c r="B349" s="5">
+        <v>1039.3268</v>
+      </c>
+      <c r="C349" s="5">
+        <v>1039.3268</v>
+      </c>
+      <c r="D349" s="5">
+        <v>1039.3268</v>
+      </c>
+      <c r="E349" s="5">
+        <v>1039.3268</v>
+      </c>
+      <c r="F349" s="5">
+        <v>390925.55</v>
+      </c>
+      <c r="G349" s="5">
+        <v>228935195</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A350" s="3">
+        <v>44994</v>
+      </c>
+      <c r="B350" s="5">
+        <v>1038.3416999999999</v>
+      </c>
+      <c r="C350" s="5">
+        <v>1038.3416999999999</v>
+      </c>
+      <c r="D350" s="5">
+        <v>1038.3416999999999</v>
+      </c>
+      <c r="E350" s="5">
+        <v>1038.3416999999999</v>
+      </c>
+      <c r="F350" s="5">
+        <v>358062.44</v>
+      </c>
+      <c r="G350" s="5">
+        <v>198839214</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A351" s="3">
+        <v>44995</v>
+      </c>
+      <c r="B351" s="5">
+        <v>1037.7632000000001</v>
+      </c>
+      <c r="C351" s="5">
+        <v>1037.7632000000001</v>
+      </c>
+      <c r="D351" s="5">
+        <v>1037.7632000000001</v>
+      </c>
+      <c r="E351" s="5">
+        <v>1037.7632000000001</v>
+      </c>
+      <c r="F351" s="5">
+        <v>393829.47</v>
+      </c>
+      <c r="G351" s="5">
+        <v>217692856</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A352" s="3">
+        <v>44998</v>
+      </c>
+      <c r="B352" s="5">
+        <v>1044.4197999999999</v>
+      </c>
+      <c r="C352" s="5">
+        <v>1044.4197999999999</v>
+      </c>
+      <c r="D352" s="5">
+        <v>1044.4197999999999</v>
+      </c>
+      <c r="E352" s="5">
+        <v>1044.4197999999999</v>
+      </c>
+      <c r="F352" s="5">
+        <v>741945.04</v>
+      </c>
+      <c r="G352" s="5">
+        <v>353102281</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A353" s="3">
+        <v>44999</v>
+      </c>
+      <c r="B353" s="5">
+        <v>1043.1335999999999</v>
+      </c>
+      <c r="C353" s="5">
+        <v>1043.1335999999999</v>
+      </c>
+      <c r="D353" s="5">
+        <v>1043.1335999999999</v>
+      </c>
+      <c r="E353" s="5">
+        <v>1043.1335999999999</v>
+      </c>
+      <c r="F353" s="5">
+        <v>729537.14</v>
+      </c>
+      <c r="G353" s="5">
+        <v>365287849</v>
       </c>
     </row>
   </sheetData>
@@ -46754,12 +47755,12 @@
       </c>
       <c r="B2" s="6">
         <f ca="1">NOW()</f>
-        <v>44985.416069212966</v>
+        <v>45000.436625578703</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="7">
         <f ca="1">DATE(YEAR(B2),MONTH(B2),DAY(B2))</f>
-        <v>44985</v>
+        <v>45000</v>
       </c>
     </row>
   </sheetData>
